--- a/oxford_db.xlsx
+++ b/oxford_db.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1225,6 +1225,498 @@
         </is>
       </c>
     </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>handful</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>&lt;div class="oald" id="entryContent"&gt;&lt;div class="entry" hclass="entry" hlength="7" htag="section" id="handful" idm_id="000027227" sk="handful: :0" sum="653"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="handful_topg_1"&gt;&lt;div class="webtop"&gt;&lt;h1 class="headword" hclass="headword" htag="h1" id="handful_h_1" ox5000="y"&gt;handful&lt;/h1&gt; &lt;span class="pos" hclass="pos" htag="span"&gt;noun&lt;/span&gt;&lt;div class="symbols" hclass="symbols" htag="div"&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/oxford3000-5000?dataset=english&amp;amp;list=ox5000&amp;amp;level=c1"&gt;&lt;span class="ox5ksym_c1"&gt; &lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="handful"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/h/han/handf/handful__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/h/han/handf/handful__gb_1.ogg" style="cursor: pointer" title="handful pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈhændfʊl/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="handful"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/h/han/handf/handful__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/h/han/handf/handful__us_1.ogg" style="cursor: pointer" title="handful pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈhændfʊl/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;/div&gt;&lt;a class="responsive_display_inline_on_smartphone link-right" href="#relatedentries"&gt;                            jump to other results                        &lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="senses_multiple" htag="ol"&gt;&lt;li cefr="c1" class="sense" hclass="sense" htag="li" id="handful_sng_1" ox5000="y" sensenum="1"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;div class="symbols" hclass="symbols" htag="div"&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/oxford3000-5000?dataset=english&amp;amp;list=ox5000&amp;amp;level=c1"&gt;&lt;span class="ox5ksym_c1"&gt; &lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;/span&gt;&lt;span class="grammar" hclass="grammar" htag="span"&gt;[countable]&lt;/span&gt; &lt;span class="cf" hclass="cf" htag="span"&gt;handful (of something)&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;the amount of something that can be held in one hand&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;a handful of rice&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;She scooped up handfuls of loose earth.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="handful_unbox_1" unbox="extra_examples"&gt;&lt;span class="box_title"&gt;Extra Examples&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;She bent and pulled up a double handful of weeds.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;She grabbed handfuls of the dirty snow.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/span&gt;&lt;/div&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="handful_unbox_2" unbox="snippet"&gt;&lt;span class="box_title"&gt;Oxford Collocations Dictionary&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="unbox"&gt;adjective&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;good&lt;/li&gt;&lt;li class="li"&gt;double&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;preposition&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;handful of&lt;/li&gt;&lt;/ul&gt;&lt;span class="xref_to_full_entry"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/collocations/handful" title=" definition in Collocations "&gt;full entry&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;/li&gt;&lt;li cefr="c1" class="sense" hclass="sense" htag="li" id="handful_sng_2" ox5000="y" sensenum="2"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;div class="symbols" hclass="symbols" htag="div"&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/oxford3000-5000?dataset=english&amp;amp;list=ox5000&amp;amp;level=c1"&gt;&lt;span class="ox5ksym_c1"&gt; &lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;/span&gt;&lt;span class="grammar" hclass="grammar" htag="span"&gt;[singular]&lt;/span&gt; &lt;span class="cf" hclass="cf" htag="span"&gt;handful (of somebody/something)&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;a small number of people or things&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;Only a handful of people came.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;They cannot hope to win more than a handful of seats at the next election.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="handful_unbox_3" unbox="extra_examples"&gt;&lt;span class="box_title"&gt;Extra Examples&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;We have received only a handful of emails on this subject.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;She has a good handful of &lt;span class="gloss" hclass="gloss" htag="span"&gt;(= several)&lt;/span&gt; Hollywood roles under her belt.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/span&gt;&lt;/div&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="handful_unbox_4" unbox="snippet"&gt;&lt;span class="box_title"&gt;Oxford Collocations Dictionary&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="unbox"&gt;adjective&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;small&lt;/li&gt;&lt;li class="li"&gt;tiny&lt;/li&gt;&lt;li class="li"&gt;mere&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;preposition&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;handful of&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;phrases&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;just a handful of something&lt;/li&gt;&lt;li class="li"&gt;only a handful of something&lt;/li&gt;&lt;/ul&gt;&lt;span class="xref_to_full_entry"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/collocations/handful" title=" definition in Collocations "&gt;full entry&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;div class="am-entry" id="ad_contentslot_1"&gt;&lt;script type="text/javascript"&gt;iaw.cmd.push(function() { iaw.display('ad_contentslot_1'); });&lt;/script&gt;&lt;/div&gt;&lt;/li&gt;&lt;li class="sense" hclass="sense" htag="li" id="handful_sng_3" sensenum="3"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;div class="variants" hclass="variants" htag="div" type="alt"&gt;&lt;span class="v-g"&gt;&lt;span class="v"&gt;a handful&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;/span&gt; &lt;span class="grammar" hclass="grammar" htag="span"&gt;[singular]&lt;/span&gt; &lt;span class="labels" hclass="labels" htag="span"&gt;(informal)&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;a person or an animal that is difficult to control&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;Her children can be a real handful.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;/li&gt;&lt;/ol&gt;&lt;span class="dictlink-g"&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/american_english/handful" title=" definition in American English "&gt;&lt;span class="xh"&gt;handful&lt;/span&gt;&lt;/a&gt; in the Oxford Advanced American Dictionary&lt;/span&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/academic/handful" title=" definition in Academic English "&gt;&lt;span class="xh"&gt;handful&lt;/span&gt;&lt;/a&gt; in the Oxford Learner's Dictionary of Academic English&lt;/span&gt;&lt;/span&gt;&lt;div class="pron-link"&gt;Check pronunciation:                        &lt;a href="https://www.oxfordlearnersdictionaries.com/pronunciation/english/handful"&gt;handful&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>pedestrian</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>&lt;div class="oald" id="entryContent"&gt;&lt;div class="entry" hclass="entry" hlength="10" htag="section" id="pedestrian_1" idm_id="000044098" sk="pedestrian: :0" sum="354"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="pedestrian_topg_2"&gt;&lt;div class="webtop"&gt;&lt;h1 class="headword" hclass="headword" htag="h1" id="pedestrian_h_1"&gt;pedestrian&lt;/h1&gt; &lt;span class="pos" hclass="pos" htag="span"&gt;noun&lt;/span&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="pedestrian"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/p/ped/pedes/pedestrian__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/p/ped/pedes/pedestrian__gb_1.ogg" style="cursor: pointer" title="pedestrian pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/pəˈdestriən/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="pedestrian"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/p/ped/pedes/pedestrian__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/p/ped/pedes/pedestrian__us_1.ogg" style="cursor: pointer" title="pedestrian pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/pəˈdestriən/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;/div&gt;&lt;a class="responsive_display_inline_on_smartphone link-right" href="#relatedentries"&gt;                            jump to other results                        &lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="sense_single" htag="ol"&gt;&lt;li class="sense" hclass="sense" htag="li" id="pedestrian_sng_1"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="def" hclass="def" htag="span"&gt;a person walking in the street and not travelling in a vehicle&lt;/span&gt;&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;Two pedestrians were injured when the car skidded.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;a pedestrian walkway/bridge&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;The purpose of the project is to improve pedestrian safety.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;span class="xrefs" hclass="xrefs" htag="span" xt="cp"&gt;&lt;span class="prefix"&gt;compare&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/motorist" title="motorist definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="motorist_e"&gt;&lt;span class="xh"&gt;motorist&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="pedestrian2_unbox_1" unbox="wordfinder"&gt;&lt;span class="box_title"&gt;Wordfinder&lt;/span&gt;&lt;span class="body"&gt;&lt;ul class="bullet"&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/clamp_1" title="clamp definition"&gt;&lt;span class="xref"&gt;clamp&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/cone_2#cone_sng_3" title="cone definition"&gt;&lt;span class="xref"&gt;cone&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/contraflow" title="contraflow definition"&gt;&lt;span class="xref"&gt;contraflow&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="xref" href="pedestrian_subentryg_1:pedestrian_topg_2" tofix=""&gt;pedestrian&lt;/span&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/roadworks" title="roadworks definition"&gt;&lt;span class="xref"&gt;roadworks&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/speed-hump" title="speed hump definition"&gt;&lt;span class="xref"&gt;speed hump&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/tailback#tailback_sng_1" title="tailback definition"&gt;&lt;span class="xref"&gt;tailback&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/toll_1#toll_sng_1" title="toll definition"&gt;&lt;span class="xref"&gt;toll&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/traffic_1#traffic_sng_1" title="traffic definition"&gt;&lt;span class="xref"&gt;traffic&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/zebra-crossing" title="zebra crossing definition"&gt;&lt;span class="xref"&gt;zebra crossing&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="pedestrian2_unbox_2" unbox="extra_examples"&gt;&lt;span class="box_title"&gt;Extra Examples&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;There is pedestrian access to both the front and side.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;The bridge is designed for pedestrian traffic only.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;Pedestrian accidents are down by 5%.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/span&gt;&lt;/div&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="pedestrian_unbox_1" unbox="wordorigin"&gt;&lt;span class="box_title"&gt;Word Origin&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="p"&gt;early 18th cent.: from French &lt;span class="ei"&gt;pédestre&lt;/span&gt; or Latin &lt;span class="ei"&gt;pedester&lt;/span&gt; ‘going on foot’, also ‘written in prose’ + &lt;span class="eb"&gt;-ian&lt;/span&gt;. Early use in English was in the description of writing as ‘prosaic’.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;/li&gt;&lt;/ol&gt;&lt;span class="dictlink-g"&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/american_english/pedestrian_1" title=" definition in American English "&gt;&lt;span class="xh"&gt;pedestrian&lt;/span&gt;&lt;/a&gt; in the Oxford Advanced American Dictionary&lt;/span&gt;&lt;/span&gt;&lt;div class="pron-link"&gt;Check pronunciation:                        &lt;a href="https://www.oxfordlearnersdictionaries.com/pronunciation/english/pedestrian_1"&gt;pedestrian&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>robust</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>&lt;div class="oald" id="entryContent"&gt;&lt;div class="entry" hclass="entry" hlength="6" htag="section" id="robust" idm_id="000051161" sk="robust: :0" sum="735"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="robust_topg_1"&gt;&lt;div class="webtop"&gt;&lt;h1 class="headword" hclass="headword" htag="h1" id="robust_h_1" ox5000="y"&gt;robust&lt;/h1&gt; &lt;span class="pos" hclass="pos" htag="span"&gt;adjective&lt;/span&gt;&lt;div class="symbols" hclass="symbols" htag="div"&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/oxford3000-5000?dataset=english&amp;amp;list=ox5000&amp;amp;level=c1"&gt;&lt;span class="ox5ksym_c1"&gt; &lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="robust"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/r/rob/robus/robust__gb_3.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/r/rob/robus/robust__gb_3.ogg" style="cursor: pointer" title="robust pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/rəʊˈbʌst/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="robust"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/r/rob/robus/robust__us_1_rr.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/r/rob/robus/robust__us_1_rr.ogg" style="cursor: pointer" title="robust pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/rəʊˈbʌst/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;/div&gt;&lt;a class="responsive_display_inline_on_smartphone link-right" href="#relatedentries"&gt;                            jump to other results                        &lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="senses_multiple" htag="ol"&gt;&lt;li cefr="c1" class="sense" hclass="sense" htag="li" id="robust_sng_1" ox5000="y" sensenum="1"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;div class="symbols" hclass="symbols" htag="div"&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/oxford3000-5000?dataset=english&amp;amp;list=ox5000&amp;amp;level=c1"&gt;&lt;span class="ox5ksym_c1"&gt; &lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;/span&gt;&lt;span class="def" hclass="def" htag="span"&gt;strong and healthy&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;She was almost 90, but still very robust.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;He seems to be in robust (good) health.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="topic-g"&gt;&lt;span class="prefix"&gt;Topics &lt;/span&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/topic/health-and-fitness?level=c1" title="Topic health-and-fitness"&gt;&lt;span class="topic" href="l2:health:health_and_fitness?cefr=c1"&gt;&lt;span class="topic_name"&gt;Health and Fitness&lt;/span&gt;&lt;span class="topic_cefr"&gt;c1&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; &lt;/li&gt;&lt;li cefr="c1" class="sense" hclass="sense" htag="li" id="robust_sng_2" ox5000="y" sensenum="2"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;div class="symbols" hclass="symbols" htag="div"&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/oxford3000-5000?dataset=english&amp;amp;list=ox5000&amp;amp;level=c1"&gt;&lt;span class="ox5ksym_c1"&gt; &lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;/span&gt;&lt;span class="def" hclass="def" htag="span"&gt;strong; able to survive being used a lot and not likely to break&lt;/span&gt; &lt;span class="xrefs" hclass="xrefs" htag="span" xt="nsyn"&gt;&lt;span class="prefix"&gt;synonym&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/sturdy" title="sturdy definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="sturdy_e"&gt;&lt;span class="xh"&gt;sturdy&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;a robust piece of equipment&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;div class="am-entry" id="ad_contentslot_1"&gt;&lt;script type="text/javascript"&gt;iaw.cmd.push(function() { iaw.display('ad_contentslot_1'); });&lt;/script&gt;&lt;/div&gt;&lt;/li&gt;&lt;li cefr="c1" class="sense" hclass="sense" htag="li" id="robust_sng_3" ox5000="y" sensenum="3"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;div class="symbols" hclass="symbols" htag="div"&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/oxford3000-5000?dataset=english&amp;amp;list=ox5000&amp;amp;level=c1"&gt;&lt;span class="ox5ksym_c1"&gt; &lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;/span&gt;&lt;span class="dis-g"&gt;&lt;span class="wrap"&gt;(&lt;/span&gt;&lt;span class="dtxt"&gt;of a system or an organization&lt;/span&gt;&lt;span class="wrap"&gt;)&lt;/span&gt;&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;strong and not likely to fail or become weak&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;robust economic growth&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;/li&gt;&lt;li cefr="c1" class="sense" hclass="sense" htag="li" id="robust_sng_4" sensenum="4"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="def" hclass="def" htag="span"&gt;strong and determined; showing that you are sure about what you are doing or saying&lt;/span&gt;&lt;/span&gt; &lt;span class="xrefs" hclass="xrefs" htag="span" xt="syn"&gt;&lt;span class="prefix"&gt;synonym&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/vigorous" title="vigorous definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="vigorous_e"&gt;&lt;span class="xh"&gt;vigorous&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;The company is taking a more robust approach to management.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="topic-g"&gt;&lt;span class="prefix"&gt;Topics &lt;/span&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/topic/doubt-guessing-and-certainty?level=c1" title="Topic doubt-guessing-and-certainty"&gt;&lt;span class="topic" href="l2:functions:doubt_guessing_and_certainty?cefr=c1"&gt;&lt;span class="topic_name"&gt;Doubt, guessing and certainty&lt;/span&gt;&lt;span class="topic_cefr"&gt;c1&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; &lt;/li&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="robust_unbox_1" unbox="wordorigin"&gt;&lt;span class="box_title"&gt;Word Origin&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="p"&gt;mid 16th cent.: from Latin &lt;span class="ei"&gt;robustus&lt;/span&gt; ‘firm and hard’, from &lt;span class="ei"&gt;robus&lt;/span&gt;, earlier form of &lt;span class="ei"&gt;robur&lt;/span&gt; ‘oak, strength’.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;/ol&gt;&lt;span class="dictlink-g"&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/american_english/robust" title=" definition in American English "&gt;&lt;span class="xh"&gt;robust&lt;/span&gt;&lt;/a&gt; in the Oxford Advanced American Dictionary&lt;/span&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/academic/robust" title=" definition in Academic English "&gt;&lt;span class="xh"&gt;robust&lt;/span&gt;&lt;/a&gt; in the Oxford Learner's Dictionary of Academic English&lt;/span&gt;&lt;/span&gt;&lt;div class="pron-link"&gt;Check pronunciation:                        &lt;a href="https://www.oxfordlearnersdictionaries.com/pronunciation/english/robust"&gt;robust&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>voyage</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>&lt;div class="oald" id="entryContent"&gt;&lt;div class="entry" hclass="entry" hlength="6" htag="section" id="voyage_1" idm_id="000066142" sk="voyage: :0" sum="466"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="voyage_topg_2"&gt;&lt;div class="webtop"&gt;&lt;h1 class="headword" hclass="headword" htag="h1" id="voyage_h_1"&gt;voyage&lt;/h1&gt; &lt;span class="pos" hclass="pos" htag="span"&gt;noun&lt;/span&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="voyage"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/v/voy/voyag/voyage__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/v/voy/voyag/voyage__gb_1.ogg" style="cursor: pointer" title="voyage pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈvɔɪɪdʒ/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="voyage"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/v/voy/voyag/voyage__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/v/voy/voyag/voyage__us_1.ogg" style="cursor: pointer" title="voyage pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈvɔɪɪdʒ/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;/div&gt;&lt;a class="responsive_display_inline_on_smartphone link-right" href="#relatedentries"&gt;                            jump to other results                        &lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="sense_single" htag="ol"&gt;&lt;li class="sense" fkcefr="b2" hclass="sense" htag="li" id="voyage_sng_1"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="def" hclass="def" htag="span"&gt;a long journey, especially by sea or in space&lt;/span&gt;&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;an around-the-world voyage&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;a voyage in space&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;The Titanic sank on its &lt;span class="cl"&gt;maiden voyage&lt;/span&gt; &lt;span class="gloss" hclass="gloss" htag="span"&gt;(= first journey)&lt;/span&gt;.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt; &lt;span class="labels" hclass="labels" htag="span"&gt;(figurative)&lt;/span&gt; &lt;span class="x"&gt;Going to college can be a voyage of self-discovery.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;Darwin’s epic voyage of exploration&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="voyage2_unbox_1" unbox="wordfinder"&gt;&lt;span class="box_title"&gt;Wordfinder&lt;/span&gt;&lt;span class="body"&gt;&lt;ul class="bullet"&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/colonize#colonize_sng_1" title="colonize definition"&gt;&lt;span class="xref"&gt;colonize&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/discover#discover_sng_1" title="discover definition"&gt;&lt;span class="xref"&gt;discover&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/explore#explore_sng_1" title="explore definition"&gt;&lt;span class="xref"&gt;explore&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/pioneer_1#pioneer_sng_2" title="pioneer definition"&gt;&lt;span class="xref"&gt;pioneer&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/reconnaissance" title="reconnaissance definition"&gt;&lt;span class="xref"&gt;reconnaissance&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/scout_1" title="scout definition"&gt;&lt;span class="xref"&gt;scout&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/settle_1#settle_sng_4" title="settle definition"&gt;&lt;span class="xref"&gt;settle&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/terrain" title="terrain definition"&gt;&lt;span class="xref"&gt;terrain&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/territory" title="territory definition"&gt;&lt;span class="xref"&gt;territory&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/voyage_1" title="voyage definition"&gt;&lt;span class="xref"&gt;voyage&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="voyage2_unbox_2" unbox="extra_examples"&gt;&lt;span class="box_title"&gt;Extra Examples&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;Lady Franklin kept a journal during the voyage.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;The ship completed her maiden voyage in May.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;There were mainly scientists on the voyage.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;Bering's voyage of discovery was one of many scientific expeditions in the 18th century.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;The ship began its return voyage to Europe.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;The ship was badly damaged during the voyage from Plymouth.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;They set off on their voyage around the world.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;Writing a biography can be an absorbing voyage of discovery.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/span&gt;&lt;/div&gt;&lt;span class="topic-g"&gt;&lt;span class="prefix"&gt;Topics &lt;/span&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/topic/transport-by-water?level=b2" title="Topic transport-by-water"&gt;&lt;span class="topic" href="l2:travel:transport_by_water?cefr=b2"&gt;&lt;span class="topic_name"&gt;Transport by water&lt;/span&gt;&lt;span class="topic_cefr"&gt;b2&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;span class="sep"&gt;,&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/topic/space?level=b2" title="Topic space"&gt;&lt;span class="topic" href="l2:time_and_space:space?cefr=b2"&gt;&lt;span class="topic_name"&gt;Space&lt;/span&gt;&lt;span class="topic_cefr"&gt;b2&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;span class="sep"&gt;,&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/topic/holidays?level=b2" title="Topic holidays"&gt;&lt;span class="topic" href="l2:travel:holidays?cefr=b2"&gt;&lt;span class="topic_name"&gt;Holidays&lt;/span&gt;&lt;span class="topic_cefr"&gt;b2&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="voyage2_unbox_3" unbox="snippet"&gt;&lt;span class="box_title"&gt;Oxford Collocations Dictionary&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="unbox"&gt;adjective&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;epic&lt;/li&gt;&lt;li class="li"&gt;great&lt;/li&gt;&lt;li class="li"&gt;long&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;verb + voyage&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;embark on&lt;/li&gt;&lt;li class="li"&gt;go on&lt;/li&gt;&lt;li class="li"&gt;make&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;preposition&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;during a/​the voyage&lt;/li&gt;&lt;li class="li"&gt;on a/​the voyage&lt;/li&gt;&lt;li class="li"&gt;voyage from&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;phrases&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;a voyage of discovery&lt;/li&gt;&lt;/ul&gt;&lt;span class="xref_to_full_entry"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/collocations/voyage" title=" definition in Collocations "&gt;full entry&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="voyage_unbox_1" unbox="wordorigin"&gt;&lt;span class="box_title"&gt;Word Origin&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="p"&gt;Middle English (as a noun denoting a journey): from Old French &lt;span class="ei"&gt;voiage&lt;/span&gt;, from Latin &lt;span class="ei"&gt;viaticum&lt;/span&gt; ‘provisions for a journey’ (in late Latin ‘journey’).&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;/li&gt;&lt;/ol&gt;&lt;span class="dictlink-g"&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/american_english/voyage_1" title=" definition in American English "&gt;&lt;span class="xh"&gt;voyage&lt;/span&gt;&lt;/a&gt; in the Oxford Advanced American Dictionary&lt;/span&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/academic/voyage" title=" definition in Academic English "&gt;&lt;span class="xh"&gt;voyage&lt;/span&gt;&lt;/a&gt; in the Oxford Learner's Dictionary of Academic English&lt;/span&gt;&lt;/span&gt;&lt;div class="pron-link"&gt;Check pronunciation:                        &lt;a href="https://www.oxfordlearnersdictionaries.com/pronunciation/english/voyage_1"&gt;voyage&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>holy</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>&lt;div class="oald" id="entryContent"&gt;&lt;div class="entry" hclass="entry" hlength="4" htag="section" id="holy" idm_id="000028779" sk="holy: :0" sum="739"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="holy_topg_1"&gt;&lt;div class="webtop"&gt;&lt;h1 class="headword" hclass="headword" htag="h1" id="holy_h_1" ox3000="y" random="y"&gt;holy&lt;/h1&gt; &lt;span class="pos" hclass="pos" htag="span"&gt;adjective&lt;/span&gt;&lt;div class="symbols" hclass="symbols" htag="div"&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/oxford3000-5000?dataset=english&amp;amp;list=ox3000&amp;amp;level=b2"&gt;&lt;span class="ox3ksym_b2"&gt; &lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="holy"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/h/hol/holy_/holy__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/h/hol/holy_/holy__gb_1.ogg" style="cursor: pointer" title="holy pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈhəʊli/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="holy"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/h/hol/holy_/holy__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/h/hol/holy_/holy__us_1.ogg" style="cursor: pointer" title="holy pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈhəʊli/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;div class="inflections" hclass="inflections" htag="div" id="holy_ifgs_1"&gt;(comparative &lt;span class="inflected_form" hclass="inflected_form" htag="span"&gt;holier&lt;/span&gt;, superlative &lt;span class="inflected_form" hclass="inflected_form" htag="span"&gt;holiest&lt;/span&gt;)&lt;/div&gt;&lt;/div&gt;&lt;a class="responsive_display_inline_on_smartphone link-right" href="#relatedentries"&gt;                            jump to other results                        &lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="senses_multiple" htag="ol"&gt;&lt;li cefr="b2" class="sense" hclass="sense" htag="li" id="holy_sng_1" ox3000="y" sensenum="1"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;div class="symbols" hclass="symbols" htag="div"&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/oxford3000-5000?dataset=english&amp;amp;list=ox3000&amp;amp;level=b2"&gt;&lt;span class="ox3ksym_b2"&gt; &lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;/span&gt; &lt;span class="grammar" hclass="grammar" htag="span"&gt;[usually before noun]&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;connected with God or a particular religion&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;the &lt;span class="cl"&gt;Holy Bible&lt;/span&gt;&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;&lt;span class="cl"&gt;holy books/scriptures&lt;/span&gt;&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;the holy city of Mecca&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;Islam’s holiest shrine&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;a holy day/month&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;a holy war &lt;span class="gloss" hclass="gloss" htag="span"&gt;(= one fought to defend the beliefs of a particular religion)&lt;/span&gt;&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;holy ground&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;span class="xrefs" hclass="xrefs" htag="span" xt="opp"&gt;&lt;span class="prefix"&gt;opposite&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/unholy" title="unholy definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="unholy_e"&gt;&lt;span class="xh"&gt;unholy&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="holy_unbox_1" unbox="extra_examples"&gt;&lt;span class="box_title"&gt;Extra Examples&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;For a believer, these words have an almost holy significance.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;The sacred desert site is the object of holy pilgrimage.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;The place is considered holy by the people who live there.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;He sprinkled her with holy water.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;He searched holy books, read the poets and studied human behaviour.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/span&gt;&lt;/div&gt;&lt;span class="topic-g"&gt;&lt;span class="prefix"&gt;Topics &lt;/span&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/topic/religion-and-festivals?level=b2" title="Topic religion-and-festivals"&gt;&lt;span class="topic" href="l2:politics_and_society:religion_and_festivals?cefr=b2"&gt;&lt;span class="topic_name"&gt;Religion and festivals&lt;/span&gt;&lt;span class="topic_cefr"&gt;b2&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; &lt;/li&gt;&lt;li cefr="b2" class="sense" hclass="sense" htag="li" id="holy_sng_2" ox3000="y" sensenum="2"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;div class="symbols" hclass="symbols" htag="div"&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/oxford3000-5000?dataset=english&amp;amp;list=ox3000&amp;amp;level=b2"&gt;&lt;span class="ox3ksym_b2"&gt; &lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;good in a moral and religious way&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;a holy life/man&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;span class="xrefs" hclass="xrefs" htag="span" xt="opp"&gt;&lt;span class="prefix"&gt;opposite&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/unholy" title="unholy definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="unholy_e"&gt;&lt;span class="xh"&gt;unholy&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="holy_unbox_2" unbox="extra_examples"&gt;&lt;span class="box_title"&gt;Extra Examples&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;He tries to live a holy life.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;They are good and holy people.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/span&gt;&lt;/div&gt;&lt;span class="topic-g"&gt;&lt;span class="prefix"&gt;Topics &lt;/span&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/topic/personal-qualities?level=b2" title="Topic personal-qualities"&gt;&lt;span class="topic" href="l2:people:personal_qualities?cefr=b2"&gt;&lt;span class="topic_name"&gt;Personal qualities&lt;/span&gt;&lt;span class="topic_cefr"&gt;b2&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;span class="sep"&gt;,&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/topic/religion-and-festivals?level=b2" title="Topic religion-and-festivals"&gt;&lt;span class="topic" href="l2:politics_and_society:religion_and_festivals?cefr=b2"&gt;&lt;span class="topic_name"&gt;Religion and festivals&lt;/span&gt;&lt;span class="topic_cefr"&gt;b2&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; &lt;div class="am-entry" id="ad_contentslot_1"&gt;&lt;script type="text/javascript"&gt;iaw.cmd.push(function() { iaw.display('ad_contentslot_1'); });&lt;/script&gt;&lt;/div&gt;&lt;/li&gt;&lt;li class="sense" hclass="sense" htag="li" id="holy_sng_3" sensenum="3"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="grammar" hclass="grammar" htag="span"&gt;[only before noun]&lt;/span&gt;&lt;/span&gt; &lt;span class="labels" hclass="labels" htag="span"&gt;(informal)&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;used to emphasize that you are surprised, afraid, etc.&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;Holy cow! What was that?&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;/li&gt; &lt;span class="xrefs" hclass="xrefs" htag="span" id="holy_xrgs_6" xt="see"&gt;&lt;span class="prefix"&gt;see also&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/holier-than-thou" title="holier-than-thou definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="holierthanthou_e" id="holy_xrg_6"&gt;&lt;span class="xh"&gt;holier-than-thou&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;span class="sep"&gt;,&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/holiness" title="holiness definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="holiness_e" id="holy_xrg_7"&gt;&lt;span class="xh"&gt;holiness&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="holy_unbox_1" unbox="wordorigin"&gt;&lt;span class="box_title"&gt;Word Origin&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="p"&gt;Old English &lt;span class="ei"&gt;hālig&lt;/span&gt;, of Germanic origin; related to Dutch and German &lt;span class="ei"&gt;heilig&lt;/span&gt;, also to &lt;span class="eb"&gt;whole&lt;/span&gt;.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;/ol&gt;&lt;span class="dictlink-g"&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/american_english/holy" title=" definition in American English "&gt;&lt;span class="xh"&gt;holy&lt;/span&gt;&lt;/a&gt; in the Oxford Advanced American Dictionary&lt;/span&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/academic/holy" title=" definition in Academic English "&gt;&lt;span class="xh"&gt;holy&lt;/span&gt;&lt;/a&gt; in the Oxford Learner's Dictionary of Academic English&lt;/span&gt;&lt;/span&gt;&lt;div class="pron-link"&gt;Check pronunciation:                        &lt;a href="https://www.oxfordlearnersdictionaries.com/pronunciation/english/holy"&gt;holy&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>deity</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>&lt;div class="oald" id="entryContent"&gt;&lt;div class="entry" hclass="entry" hlength="5" htag="section" id="deity" idm_id="000015611" sk="deity: :0" sum="340"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="deity_topg_1"&gt;&lt;div class="webtop"&gt;&lt;h1 class="headword" hclass="headword" htag="h1" id="deity_h_1"&gt;deity&lt;/h1&gt; &lt;span class="pos" hclass="pos" htag="span"&gt;noun&lt;/span&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="deity"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/d/dei/deity/deity__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/d/dei/deity/deity__gb_1.ogg" style="cursor: pointer" title="deity pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈdeɪəti/&lt;/span&gt;&lt;span class="sep"&gt;,&lt;/span&gt; &lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/d/dei/deity/deity__gb_2.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/d/dei/deity/deity__gb_2.ogg" style="cursor: pointer" title="deity pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈdiːəti/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="deity"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/d/dei/deity/deity__us_1_rr.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/d/dei/deity/deity__us_1_rr.ogg" style="cursor: pointer" title="deity pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈdeɪəti/&lt;/span&gt;&lt;span class="sep"&gt;,&lt;/span&gt; &lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/d/dei/deity/deity__us_2_rr.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/d/dei/deity/deity__us_2_rr.ogg" style="cursor: pointer" title="deity pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈdiːəti/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt; &lt;div class="inflections" hclass="inflections" htag="div" id="deity_ifgs_1"&gt;(plural &lt;span class="inflected_form" hclass="inflected_form" htag="span"&gt;deities&lt;/span&gt;)&lt;/div&gt;&lt;/div&gt;&lt;a class="responsive_display_inline_on_smartphone link-right" href="#relatedentries"&gt;                            jump to other results                        &lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="senses_multiple" htag="ol"&gt;&lt;li cefr="c2" class="sense" hclass="sense" htag="li" id="deity_sng_1" sensenum="1"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="grammar" hclass="grammar" htag="span"&gt;[countable]&lt;/span&gt;&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;a god or &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/goddess" title="goddess definition"&gt;&lt;span class="ndv"&gt;goddess&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;Greek/Roman/Hindu deities&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="deity_unbox_1" unbox="extra_examples"&gt;&lt;span class="box_title"&gt;Extra Examples&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;a tribe that worshipped two main deities&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;Many animals were seen as the manifestation of a deity.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;a shrine to the patron deity of the city&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;one of the minor Greek deities&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/span&gt;&lt;/div&gt;&lt;span class="topic-g"&gt;&lt;span class="prefix"&gt;Topics &lt;/span&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/topic/religion-and-festivals?level=c2" title="Topic religion-and-festivals"&gt;&lt;span class="topic" href="l2:politics_and_society:religion_and_festivals?cefr=c2"&gt;&lt;span class="topic_name"&gt;Religion and festivals&lt;/span&gt;&lt;span class="topic_cefr"&gt;c2&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="deity_unbox_2" unbox="snippet"&gt;&lt;span class="box_title"&gt;Oxford Collocations Dictionary&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="unbox"&gt;adjective&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;powerful&lt;/li&gt;&lt;li class="li"&gt;supreme&lt;/li&gt;&lt;li class="li"&gt;lesser&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;verb + deity&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;honour/​honor&lt;/li&gt;&lt;li class="li"&gt;worship&lt;/li&gt;&lt;li class="li"&gt;invoke&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="xref_to_full_entry"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/collocations/deity" title=" definition in Collocations "&gt;full entry&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;/li&gt;&lt;li cefr="c2" class="sense" hclass="sense" htag="li" id="deity_sng_2" sensenum="2"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;div class="variants" hclass="variants" htag="div" type="alt"&gt;&lt;span class="v-g"&gt;&lt;span class="v"&gt;the Deity&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;/span&gt; &lt;span class="grammar" hclass="grammar" htag="span"&gt;[singular]&lt;/span&gt; &lt;span class="labels" hclass="labels" htag="span"&gt;(formal)&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;God&lt;/span&gt;&lt;span class="topic-g"&gt;&lt;span class="prefix"&gt;Topics &lt;/span&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/topic/religion-and-festivals?level=c2" title="Topic religion-and-festivals"&gt;&lt;span class="topic" href="l2:politics_and_society:religion_and_festivals?cefr=c2"&gt;&lt;span class="topic_name"&gt;Religion and festivals&lt;/span&gt;&lt;span class="topic_cefr"&gt;c2&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; &lt;/li&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="deity_unbox_1" unbox="wordorigin"&gt;&lt;span class="box_title"&gt;Word Origin&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="p"&gt;Middle English (denoting the divine nature of God): from Old French &lt;span class="ei"&gt;deite&lt;/span&gt;, from ecclesiastical Latin &lt;span class="ei"&gt;deitas&lt;/span&gt; (translating Greek &lt;span class="ei"&gt;theotēs&lt;/span&gt;), from &lt;span class="ei"&gt;deus&lt;/span&gt; ‘god’.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;/ol&gt;&lt;span class="dictlink-g"&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/american_english/deity" title=" definition in American English "&gt;&lt;span class="xh"&gt;deity&lt;/span&gt;&lt;/a&gt; in the Oxford Advanced American Dictionary&lt;/span&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/academic/deity" title=" definition in Academic English "&gt;&lt;span class="xh"&gt;deity&lt;/span&gt;&lt;/a&gt; in the Oxford Learner's Dictionary of Academic English&lt;/span&gt;&lt;/span&gt;&lt;div class="pron-link"&gt;Check pronunciation:                        &lt;a href="https://www.oxfordlearnersdictionaries.com/pronunciation/english/deity"&gt;deity&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>torment</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>&lt;div class="oald" id="entryContent"&gt;&lt;div class="entry" hclass="entry" hlength="7" htag="section" id="torment_1" idm_id="000062344" sk="torment: :0" sum="338"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="torment_topg_2"&gt;&lt;div class="webtop"&gt;&lt;h1 class="headword" hclass="headword" htag="h1" id="torment_h_1"&gt;torment&lt;/h1&gt; &lt;span class="pos" hclass="pos" htag="span"&gt;noun&lt;/span&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="torment"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/t/tor/torme/torment__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/t/tor/torme/torment__gb_1.ogg" style="cursor: pointer" title="torment pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈtɔːment/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="torment"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/t/tor/torme/torment__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/t/tor/torme/torment__us_1.ogg" style="cursor: pointer" title="torment pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈtɔːrment/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;span class="grammar" hclass="grammar" htag="span"&gt;[uncountable, countable]&lt;/span&gt; &lt;span class="labels" hclass="labels" htag="span"&gt;(formal)&lt;/span&gt;&lt;/div&gt;&lt;a class="responsive_display_inline_on_smartphone link-right" href="#relatedentries"&gt;                            jump to other results                        &lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="sense_single" htag="ol"&gt;&lt;li class="sense" hclass="sense" htag="li" id="torment_sng_1"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="def" hclass="def" htag="span"&gt;extreme pain, especially mental pain; a person or thing that causes this&lt;/span&gt;&lt;/span&gt; &lt;span class="xrefs" hclass="xrefs" htag="span" xt="syn"&gt;&lt;span class="prefix"&gt;synonym&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/anguish" title="anguish definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="anguish_e"&gt;&lt;span class="xh"&gt;anguish&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;She suffered years of mental torment after her son's death.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt; &lt;span class="cf" hclass="cf" htag="span"&gt;in torment&lt;/span&gt; &lt;span class="x"&gt;the cries of a man in torment &lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;The flies were a terrible torment.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="torment2_unbox_1" unbox="extra_examples"&gt;&lt;span class="box_title"&gt;Extra Examples&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;Hell as a place of eternal torment&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;The sea wailed like a soul in torment.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;the torment inflicted on a young girl by her mother&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;Somehow, with her soul in torment, she managed to get through the day.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/span&gt;&lt;/div&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="torment2_unbox_2" unbox="snippet"&gt;&lt;span class="box_title"&gt;Oxford Collocations Dictionary&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="unbox"&gt;adjective&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;great&lt;/li&gt;&lt;li class="li"&gt;emotional&lt;/li&gt;&lt;li class="li"&gt;inner&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;verb + torment&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;endure&lt;/li&gt;&lt;li class="li"&gt;suffer&lt;/li&gt;&lt;li class="li"&gt;escape&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;preposition&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;in torment&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;phrases&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;be released from torment&lt;/li&gt;&lt;/ul&gt;&lt;span class="xref_to_full_entry"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/collocations/torment" title=" definition in Collocations "&gt;full entry&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="torment_unbox_2" unbox="wordorigin"&gt;&lt;span class="box_title"&gt;Word Origin&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="p"&gt;Middle English (as both noun and verb referring to the infliction or suffering of torture): Old French &lt;span class="ei"&gt;torment&lt;/span&gt; (noun), &lt;span class="ei"&gt;tormenter&lt;/span&gt; (verb), from Latin &lt;span class="ei"&gt;tormentum&lt;/span&gt; ‘instrument of torture’, from &lt;span class="ei"&gt;torquere&lt;/span&gt; ‘to twist’.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;/li&gt;&lt;/ol&gt;&lt;span class="dictlink-g"&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/american_english/torment_1" title=" definition in American English "&gt;&lt;span class="xh"&gt;torment&lt;/span&gt;&lt;/a&gt; in the Oxford Advanced American Dictionary&lt;/span&gt;&lt;/span&gt;&lt;div class="pron-link"&gt;Check pronunciation:                        &lt;a href="https://www.oxfordlearnersdictionaries.com/pronunciation/english/torment_1"&gt;torment&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>mild</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>&lt;div class="oald" id="entryContent"&gt;&lt;div class="entry" hclass="entry" hlength="4" htag="section" id="mild_1" idm_id="000038067" sk="mild: :0" sum="1034"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="mild_topg_2"&gt;&lt;div class="webtop"&gt;&lt;h1 class="headword" hclass="headword" htag="h1" id="mild_h_1" ox3000="y" random="y"&gt;mild&lt;/h1&gt; &lt;span class="pos" hclass="pos" htag="span"&gt;adjective&lt;/span&gt;&lt;div class="symbols" hclass="symbols" htag="div"&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/oxford3000-5000?dataset=english&amp;amp;list=ox3000&amp;amp;level=b1"&gt;&lt;span class="ox3ksym_b1"&gt; &lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="mild"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/m/mil/mild_/mild__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/m/mil/mild_/mild__gb_1.ogg" style="cursor: pointer" title="mild pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/maɪld/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="mild"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/m/mil/mild_/mild__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/m/mil/mild_/mild__us_1.ogg" style="cursor: pointer" title="mild pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/maɪld/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;div class="inflections" hclass="inflections" htag="div" id="mild_ifgs_1"&gt;(comparative &lt;span class="inflected_form" hclass="inflected_form" htag="span"&gt;milder&lt;/span&gt;, superlative &lt;span class="inflected_form" hclass="inflected_form" htag="span"&gt;mildest&lt;/span&gt;)&lt;/div&gt;&lt;/div&gt;&lt;a class="responsive_display_inline_on_smartphone link-right" href="#relatedentries"&gt;                            jump to other results                        &lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="senses_multiple" htag="ol"&gt;&lt;li cefr="b1" class="sense" hclass="sense" htag="li" id="mild_sng_1" ox3000="y" sensenum="1"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;div class="symbols" hclass="symbols" htag="div"&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/oxford3000-5000?dataset=english&amp;amp;list=ox3000&amp;amp;level=b1"&gt;&lt;span class="ox3ksym_b1"&gt; &lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;not severe or strong&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;a &lt;span class="cl"&gt;mild form&lt;/span&gt; of the disease&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;a &lt;span class="cl"&gt;mild case&lt;/span&gt; of flu&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;The symptoms were mild.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;a mild punishment/criticism &lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;It's safe to take a mild sedative.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;Use a soap that is mild on the skin.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="mild2_unbox_1" unbox="extra_examples"&gt;&lt;span class="box_title"&gt;Extra Examples&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;The infection seems quite mild, so she should be better soon.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;The pain is comparatively mild at the moment.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;It was a very mild criticism but he took it very badly.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;What the volunteers endured was mild in comparison to the sufferings of the population.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/span&gt;&lt;/div&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="mild2_unbox_2" unbox="snippet"&gt;&lt;span class="box_title"&gt;Oxford Collocations Dictionary&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="unbox"&gt;verbs&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;be&lt;/li&gt;&lt;li class="li"&gt;seem&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;adverb&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;extremely&lt;/li&gt;&lt;li class="li"&gt;fairly&lt;/li&gt;&lt;li class="li"&gt;very&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="xref_to_full_entry"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/collocations/mild" title=" definition in Collocations "&gt;full entry&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;/li&gt;&lt;li cefr="b1" class="sense" hclass="sense" htag="li" id="mild_sng_2" ox3000="y" sensenum="2"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;div class="symbols" hclass="symbols" htag="div"&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/oxford3000-5000?dataset=english&amp;amp;list=ox3000&amp;amp;level=b1"&gt;&lt;span class="ox3ksym_b1"&gt; &lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;/span&gt; &lt;span class="dis-g"&gt;&lt;span class="wrap"&gt;(&lt;/span&gt;&lt;span class="dtxt"&gt;of weather&lt;/span&gt;&lt;span class="wrap"&gt;)&lt;/span&gt;&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;not very cold, and therefore pleasant&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;the mildest winter since records began&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;a mild climate&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;It's quite mild for the time of year.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;Later in the week the weather turned very mild.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;span class="xrefs" hclass="xrefs" htag="span" xt="cp"&gt;&lt;span class="prefix"&gt;compare&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/hard_1" title="hard definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="hard_subentryg_1:hard_topg_2"&gt;&lt;span class="xh"&gt;hard&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="mild2_unbox_3" unbox="extra_examples"&gt;&lt;span class="box_title"&gt;Extra Examples&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;The climate in Japan is generally mild.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;The late summer air was surprisingly mild.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;Most of the birds seek out milder climates during the winter months.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;That winter was exceptionally mild.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;The mild spell lasted well into November.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;The night was mild, with a hint of rain.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;The weather had been unseasonably mild.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/span&gt;&lt;/div&gt;&lt;span class="topic-g"&gt;&lt;span class="prefix"&gt;Topics &lt;/span&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/topic/weather?level=b1" title="Topic weather"&gt;&lt;span class="topic" href="l2:the_natural_world:weather?cefr=b1"&gt;&lt;span class="topic_name"&gt;Weather&lt;/span&gt;&lt;span class="topic_cefr"&gt;b1&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="mild2_unbox_4" unbox="snippet"&gt;&lt;span class="box_title"&gt;Oxford Collocations Dictionary&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="unbox"&gt;verbs&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;be&lt;/li&gt;&lt;li class="li"&gt;become&lt;/li&gt;&lt;li class="li"&gt;turn&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;adverb&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;extremely&lt;/li&gt;&lt;li class="li"&gt;fairly&lt;/li&gt;&lt;li class="li"&gt;very&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="xref_to_full_entry"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/collocations/mild" title=" definition in Collocations "&gt;full entry&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;div class="am-entry" id="ad_contentslot_1"&gt;&lt;script type="text/javascript"&gt;iaw.cmd.push(function() { iaw.display('ad_contentslot_1'); });&lt;/script&gt;&lt;/div&gt;&lt;/li&gt;&lt;li cefr="b1" class="sense" hclass="sense" htag="li" id="mild_sng_3" ox3000="y" sensenum="3"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;div class="symbols" hclass="symbols" htag="div"&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/oxford3000-5000?dataset=english&amp;amp;list=ox3000&amp;amp;level=b1"&gt;&lt;span class="ox3ksym_b1"&gt; &lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;/span&gt; &lt;span class="dis-g"&gt;&lt;span class="wrap"&gt;(&lt;/span&gt;&lt;span class="dtxt"&gt;of feelings&lt;/span&gt;&lt;span class="wrap"&gt;)&lt;/span&gt;&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;not great or extreme&lt;/span&gt; &lt;span class="xrefs" hclass="xrefs" htag="span" xt="syn"&gt;&lt;span class="prefix"&gt;synonym&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/slight_1" title="slight definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="slight_subentryg_1:slight_topg_2"&gt;&lt;span class="xh"&gt;slight&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;mild irritation/amusement/disapproval&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;a mild state of shock&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;She looked at him in mild surprise.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;/li&gt;&lt;li cefr="b1" class="sense" hclass="sense" htag="li" id="mild_sng_5" ox3000="y" sensenum="4"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;div class="symbols" hclass="symbols" htag="div"&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/oxford3000-5000?dataset=english&amp;amp;list=ox3000&amp;amp;level=b1"&gt;&lt;span class="ox3ksym_b1"&gt; &lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;/span&gt; &lt;span class="dis-g"&gt;&lt;span class="wrap"&gt;(&lt;/span&gt;&lt;span class="dtxt"&gt;of a taste &lt;/span&gt;&lt;span class="wrap"&gt;)&lt;/span&gt;&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;not strong, spicy or bitter&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;a fairly mild flavour&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;mild cheese&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;a mild curry&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;span class="xrefs" hclass="xrefs" htag="span" xt="opp"&gt;&lt;span class="prefix"&gt;opposite&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/strong#strong_sng_21" title="strong (11) definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="strong_sng_21"&gt;&lt;span class="xh"&gt;strong&lt;/span&gt; &lt;span class="xs"&gt;&lt;span class="wrap"&gt;(&lt;/span&gt;11&lt;span class="wrap"&gt;)&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;span class="sep"&gt;,&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/hot_1#hot_sng_4" title="hot (4) definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="hot_sng_4"&gt;&lt;span class="xh"&gt;hot&lt;/span&gt; &lt;span class="xs"&gt;&lt;span class="wrap"&gt;(&lt;/span&gt;4&lt;span class="wrap"&gt;)&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;span class="topic-g"&gt;&lt;span class="prefix"&gt;Topics &lt;/span&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/topic/cooking-and-eating?level=b1" title="Topic cooking-and-eating"&gt;&lt;span class="topic" href="l2:food_and_drink:cooking_and_eating?cefr=b1"&gt;&lt;span class="topic_name"&gt;Cooking and eating&lt;/span&gt;&lt;span class="topic_cefr"&gt;b1&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; &lt;/li&gt;&lt;li cefr="c2" class="sense" hclass="sense" htag="li" id="mild_sng_4" sensenum="5"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="dis-g"&gt;&lt;span class="wrap"&gt;(&lt;/span&gt;&lt;span class="dtxt"&gt;of people or their behaviour&lt;/span&gt;&lt;span class="wrap"&gt;)&lt;/span&gt;&lt;/span&gt;&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;gentle and kind; not usually getting angry or violent&lt;/span&gt; &lt;span class="xrefs" hclass="xrefs" htag="span" xt="syn"&gt;&lt;span class="prefix"&gt;synonym&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/equable" title="equable definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="equable_e"&gt;&lt;span class="xh"&gt;equable&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;a mild woman, who never shouted&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="mild2_unbox_5" unbox="extra_examples"&gt;&lt;span class="box_title"&gt;Extra Examples&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;It wasn't in keeping with his usually mild manner.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;She was a mild and quiet person who never raised her voice.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;She's not so meek and mild as she seems.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;His voice was deceptively mild.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/span&gt;&lt;/div&gt;&lt;span class="topic-g"&gt;&lt;span class="prefix"&gt;Topics &lt;/span&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/topic/personal-qualities?level=c2" title="Topic personal-qualities"&gt;&lt;span class="topic" href="l2:people:personal_qualities?cefr=c2"&gt;&lt;span class="topic_name"&gt;Personal qualities&lt;/span&gt;&lt;span class="topic_cefr"&gt;c2&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="mild2_unbox_6" unbox="snippet"&gt;&lt;span class="box_title"&gt;Oxford Collocations Dictionary&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="unbox"&gt;verbs&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;be&lt;/li&gt;&lt;li class="li"&gt;sound&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;adverb&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;seemingly&lt;/li&gt;&lt;li class="li"&gt;deceptively&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;phrases&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;meek and mild&lt;/li&gt;&lt;/ul&gt;&lt;span class="xref_to_full_entry"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/collocations/mild" title=" definition in Collocations "&gt;full entry&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;/li&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="mild2_unbox_7" unbox="wordorigin"&gt;&lt;span class="box_title"&gt;Word Origin&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="p"&gt;Old English &lt;span class="ei"&gt;milde&lt;/span&gt; (originally in the sense ‘gracious, not severe in command’), of Germanic origin; related to Dutch and German &lt;span class="ei"&gt;mild&lt;/span&gt;, from an Indo-European root shared by Latin &lt;span class="ei"&gt;mollis&lt;/span&gt; and Greek &lt;span class="ei"&gt;malthakos&lt;/span&gt; ‘soft’.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;/ol&gt;&lt;span class="dictlink-g"&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/american_english/mild" title=" definition in American English "&gt;&lt;span class="xh"&gt;mild&lt;/span&gt;&lt;/a&gt; in the Oxford Advanced American Dictionary&lt;/span&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/academic/mild" title=" definition in Academic English "&gt;&lt;span class="xh"&gt;mild&lt;/span&gt;&lt;/a&gt; in the Oxford Learner's Dictionary of Academic English&lt;/span&gt;&lt;/span&gt;&lt;div class="pron-link"&gt;Check pronunciation:                        &lt;a href="https://www.oxfordlearnersdictionaries.com/pronunciation/english/mild_1"&gt;mild&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>plunge</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>&lt;div class="oald" id="entryContent"&gt;&lt;div class="entry" hclass="entry" hlength="6" htag="section" id="plunge_1" idm_id="000045773" sk="plunge: :0" sum="1062"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="plunge_topg_2"&gt;&lt;div class="webtop"&gt;&lt;h1 class="headword" hclass="headword" htag="h1" id="plunge_h_1" ox5000="y"&gt;plunge&lt;/h1&gt; &lt;span class="pos" hclass="pos" htag="span"&gt;verb&lt;/span&gt;&lt;div class="symbols" hclass="symbols" htag="div"&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/oxford3000-5000?dataset=english&amp;amp;list=ox5000&amp;amp;level=c1"&gt;&lt;span class="ox5ksym_c1"&gt; &lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="plunge"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/p/plu/plung/plunge__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/p/plu/plung/plunge__gb_1.ogg" style="cursor: pointer" title="plunge pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/plʌndʒ/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="plunge"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/p/plu/plung/plunge__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/p/plu/plung/plunge__us_1.ogg" style="cursor: pointer" title="plunge pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/plʌndʒ/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="plunge_vpgs_1" unbox="verbforms"&gt;&lt;span class="box_title"&gt;Verb Forms&lt;/span&gt;&lt;span class="body"&gt;&lt;table class="verb_forms_table"&gt;&lt;tr class="verb_form" form="root"&gt;&lt;td class="verb_form"&gt; &lt;span class="vf_prefix"&gt;present simple I / you / we / they&lt;/span&gt; plunge&lt;/td&gt;&lt;td class="verb_phons"&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="plunge"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/p/plu/plung/plunge__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/p/plu/plung/plunge__gb_1.ogg" style="cursor: pointer" title="plunge pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/plʌndʒ/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="plunge"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/p/plu/plung/plunge__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/p/plu/plung/plunge__us_1.ogg" style="cursor: pointer" title="plunge pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/plʌndʒ/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr class="verb_form" form="thirdps"&gt;&lt;td class="verb_form"&gt; &lt;span class="vf_prefix"&gt;he / she / it&lt;/span&gt; plunges&lt;/td&gt;&lt;td class="verb_phons"&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="plunges"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/p/plu/plung/plunges__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/p/plu/plung/plunges__gb_1.ogg" style="cursor: pointer" title="plunges pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈplʌndʒɪz/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="plunges"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/p/plu/plung/plunges__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/p/plu/plung/plunges__us_1.ogg" style="cursor: pointer" title="plunges pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈplʌndʒɪz/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr class="verb_form" form="past"&gt;&lt;td class="verb_form"&gt; &lt;span class="vf_prefix"&gt;past simple&lt;/span&gt; plunged&lt;/td&gt;&lt;td class="verb_phons"&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="plunged"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/p/plu/plung/plunged__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/p/plu/plung/plunged__gb_1.ogg" style="cursor: pointer" title="plunged pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/plʌndʒd/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="plunged"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/p/plu/plung/plunged__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/p/plu/plung/plunged__us_1.ogg" style="cursor: pointer" title="plunged pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/plʌndʒd/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr class="verb_form" form="pastpart"&gt;&lt;td class="verb_form"&gt; &lt;span class="vf_prefix"&gt;past participle&lt;/span&gt; plunged&lt;/td&gt;&lt;td class="verb_phons"&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="plunged"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/p/plu/plung/plunged__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/p/plu/plung/plunged__gb_1.ogg" style="cursor: pointer" title="plunged pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/plʌndʒd/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="plunged"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/p/plu/plung/plunged__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/p/plu/plung/plunged__us_1.ogg" style="cursor: pointer" title="plunged pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/plʌndʒd/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr class="verb_form" form="prespart"&gt;&lt;td class="verb_form"&gt; &lt;span class="vf_prefix"&gt;-ing form&lt;/span&gt; plunging&lt;/td&gt;&lt;td class="verb_phons"&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="plunging"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/p/plu/plung/plunging__gb_2.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/p/plu/plung/plunging__gb_2.ogg" style="cursor: pointer" title="plunging pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈplʌndʒɪŋ/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="plunging"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/p/plu/plung/plunging__us_2.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/p/plu/plung/plunging__us_2.ogg" style="cursor: pointer" title="plunging pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈplʌndʒɪŋ/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;span class="jumplinks"&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/plunge_1#plunge_pvgs_1" title="Phrasal Verbs definition"&gt;&lt;span class="jumplink" href="plunge_pvgs_1" name="Phrasal Verbs"&gt;Phrasal Verbs&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;/div&gt;&lt;a class="responsive_display_inline_on_smartphone link-right" href="#relatedentries"&gt;                            jump to other results                        &lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="senses_multiple" htag="ol"&gt;&lt;li cefr="c1" class="sense" hclass="sense" htag="li" id="plunge_sng_1" ox5000="y" sensenum="1"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;div class="symbols" hclass="symbols" htag="div"&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/oxford3000-5000?dataset=english&amp;amp;list=ox5000&amp;amp;level=c1"&gt;&lt;span class="ox5ksym_c1"&gt; &lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;/span&gt;&lt;span class="grammar" hclass="grammar" htag="span"&gt;[intransitive, transitive]&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;to move or make somebody/something move suddenly forwards and/or downwards&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt; &lt;span class="cf" hclass="cf" htag="span"&gt;+ adv./prep.&lt;/span&gt; &lt;span class="x"&gt;She lost her balance and plunged 100 feet to her death.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;The train left the track and plunged down the embankment.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt; &lt;span class="cf" hclass="cf" htag="span"&gt;plunge somebody/something + adv./prep.&lt;/span&gt; &lt;span class="x"&gt;The earthquake plunged entire towns over the edge of the cliffs.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="plunge2_unbox_2" unbox="extra_examples"&gt;&lt;span class="box_title"&gt;Extra Examples&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;He plunged from a tenth floor window.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;The car plunged headlong into the river.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/span&gt;&lt;/div&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="plunge2_unbox_3" unbox="snippet"&gt;&lt;span class="box_title"&gt;Oxford Collocations Dictionary&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="unbox"&gt;adverb&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;ahead&lt;/li&gt;&lt;li class="li"&gt;back&lt;/li&gt;&lt;li class="li"&gt;downwards/​downward&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;preposition&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;down&lt;/li&gt;&lt;li class="li"&gt;from&lt;/li&gt;&lt;li class="li"&gt;into&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;phrases&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;plunge to your death&lt;/li&gt;&lt;/ul&gt;&lt;span class="xref_to_full_entry"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/collocations/plunge_2" title=" definition in Collocations "&gt;full entry&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;/li&gt;&lt;li cefr="c1" class="sense" hclass="sense" htag="li" id="plunge_sng_2" ox5000="y" sensenum="2"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;div class="symbols" hclass="symbols" htag="div"&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/oxford3000-5000?dataset=english&amp;amp;list=ox5000&amp;amp;level=c1"&gt;&lt;span class="ox5ksym_c1"&gt; &lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;/span&gt;&lt;span class="grammar" hclass="grammar" htag="span"&gt;[intransitive]&lt;/span&gt; &lt;span class="dis-g"&gt;&lt;span class="wrap"&gt;(&lt;/span&gt;&lt;span class="dtxt"&gt;of prices, temperatures, etc.&lt;/span&gt;&lt;span class="wrap"&gt;)&lt;/span&gt;&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;to decrease suddenly and quickly&lt;/span&gt; &lt;span class="xrefs" hclass="xrefs" htag="span" xt="nsyn"&gt;&lt;span class="prefix"&gt;synonym&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/plummet" title="plummet definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="plummet_e"&gt;&lt;span class="xh"&gt;plummet&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;Stock markets plunged at the news of the coup.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;This year profits plunged by 40 per cent.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="topic-g"&gt;&lt;span class="prefix"&gt;Topics &lt;/span&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/topic/change-cause-and-effect?level=c1" title="Topic change-cause-and-effect"&gt;&lt;span class="topic" href="l2:notions:change_cause_and_effect?cefr=c1"&gt;&lt;span class="topic_name"&gt;Change, cause and effect&lt;/span&gt;&lt;span class="topic_cefr"&gt;c1&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; &lt;div class="am-entry" id="ad_contentslot_1"&gt;&lt;script type="text/javascript"&gt;iaw.cmd.push(function() { iaw.display('ad_contentslot_1'); });&lt;/script&gt;&lt;/div&gt;&lt;/li&gt;&lt;li class="sense" hclass="sense" htag="li" id="plunge_sng_3" sensenum="3"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="grammar" hclass="grammar" htag="span"&gt;[intransitive]&lt;/span&gt;&lt;/span&gt; &lt;span class="cf" hclass="cf" htag="span"&gt;+ adv./prep.&lt;/span&gt; &lt;span class="dis-g"&gt;&lt;span class="wrap"&gt;(&lt;/span&gt;&lt;span class="dtxt"&gt;of a road, surface, etc.&lt;/span&gt;&lt;span class="wrap"&gt;)&lt;/span&gt;&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;to slope down steeply&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;The track plunged down into the valley.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;/li&gt;&lt;li class="sense" hclass="sense" htag="li" id="plunge_sng_4" sensenum="4"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="grammar" hclass="grammar" htag="span"&gt;[intransitive]&lt;/span&gt;&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;to move up and down suddenly and violently&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;The horse plunged and reared.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt; &lt;span class="labels" hclass="labels" htag="span"&gt;(figurative)&lt;/span&gt; &lt;span class="x"&gt;His heart plunged &lt;span class="gloss" hclass="gloss" htag="span"&gt;(= because of a strong emotion)&lt;/span&gt;.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;/li&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="plunge_unbox_6" unbox="wordorigin"&gt;&lt;span class="box_title"&gt;Word Origin&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="p"&gt;late Middle English: from Old French &lt;span class="ei"&gt;plungier&lt;/span&gt; ‘thrust down’, based on Latin &lt;span class="ei"&gt;plumbum&lt;/span&gt; ‘lead, plummet’.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;/ol&gt;&lt;aside class="phrasal_verb_links" hclass="phrasal_verb_links" htag="aside" id="plunge_pvgs_1" xt="pvlist"&gt;&lt;span class="unbox"&gt;Phrasal Verbs&lt;/span&gt;&lt;ul class="pvrefs"&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/plunge-ahead#plungeahead_e" title="plunge ahead definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="plungeahead_e" id="plunge_xrg_11"&gt;&lt;span class="xh"&gt;plunge ahead&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/plunge-in#plungein2_e" title="plunge in definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="plungein2_e" id="plunge_xrg_13"&gt;&lt;span class="xh"&gt;plunge in&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/plunge-into#plungeinto2_e" title="plunge into definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="plungeinto2_e" id="plunge_xrg_15"&gt;&lt;span class="xh"&gt;plunge into&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/aside&gt;&lt;span class="dictlink-g"&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/american_english/plunge_1" title=" definition in American English "&gt;&lt;span class="xh"&gt;plunge&lt;/span&gt;&lt;/a&gt; in the Oxford Advanced American Dictionary&lt;/span&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/academic/plunge" title=" definition in Academic English "&gt;&lt;span class="xh"&gt;plunge&lt;/span&gt;&lt;/a&gt; in the Oxford Learner's Dictionary of Academic English&lt;/span&gt;&lt;/span&gt;&lt;div class="pron-link"&gt;Check pronunciation:                        &lt;a href="https://www.oxfordlearnersdictionaries.com/pronunciation/english/plunge_1"&gt;plunge&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>hazy</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>&lt;div class="oald" id="entryContent"&gt;&lt;div class="entry" hclass="entry" hlength="4" htag="section" id="hazy" idm_id="000027712" sk="hazy: :0" sum="579"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="hazy_topg_1"&gt;&lt;div class="webtop"&gt;&lt;h1 class="headword" hclass="headword" htag="h1" id="hazy_h_1"&gt;hazy&lt;/h1&gt; &lt;span class="pos" hclass="pos" htag="span"&gt;adjective&lt;/span&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="hazy"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/h/haz/hazy_/hazy__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/h/haz/hazy_/hazy__gb_1.ogg" style="cursor: pointer" title="hazy pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈheɪzi/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="hazy"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/h/haz/hazy_/hazy__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/h/haz/hazy_/hazy__us_1.ogg" style="cursor: pointer" title="hazy pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈheɪzi/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt; &lt;div class="inflections" hclass="inflections" htag="div" id="hazy_ifgs_1"&gt;(comparative &lt;span class="inflected_form" hclass="inflected_form" htag="span"&gt;hazier&lt;/span&gt;, superlative &lt;span class="inflected_form" hclass="inflected_form" htag="span"&gt;haziest&lt;/span&gt;)&lt;/div&gt;&lt;/div&gt;&lt;a class="responsive_display_inline_on_smartphone link-right" href="#relatedentries"&gt;                            jump to other results                        &lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="senses_multiple" htag="ol"&gt;&lt;li cefr="c2" class="sense" hclass="sense" htag="li" id="hazy_sng_1" sensenum="1"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="def" hclass="def" htag="span"&gt;not clear because of &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/haze_1" title="haze definition"&gt;&lt;span class="ndv"&gt;haze&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;a &lt;span class="cl"&gt;hazy afternoon/sky&lt;/span&gt;&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;&lt;span class="cl"&gt;hazy light/sunshine&lt;/span&gt;&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;The mountains were hazy in the distance.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;The room was hazy with smoke.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="hazy_unbox_1" unbox="extra_examples"&gt;&lt;span class="box_title"&gt;Extra Examples&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;The summers were hazy with pollution.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;There will be a dry start to the day with some hazy sunshine in the east.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/span&gt;&lt;/div&gt;&lt;span class="topic-g"&gt;&lt;span class="prefix"&gt;Topics &lt;/span&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/topic/weather?level=c2" title="Topic weather"&gt;&lt;span class="topic" href="l2:the_natural_world:weather?cefr=c2"&gt;&lt;span class="topic_name"&gt;Weather&lt;/span&gt;&lt;span class="topic_cefr"&gt;c2&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="hazy_unbox_2" unbox="snippet"&gt;&lt;span class="box_title"&gt;Oxford Collocations Dictionary&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="unbox"&gt;verbs&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;be&lt;/li&gt;&lt;li class="li"&gt;look&lt;/li&gt;&lt;li class="li"&gt;become&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;adverb&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;very&lt;/li&gt;&lt;li class="li"&gt;a little&lt;/li&gt;&lt;li class="li"&gt;rather&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;preposition&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;with&lt;/li&gt;&lt;/ul&gt;&lt;span class="xref_to_full_entry"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/collocations/hazy" title=" definition in Collocations "&gt;full entry&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;/li&gt;&lt;li class="sense" hclass="sense" htag="li" id="hazy_sng_2" sensenum="2"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="def" hclass="def" htag="span"&gt;not clear because of a lack of memory, understanding or detail&lt;/span&gt;&lt;/span&gt; &lt;span class="xrefs" hclass="xrefs" htag="span" xt="syn"&gt;&lt;span class="prefix"&gt;synonym&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/vague" title="vague definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="vague_e"&gt;&lt;span class="xh"&gt;vague&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;a &lt;span class="cl"&gt;hazy memory/idea&lt;/span&gt;&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;The dividing line is somewhat hazy.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;What happened next is all very hazy.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;I have only a very hazy idea about how the economy works.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="hazy_unbox_3" unbox="snippet"&gt;&lt;span class="box_title"&gt;Oxford Collocations Dictionary&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="unbox"&gt;verbs&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;be&lt;/li&gt;&lt;li class="li"&gt;become&lt;/li&gt;&lt;li class="li"&gt;get&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;adverb&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;extremely&lt;/li&gt;&lt;li class="li"&gt;fairly&lt;/li&gt;&lt;li class="li"&gt;very&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;preposition&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;about&lt;/li&gt;&lt;/ul&gt;&lt;span class="xref_to_full_entry"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/collocations/hazy" title=" definition in Collocations "&gt;full entry&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;div class="am-entry" id="ad_contentslot_1"&gt;&lt;script type="text/javascript"&gt;iaw.cmd.push(function() { iaw.display('ad_contentslot_1'); });&lt;/script&gt;&lt;/div&gt;&lt;/li&gt;&lt;li class="sense" hclass="sense" htag="li" id="hazy_sng_3" sensenum="3"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="dis-g"&gt;&lt;span class="wrap"&gt;(&lt;/span&gt;&lt;span class="dtxt"&gt;of a person&lt;/span&gt;&lt;span class="wrap"&gt;)&lt;/span&gt;&lt;/span&gt;&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;uncertain or confused about something&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;I'm a little hazy about what to do next.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="hazy_unbox_4" unbox="extra_examples"&gt;&lt;span class="box_title"&gt;Extra Examples&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;I'm a bit hazy about my family history.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;I'm still slightly hazy about the details of what happened.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/span&gt;&lt;/div&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="hazy_unbox_5" unbox="snippet"&gt;&lt;span class="box_title"&gt;Oxford Collocations Dictionary&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="unbox"&gt;verbs&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;be&lt;/li&gt;&lt;li class="li"&gt;become&lt;/li&gt;&lt;li class="li"&gt;get&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;adverb&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;extremely&lt;/li&gt;&lt;li class="li"&gt;fairly&lt;/li&gt;&lt;li class="li"&gt;very&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;preposition&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;about&lt;/li&gt;&lt;/ul&gt;&lt;span class="xref_to_full_entry"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/collocations/hazy" title=" definition in Collocations "&gt;full entry&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;/li&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="hazy_unbox_1" unbox="wordorigin"&gt;&lt;span class="box_title"&gt;Word Origin&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="p"&gt;early 17th cent. (in nautical use in the sense ‘foggy’): of unknown origin.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;/ol&gt;&lt;span class="dictlink-g"&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/american_english/hazy" title=" definition in American English "&gt;&lt;span class="xh"&gt;hazy&lt;/span&gt;&lt;/a&gt; in the Oxford Advanced American Dictionary&lt;/span&gt;&lt;/span&gt;&lt;div class="pron-link"&gt;Check pronunciation:                        &lt;a href="https://www.oxfordlearnersdictionaries.com/pronunciation/english/hazy"&gt;hazy&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>conscious</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>&lt;div class="oald" id="entryContent"&gt;&lt;div class="entry" hclass="entry" hlength="9" htag="section" id="conscious" idm_id="000012550" sk="conscious: :0" sum="1420"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="conscious_topg_1"&gt;&lt;div class="webtop"&gt;&lt;h1 class="headword" hclass="headword" htag="h1" id="conscious_h_1" ox3000="y" random="y"&gt;conscious&lt;/h1&gt; &lt;span class="pos" hclass="pos" htag="span"&gt;adjective&lt;/span&gt;&lt;div class="symbols" hclass="symbols" htag="div"&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/oxford3000-5000?dataset=english&amp;amp;list=ox3000&amp;amp;level=b2"&gt;&lt;span class="ox3ksym_b2"&gt; &lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="conscious"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/x/xco/xcons/xconscious__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/x/xco/xcons/xconscious__gb_1.ogg" style="cursor: pointer" title="conscious pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈkɒnʃəs/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="conscious"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/x/xco/xcons/xconscious__us_2.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/x/xco/xcons/xconscious__us_2.ogg" style="cursor: pointer" title="conscious pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈkɑːnʃəs/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;/div&gt;&lt;a class="responsive_display_inline_on_smartphone link-right" href="#relatedentries"&gt;                            jump to other results                        &lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="senses_multiple" htag="ol"&gt;&lt;li cefr="b2" class="sense" hclass="sense" htag="li" id="conscious_sng_1" ox3000="y" sensenum="1"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;div class="symbols" hclass="symbols" htag="div"&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/oxford3000-5000?dataset=english&amp;amp;list=ox3000&amp;amp;level=b2"&gt;&lt;span class="ox3ksym_b2"&gt; &lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;/span&gt; &lt;span class="grammar" hclass="grammar" htag="span"&gt;[not before noun]&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;aware of something; noticing something&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt; &lt;span class="cf" hclass="cf" htag="span"&gt;conscious of something&lt;/span&gt; &lt;span class="x"&gt;She's very conscious of the problems involved.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;I am conscious of the fact that there's a limit to what we can achieve here.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt; &lt;span class="cf" hclass="cf" htag="span"&gt;conscious of doing something&lt;/span&gt; &lt;span class="x"&gt;He became &lt;span class="cl"&gt;acutely conscious&lt;/span&gt; of having failed his parents.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt; &lt;span class="cf" hclass="cf" htag="span"&gt;conscious that…&lt;/span&gt; &lt;span class="x"&gt;I was vaguely conscious that I was being watched.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;span class="xrefs" hclass="xrefs" htag="span" xt="opp"&gt;&lt;span class="prefix"&gt;opposite&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/unconscious_1" title="unconscious definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="unconscious_subentryg_1:unconscious_topg_2"&gt;&lt;span class="xh"&gt;unconscious&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; &lt;span class="xrefs" hclass="xrefs" htag="span" xt="see"&gt;&lt;span class="prefix"&gt;see also&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/self-conscious" title="self-conscious definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="selfconscious_e"&gt;&lt;span class="xh"&gt;self-conscious&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="conscious_unbox_1" unbox="extra_examples"&gt;&lt;span class="box_title"&gt;Extra Examples&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;Barely conscious of the flashing lights around him, Kevin recklessly weaved in and out of traffic.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;He was dimly conscious of Tara standing over him.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;I am very conscious of the need for secrecy.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;I was hardly conscious of my surroundings.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;She became acutely conscious that someone was watching her.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;We are now deeply conscious of these issues.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;He was painfully conscious of his mother's embarrassment.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/span&gt;&lt;/div&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="conscious_unbox_2" unbox="snippet"&gt;&lt;span class="box_title"&gt;Oxford Collocations Dictionary&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="unbox"&gt;verbs&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;be&lt;/li&gt;&lt;li class="li"&gt;seem&lt;/li&gt;&lt;li class="li"&gt;become&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;adverb&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;extremely&lt;/li&gt;&lt;li class="li"&gt;fairly&lt;/li&gt;&lt;li class="li"&gt;very&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;preposition&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;of&lt;/li&gt;&lt;/ul&gt;&lt;span class="xref_to_full_entry"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/collocations/conscious" title=" definition in Collocations "&gt;full entry&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;/li&gt;&lt;li cefr="b2" class="sense" hclass="sense" htag="li" id="conscious_sng_2" ox3000="y" sensenum="2"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;div class="symbols" hclass="symbols" htag="div"&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/oxford3000-5000?dataset=english&amp;amp;list=ox3000&amp;amp;level=b2"&gt;&lt;span class="ox3ksym_b2"&gt; &lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;able to use your senses and mental powers to understand what is happening&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;A patient who is not &lt;span class="cl"&gt;fully conscious&lt;/span&gt; should never be left alone.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;She remained conscious throughout the operation.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;span class="xrefs" hclass="xrefs" htag="span" xt="opp"&gt;&lt;span class="prefix"&gt;opposite&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/unconscious_1" title="unconscious definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="unconscious_subentryg_1:unconscious_topg_2"&gt;&lt;span class="xh"&gt;unconscious&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="conscious_unbox_3" unbox="extra_examples"&gt;&lt;span class="box_title"&gt;Extra Examples&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;Try to keep the patient conscious.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;The patient is not yet fully conscious.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;She was heavily sedated but struggled to stay conscious.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;He was barely conscious.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;I was only half conscious.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;Erin was only partially conscious.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;treatment decisions for persons in a minimally conscious state&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/span&gt;&lt;/div&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="conscious_unbox_4" unbox="snippet"&gt;&lt;span class="box_title"&gt;Oxford Collocations Dictionary&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="unbox"&gt;verbs&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;be&lt;/li&gt;&lt;li class="li"&gt;become&lt;/li&gt;&lt;li class="li"&gt;remain&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;adverb&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;completely&lt;/li&gt;&lt;li class="li"&gt;fully&lt;/li&gt;&lt;li class="li"&gt;barely&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="xref_to_full_entry"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/collocations/conscious" title=" definition in Collocations "&gt;full entry&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;div class="am-entry_long" id="ad_contentslot_1"&gt;&lt;script type="text/javascript"&gt;iaw.cmd.push(function() { iaw.display('ad_contentslot_1'); });&lt;/script&gt;&lt;/div&gt;&lt;/li&gt;&lt;li cefr="b2" class="sense" hclass="sense" htag="li" id="conscious_sng_3" ox3000="y" sensenum="3"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;div class="symbols" hclass="symbols" htag="div"&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/oxford3000-5000?dataset=english&amp;amp;list=ox3000&amp;amp;level=b2"&gt;&lt;span class="ox3ksym_b2"&gt; &lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;/span&gt; &lt;span class="dis-g"&gt;&lt;span class="wrap"&gt;(&lt;/span&gt;&lt;span class="dtxt"&gt;of actions, feelings, etc.&lt;/span&gt;&lt;span class="wrap"&gt;)&lt;/span&gt;&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;deliberate; done in a careful way&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;a conscious choice&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;to make a &lt;span class="cl"&gt;conscious decision&lt;/span&gt;&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;I made a &lt;span class="cl"&gt;conscious effort&lt;/span&gt; to get there on time.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;a conscious act of cruelty&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;span class="xrefs" hclass="xrefs" htag="span" xt="opp"&gt;&lt;span class="prefix"&gt;opposite&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/unconscious_1" title="unconscious definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="unconscious_subentryg_1:unconscious_topg_2"&gt;&lt;span class="xh"&gt;unconscious&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; &lt;span class="xrefs" hclass="xrefs" htag="span" xt="cp"&gt;&lt;span class="prefix"&gt;compare&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/subconscious_1" title="subconscious definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="subconscious_subentryg_1:subconscious_topg_2"&gt;&lt;span class="xh"&gt;subconscious&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="conscious_unbox_5" unbox="extra_examples"&gt;&lt;span class="box_title"&gt;Extra Examples&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;He drifted into it rather than as a result of any conscious political choice.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;She made a conscious decision to spend more time with her family.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/span&gt;&lt;/div&gt; &lt;/li&gt;&lt;li cefr="b2" class="sense" hclass="sense" htag="li" id="conscious_sng_4" ox3000="y" sensenum="4"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;div class="symbols" hclass="symbols" htag="div"&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/oxford3000-5000?dataset=english&amp;amp;list=ox3000&amp;amp;level=b2"&gt;&lt;span class="ox3ksym_b2"&gt; &lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;being particularly interested in something&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;to be environmentally/politically conscious&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;the band's &lt;span class="cl"&gt;socially conscious&lt;/span&gt; lyrics&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;They have become increasingly health-conscious.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;an image-conscious reality star&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;span class="xrefs" hclass="xrefs" htag="span" xt="see"&gt;&lt;span class="prefix"&gt;see also&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/class-conscious" title="class-conscious definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="classconscious_e"&gt;&lt;span class="xh"&gt;class-conscious&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;span class="sep"&gt;,&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/fashion-conscious" title="fashion-conscious definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="fashionconscious_e"&gt;&lt;span class="xh"&gt;fashion-conscious&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; &lt;/li&gt;&lt;li class="sense" hclass="sense" htag="li" id="conscious_sng_5" new="10" sensenum="5"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="dis-g"&gt;&lt;span class="wrap"&gt;(&lt;/span&gt;&lt;span class="dtxt"&gt;of the mind or a thought&lt;/span&gt;&lt;span class="wrap"&gt;)&lt;/span&gt;&lt;/span&gt;&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;directly under the control of the person concerned&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;When you go to sleep, it is only the &lt;span class="cl"&gt;conscious mind&lt;/span&gt; that shuts down.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;/li&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="conscious_unbox_1" unbox="wordorigin"&gt;&lt;span class="box_title"&gt;Word Origin&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="p"&gt;late 16th cent. (in the sense ‘being aware of wrongdoing’): from Latin &lt;span class="ei"&gt;conscius&lt;/span&gt; ‘knowing with others or in oneself’ (from &lt;span class="ei"&gt;conscire&lt;/span&gt; ‘be privy to’) + &lt;span class="eb"&gt;-ous&lt;/span&gt;.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;/ol&gt;&lt;span class="dictlink-g"&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/american_english/conscious" title=" definition in American English "&gt;&lt;span class="xh"&gt;conscious&lt;/span&gt;&lt;/a&gt; in the Oxford Advanced American Dictionary&lt;/span&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/academic/conscious" title=" definition in Academic English "&gt;&lt;span class="xh"&gt;conscious&lt;/span&gt;&lt;/a&gt; in the Oxford Learner's Dictionary of Academic English&lt;/span&gt;&lt;/span&gt;&lt;div class="pron-link"&gt;Check pronunciation:                        &lt;a href="https://www.oxfordlearnersdictionaries.com/pronunciation/english/conscious"&gt;conscious&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>infer</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>&lt;div class="oald" id="entryContent"&gt;&lt;div class="entry" hclass="entry" hlength="5" htag="section" id="infer" idm_id="000030872" sk="infer: :0" sum="746"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="infer_topg_1"&gt;&lt;div class="webtop"&gt;&lt;h1 academic="y" class="headword" hclass="headword" htag="h1" id="infer_h_1" opal_written="y" ox5000="y"&gt;infer&lt;/h1&gt; &lt;span class="pos" hclass="pos" htag="span"&gt;verb&lt;/span&gt;&lt;div class="symbols" hclass="symbols" htag="div"&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/oxford3000-5000?dataset=english&amp;amp;list=ox5000&amp;amp;level=b2"&gt;&lt;span class="ox5ksym_b2"&gt; &lt;/span&gt;&lt;/a&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/opal?dataset=english&amp;amp;list=opal_written&amp;amp;level=sublist_10"&gt;&lt;span class="opal_symbol" href="OPAL_Written::Sublist_10"&gt;OPAL W&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="infer"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/i/inf/infer/infer__gb_2.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/i/inf/infer/infer__gb_2.ogg" style="cursor: pointer" title="infer pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ɪnˈfɜː(r)/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="infer"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/i/inf/infer/infer__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/i/inf/infer/infer__us_1.ogg" style="cursor: pointer" title="infer pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ɪnˈfɜːr/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="infer_unbox_1" unbox="verbforms"&gt;&lt;span class="box_title"&gt;Verb Forms&lt;/span&gt;&lt;span class="body"&gt;&lt;table class="verb_forms_table"&gt;&lt;tr class="verb_form" form="root"&gt;&lt;td class="verb_form"&gt; &lt;span class="vf_prefix"&gt;present simple I / you / we / they&lt;/span&gt; infer&lt;/td&gt;&lt;td class="verb_phons"&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="infer"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/i/inf/infer/infer__gb_2.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/i/inf/infer/infer__gb_2.ogg" style="cursor: pointer" title="infer pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ɪnˈfɜː(r)/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="infer"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/i/inf/infer/infer__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/i/inf/infer/infer__us_1.ogg" style="cursor: pointer" title="infer pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ɪnˈfɜːr/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr class="verb_form" form="thirdps"&gt;&lt;td class="verb_form"&gt; &lt;span class="vf_prefix"&gt;he / she / it&lt;/span&gt; infers&lt;/td&gt;&lt;td class="verb_phons"&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="infers"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/i/inf/infer/infers__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/i/inf/infer/infers__gb_1.ogg" style="cursor: pointer" title="infers pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ɪnˈfɜːz/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="infers"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/i/inf/infer/infers__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/i/inf/infer/infers__us_1.ogg" style="cursor: pointer" title="infers pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ɪnˈfɜːrz/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr class="verb_form" form="past"&gt;&lt;td class="verb_form"&gt; &lt;span class="vf_prefix"&gt;past simple&lt;/span&gt; inferred&lt;/td&gt;&lt;td class="verb_phons"&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="inferred"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/i/inf/infer/inferred__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/i/inf/infer/inferred__gb_1.ogg" style="cursor: pointer" title="inferred pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ɪnˈfɜːd/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="inferred"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/i/inf/infer/inferred__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/i/inf/infer/inferred__us_1.ogg" style="cursor: pointer" title="inferred pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ɪnˈfɜːrd/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr class="verb_form" form="pastpart"&gt;&lt;td class="verb_form"&gt; &lt;span class="vf_prefix"&gt;past participle&lt;/span&gt; inferred&lt;/td&gt;&lt;td class="verb_phons"&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="inferred"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/i/inf/infer/inferred__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/i/inf/infer/inferred__gb_1.ogg" style="cursor: pointer" title="inferred pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ɪnˈfɜːd/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="inferred"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/i/inf/infer/inferred__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/i/inf/infer/inferred__us_1.ogg" style="cursor: pointer" title="inferred pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ɪnˈfɜːrd/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr class="verb_form" form="prespart"&gt;&lt;td class="verb_form"&gt; &lt;span class="vf_prefix"&gt;-ing form&lt;/span&gt; inferring&lt;/td&gt;&lt;td class="verb_phons"&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="inferring"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/i/inf/infer/inferring__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/i/inf/infer/inferring__gb_1.ogg" style="cursor: pointer" title="inferring pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ɪnˈfɜːrɪŋ/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="inferring"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/i/inf/infer/inferring__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/i/inf/infer/inferring__us_1.ogg" style="cursor: pointer" title="inferring pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ɪnˈfɜːrɪŋ/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;a class="responsive_display_inline_on_smartphone link-right" href="#relatedentries"&gt;                            jump to other results                        &lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="senses_multiple" htag="ol"&gt;&lt;li cefr="b2" class="sense" hclass="sense" htag="li" id="infer_sng_1" ox5000="y" sensenum="1"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;div class="symbols" hclass="symbols" htag="div"&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/oxford3000-5000?dataset=english&amp;amp;list=ox5000&amp;amp;level=b2"&gt;&lt;span class="ox5ksym_b2"&gt; &lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;/span&gt;&lt;span class="def" hclass="def" htag="span"&gt;to reach an opinion or decide that something is true on the basis of information that is available&lt;/span&gt; &lt;span class="xrefs" hclass="xrefs" htag="span" xt="nsyn"&gt;&lt;span class="prefix"&gt;synonym&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/deduce" title="deduce definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="deduce_e"&gt;&lt;span class="xh"&gt;deduce&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt; &lt;span class="cf" hclass="cf" htag="span"&gt;infer something (from something)&lt;/span&gt; &lt;span class="x"&gt;Much of the meaning must be inferred from the context.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;Readers are left to infer the killer’s motives.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt; &lt;span class="cf" hclass="cf" htag="span"&gt;infer that…&lt;/span&gt; &lt;span class="x"&gt;It is reasonable to infer that the government knew about these deals.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="infer_unbox_2" unbox="extra_examples"&gt;&lt;span class="box_title"&gt;Extra Examples&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;From this study we can reasonably infer that this characteristic is inherited.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;It is difficult to infer anything from such evidence.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;It can be inferred from the evidence that the killer was quite a young man.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;What can we infer about the state of mind of the writer?&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/span&gt;&lt;/div&gt;&lt;span class="topic-g"&gt;&lt;span class="prefix"&gt;Topics &lt;/span&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/topic/opinion-and-argument?level=b2" title="Topic opinion-and-argument"&gt;&lt;span class="topic" href="l2:functions:opinion_and_argument?cefr=b2"&gt;&lt;span class="topic_name"&gt;Opinion and argument&lt;/span&gt;&lt;span class="topic_cefr"&gt;b2&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="infer_unbox_3" unbox="snippet"&gt;&lt;span class="box_title"&gt;Oxford Collocations Dictionary&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="unbox"&gt;adverb&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;reasonably&lt;/li&gt;&lt;li class="li"&gt;correctly&lt;/li&gt;&lt;li class="li"&gt;incorrectly&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;verb + infer&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;can&lt;/li&gt;&lt;li class="li"&gt;be possible to&lt;/li&gt;&lt;li class="li"&gt;be difficult to&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;preposition&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;from&lt;/li&gt;&lt;/ul&gt;&lt;span class="xref_to_full_entry"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/collocations/infer" title=" definition in Collocations "&gt;full entry&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;/li&gt;&lt;li cefr="c2" class="sense" hclass="sense" htag="li" id="infer_sng_2" sensenum="2"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="cf" hclass="cf" htag="span"&gt;infer (that)…&lt;/span&gt;&lt;/span&gt; &lt;span class="sep"&gt;|&lt;/span&gt; &lt;span class="cf" hclass="cf" htag="span"&gt;infer something&lt;/span&gt; &lt;span class="labels" hclass="labels" htag="span"&gt;(non-standard)&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;to suggest indirectly that something is true&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;Are you inferring (that) I’m not capable of doing the job?&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="infer_unbox_4" unbox="which_word"&gt;&lt;span class="box_title"&gt;Which Word? &lt;span class="closed"&gt;infer / imply&lt;/span&gt;&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="unbox"&gt;infer / imply&lt;/span&gt;&lt;span class="p"&gt;&lt;span class="eb"&gt;Infer&lt;/span&gt; and &lt;span class="eb"&gt;imply&lt;/span&gt; have opposite meanings. The two words can describe the same event, but from different points of view&lt;/span&gt;&lt;ul class="bullet"&gt;&lt;li class="li"&gt; If a speaker or writer &lt;span class="eb"&gt;implies&lt;/span&gt; something, they suggest it without saying it directly:&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;The article implied that the pilot was responsible for the accident.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;/li&gt;&lt;li class="li"&gt;If you &lt;span class="eb"&gt;infer&lt;/span&gt; something from what a speaker or writer says, you come to the conclusion that this is what they mean:&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;I inferred from the article that the pilot was responsible for the accident.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;Infer&lt;/span&gt; is now often used in informal speech with the same meaning as &lt;span class="eb"&gt;imply&lt;/span&gt;:&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;Are you inferring that I’m a liar?&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; However, this is still considered incorrect in standard English.&lt;/li&gt;&lt;/ul&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;span class="topic-g"&gt;&lt;span class="prefix"&gt;Topics &lt;/span&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/topic/suggestions-and-advice?level=c2" title="Topic suggestions-and-advice"&gt;&lt;span class="topic" href="l2:functions:suggestions_and_advice?cefr=c2"&gt;&lt;span class="topic_name"&gt;Suggestions and advice&lt;/span&gt;&lt;span class="topic_cefr"&gt;c2&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="infer_unbox_5" unbox="mlt"&gt;&lt;span class="box_title"&gt;More Like This &lt;span class="closed"&gt;Consonant-doubling verbs&lt;/span&gt;&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="unbox"&gt;Consonant-doubling verbs&lt;/span&gt;&lt;ul class="inline"&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/bob_1" title="bob definition"&gt;&lt;span class="xref"&gt;bob&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/club_1" title="club definition"&gt;&lt;span class="xref"&gt;club&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/dub_1" title="dub definition"&gt;&lt;span class="xref"&gt;dub&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/grab_1" title="grab definition"&gt;&lt;span class="xref"&gt;grab&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/rub_1" title="rub definition"&gt;&lt;span class="xref"&gt;rub&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/sob_1" title="sob definition"&gt;&lt;span class="xref"&gt;sob&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/throb_1" title="throb definition"&gt;&lt;span class="xref"&gt;throb&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;&lt;ul class="inline"&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/kid_1" title="kid definition"&gt;&lt;span class="xref"&gt;kid&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/nod_1" title="nod definition"&gt;&lt;span class="xref"&gt;nod&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/pad_1" title="pad definition"&gt;&lt;span class="xref"&gt;pad&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/plod_1" title="plod definition"&gt;&lt;span class="xref"&gt;plod&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/prod_1" title="prod definition"&gt;&lt;span class="xref"&gt;prod&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/shred_1" title="shred definition"&gt;&lt;span class="xref"&gt;shred&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/skid_1" title="skid definition"&gt;&lt;span class="xref"&gt;skid&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/thud_1" title="thud definition"&gt;&lt;span class="xref"&gt;thud&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;&lt;ul class="inline"&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/beg" title="beg definition"&gt;&lt;span class="xref"&gt;beg&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/blog_1" title="blog definition"&gt;&lt;span class="xref"&gt;blog&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/bug_1" title="bug definition"&gt;&lt;span class="xref"&gt;bug&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/drag_1" title="drag definition"&gt;&lt;span class="xref"&gt;drag&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/drug_1" title="drug definition"&gt;&lt;span class="xref"&gt;drug&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/flag_1" title="flag definition"&gt;&lt;span class="xref"&gt;flag&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/hug_1" title="hug definition"&gt;&lt;span class="xref"&gt;hug&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/jog_1" title="jog definition"&gt;&lt;span class="xref"&gt;jog&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/log_1" title="log definition"&gt;&lt;span class="xref"&gt;log&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/mug_1" title="mug definition"&gt;&lt;span class="xref"&gt;mug&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/nag_1" title="nag definition"&gt;&lt;span class="xref"&gt;nag&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/plug_1" title="plug definition"&gt;&lt;span class="xref"&gt;plug&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;&lt;ul class="inline"&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/bar_1" title="bar definition"&gt;&lt;span class="xref"&gt;bar&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/confer" title="confer definition"&gt;&lt;span class="xref"&gt;confer&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/infer" title="infer definition"&gt;&lt;span class="xref"&gt;infer&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/occur" title="occur definition"&gt;&lt;span class="xref"&gt;occur&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/prefer" title="prefer definition"&gt;&lt;span class="xref"&gt;prefer&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/refer" title="refer definition"&gt;&lt;span class="xref"&gt;refer&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/star_1" title="star definition"&gt;&lt;span class="xref"&gt;star&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/stir_1" title="stir definition"&gt;&lt;span class="xref"&gt;stir&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/transfer_1" title="transfer definition"&gt;&lt;span class="xref"&gt;transfer&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;&lt;ul class="inline"&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/acquit" title="acquit definition"&gt;&lt;span class="xref"&gt;acquit&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/admit" title="admit definition"&gt;&lt;span class="xref"&gt;admit&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/allot" title="allot definition"&gt;&lt;span class="xref"&gt;allot&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/chat_1" title="chat definition"&gt;&lt;span class="xref"&gt;chat&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/clot_1" title="clot definition"&gt;&lt;span class="xref"&gt;clot&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/commit" title="commit definition"&gt;&lt;span class="xref"&gt;commit&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/jut" title="jut definition"&gt;&lt;span class="xref"&gt;jut&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/knit_1" title="knit definition"&gt;&lt;span class="xref"&gt;knit&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/pat_1" title="pat definition"&gt;&lt;span class="xref"&gt;pat&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/regret_1" title="regret definition"&gt;&lt;span class="xref"&gt;regret&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/rot_1" title="rot definition"&gt;&lt;span class="xref"&gt;rot&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/spot_1" title="spot definition"&gt;&lt;span class="xref"&gt;spot&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/submit" title="submit definition"&gt;&lt;span class="xref"&gt;submit&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;&lt;ul class="inline"&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/appal" title="appal definition"&gt;&lt;span class="xref"&gt;appal&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/cancel" title="cancel definition"&gt;&lt;span class="xref"&gt;cancel&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/channel_1" title="channel definition"&gt;&lt;span class="xref"&gt;channel&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/control_1" title="control definition"&gt;&lt;span class="xref"&gt;control&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/counsel_1" title="counsel definition"&gt;&lt;span class="xref"&gt;counsel&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/enrol" title="enrol definition"&gt;&lt;span class="xref"&gt;enrol&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/equal_1" title="equal definition"&gt;&lt;span class="xref"&gt;equal&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/excel" title="excel definition"&gt;&lt;span class="xref"&gt;excel&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/fuel_1" title="fuel definition"&gt;&lt;span class="xref"&gt;fuel&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/fulfil" title="fulfil definition"&gt;&lt;span class="xref"&gt;fulfil&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/label_1" title="label definition"&gt;&lt;span class="xref"&gt;label&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/level_1" title="level definition"&gt;&lt;span class="xref"&gt;level&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/marvel_1" title="marvel definition"&gt;&lt;span class="xref"&gt;marvel&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/model_1" title="model definition"&gt;&lt;span class="xref"&gt;model&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/pedal_1" title="pedal definition"&gt;&lt;span class="xref"&gt;pedal&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/quarrel_1" title="quarrel definition"&gt;&lt;span class="xref"&gt;quarrel&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/signal_1" title="signal definition"&gt;&lt;span class="xref"&gt;signal&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/travel_1" title="travel definition"&gt;&lt;span class="xref"&gt;travel&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;/li&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="infer_unbox_6" unbox="wordorigin"&gt;&lt;span class="box_title"&gt;Word Origin&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="p"&gt;late 15th cent. (in the sense ‘bring about, inflict’): from Latin &lt;span class="ei"&gt;inferre&lt;/span&gt; ‘bring in, bring about’ (in medieval Latin ‘deduce’), from &lt;span class="ei"&gt;in-&lt;/span&gt; ‘into’ + &lt;span class="ei"&gt;ferre&lt;/span&gt; ‘bring’.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;/ol&gt;&lt;span class="dictlink-g"&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/american_english/infer" title=" definition in American English "&gt;&lt;span class="xh"&gt;infer&lt;/span&gt;&lt;/a&gt; in the Oxford Advanced American Dictionary&lt;/span&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/academic/infer" title=" definition in Academic English "&gt;&lt;span class="xh"&gt;infer&lt;/span&gt;&lt;/a&gt; in the Oxford Learner's Dictionary of Academic English&lt;/span&gt;&lt;/span&gt;&lt;div class="pron-link"&gt;Check pronunciation:                        &lt;a href="https://www.oxfordlearnersdictionaries.com/pronunciation/english/infer"&gt;infer&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>purse</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>&lt;div class="oald" id="entryContent"&gt;&lt;div class="entry" hclass="entry" hlength="5" htag="section" id="purse_1" idm_id="000048155" sk="purse: :0" sum="1258"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="purse_topg_2"&gt;&lt;div class="webtop"&gt;&lt;h1 class="headword" hclass="headword" htag="h1" id="purse_h_1"&gt;purse&lt;/h1&gt; &lt;span class="pos" hclass="pos" htag="span"&gt;noun&lt;/span&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="purse"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/p/pur/purse/purse__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/p/pur/purse/purse__gb_1.ogg" style="cursor: pointer" title="purse pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/pɜːs/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="purse"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/p/pur/purse/purse__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/p/pur/purse/purse__us_1.ogg" style="cursor: pointer" title="purse pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/pɜːrs/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt; &lt;span class="jumplinks"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/purse_1#purse_idmgs_1" title="Idioms definition"&gt;&lt;span class="jumplink" href="purse_idmgs_1" name="Idioms"&gt;Idioms&lt;/span&gt;&lt;/a&gt; &lt;/span&gt;&lt;/div&gt;&lt;a class="responsive_display_inline_on_smartphone link-right" href="#relatedentries"&gt;                            jump to other results                        &lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="senses_multiple" htag="ol"&gt;&lt;li cefr="a2" class="sense" hclass="sense" htag="li" id="purse_sng_1" sensenum="1"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;div id="ox-enlarge"&gt;&lt;a class="topic" href="https://www.oxfordlearnersdictionaries.com/media/english/fullsize/c/clo/cloth/clothes_bags.png" title=""&gt;&lt;img alt="" border="1" class="thumb" src="https://www.oxfordlearnersdictionaries.com/media/english/thumb/c/clo/cloth/clothes_bags.png" title=""/&gt;&lt;span class="ox-enlarge-label"&gt;enlarge image&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;span class="grammar" hclass="grammar" htag="span"&gt;[countable]&lt;/span&gt;&lt;/span&gt; &lt;span class="labels" hclass="labels" htag="span"&gt;(especially British English)&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;a small bag made of leather, plastic, etc. for carrying coins and often also paper money, cards, etc., used especially by women&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;I took a coin out of my purse and gave it to the child.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;span class="xrefs" hclass="xrefs" htag="span" xt="cp"&gt;&lt;span class="prefix"&gt;compare&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/change-purse" title="change purse definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="changepurse_e"&gt;&lt;span class="xh"&gt;change purse&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;span class="sep"&gt;,&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/wallet" title="wallet definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="wallet_e"&gt;&lt;span class="xh"&gt;wallet&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;span class="topic-g"&gt;&lt;span class="prefix"&gt;Topics &lt;/span&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/topic/clothes-and-fashion?level=a2" title="Topic clothes-and-fashion"&gt;&lt;span class="topic" href="l2:appearance:clothes_and_fashion?cefr=a2"&gt;&lt;span class="topic_name"&gt;Clothes and Fashion&lt;/span&gt;&lt;span class="topic_cefr"&gt;a2&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;span class="sep"&gt;,&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/topic/money?level=a2" title="Topic money"&gt;&lt;span class="topic" href="l2:work_and_business:money?cefr=a2"&gt;&lt;span class="topic_name"&gt;Money&lt;/span&gt;&lt;span class="topic_cefr"&gt;a2&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="purse2_unbox_1" unbox="snippet"&gt;&lt;span class="box_title"&gt;Oxford Collocations Dictionary&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="unbox"&gt;adjective&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;leather&lt;/li&gt;&lt;li class="li"&gt;change&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;verb + purse&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;open&lt;/li&gt;&lt;li class="li"&gt;snatch&lt;/li&gt;&lt;li class="li"&gt;steal&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;preposition&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;in somebody’s purse&lt;/li&gt;&lt;/ul&gt;&lt;span class="xref_to_full_entry"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/collocations/purse_1" title=" definition in Collocations "&gt;full entry&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;/li&gt;&lt;li cefr="a2" class="sense" hclass="sense" htag="li" id="purse_sng_2" sensenum="2"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="labels" hclass="labels" htag="span"&gt;(North American English)&lt;/span&gt;&lt;/span&gt; &lt;div class="variants" hclass="variants" htag="div" type="vf"&gt;(also &lt;span class="v-g"&gt;&lt;span class="v"&gt;handbag&lt;/span&gt; &lt;span class="labels" hclass="labels" htag="span"&gt;British and North American English&lt;/span&gt;&lt;/span&gt;)&lt;/div&gt; &lt;span class="grammar" hclass="grammar" htag="span"&gt;[countable]&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;a small bag for money, keys, etc., carried especially by women&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;She grabbed her purse and headed out the door.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="purse2_unbox_2" unbox="extra_examples"&gt;&lt;span class="box_title"&gt;Extra Examples&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;I rummaged through my purse for my lip gloss.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;She had her purse snatched.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;She slung her black leather purse over her shoulder.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;She wore pink heels with a matching clutch purse.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;She fumbled in her purse for her glasses.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/span&gt;&lt;/div&gt;&lt;span class="topic-g"&gt;&lt;span class="prefix"&gt;Topics &lt;/span&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/topic/clothes-and-fashion?level=a2" title="Topic clothes-and-fashion"&gt;&lt;span class="topic" href="l2:appearance:clothes_and_fashion?cefr=a2"&gt;&lt;span class="topic_name"&gt;Clothes and Fashion&lt;/span&gt;&lt;span class="topic_cefr"&gt;a2&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="purse2_unbox_3" unbox="snippet"&gt;&lt;span class="box_title"&gt;Oxford Collocations Dictionary&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="unbox"&gt;adjective&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;bulging&lt;/li&gt;&lt;li class="li"&gt;leather&lt;/li&gt;&lt;li class="li"&gt;silk&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;verb + purse&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;clutch&lt;/li&gt;&lt;li class="li"&gt;hold&lt;/li&gt;&lt;li class="li"&gt;carry&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;purse + noun&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;snatcher&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;preposition&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;in somebody’s purse&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;phrases&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;sling a purse over your shoulder&lt;/li&gt;&lt;li class="li"&gt;throw a purse over your shoulder&lt;/li&gt;&lt;/ul&gt;&lt;span class="xref_to_full_entry"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/collocations/purse_1" title=" definition in Collocations "&gt;full entry&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;div class="am-entry_long" id="ad_contentslot_1"&gt;&lt;script type="text/javascript"&gt;iaw.cmd.push(function() { iaw.display('ad_contentslot_1'); });&lt;/script&gt;&lt;/div&gt;&lt;/li&gt;&lt;li cefr="c1" class="sense" hclass="sense" htag="li" id="purse_sng_3" sensenum="3"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="grammar" hclass="grammar" htag="span"&gt;[singular]&lt;/span&gt;&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;the amount of money that is available to a person, an organization or a government to spend&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;We have holidays to suit every purse.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;Should spending on the arts be met out of the &lt;span class="cl"&gt;public purse&lt;/span&gt; &lt;span class="gloss" hclass="gloss" htag="span"&gt;(= from government money)&lt;/span&gt;?&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;span class="xrefs" hclass="xrefs" htag="span" xt="see"&gt;&lt;span class="prefix"&gt;see also&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/the-privy-purse" title="privy purse definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="privypurse_e"&gt;&lt;span class="xh"&gt;privy purse&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="purse2_unbox_4" unbox="extra_examples"&gt;&lt;span class="box_title"&gt;Extra Examples&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;The reforms had drained the public purse.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;There is no money in the purse for this.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/span&gt;&lt;/div&gt;&lt;span class="topic-g"&gt;&lt;span class="prefix"&gt;Topics &lt;/span&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/topic/money?level=c1" title="Topic money"&gt;&lt;span class="topic" href="l2:work_and_business:money?cefr=c1"&gt;&lt;span class="topic_name"&gt;Money&lt;/span&gt;&lt;span class="topic_cefr"&gt;c1&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="purse2_unbox_5" unbox="snippet"&gt;&lt;span class="box_title"&gt;Oxford Collocations Dictionary&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="unbox"&gt;adjective&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;public&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;verb + purse&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;drain&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;purse + noun&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;strings&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;preposition&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;in the purse&lt;/li&gt;&lt;/ul&gt;&lt;span class="xref_to_full_entry"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/collocations/purse_1" title=" definition in Collocations "&gt;full entry&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;/li&gt;&lt;li cefr="c2" class="sense" hclass="sense" htag="li" id="purse_sng_4" sensenum="4"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="grammar" hclass="grammar" htag="span"&gt;[countable]&lt;/span&gt;&lt;/span&gt; &lt;span class="labels" hclass="labels" htag="span"&gt;(&lt;span class="subj" subj="sport"&gt;sport&lt;/span&gt;)&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;a sum of money given as a prize in a &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/boxing" title="boxing definition"&gt;&lt;span class="ndv"&gt;boxing&lt;/span&gt;&lt;/a&gt; match&lt;/span&gt;&lt;span class="topic-g"&gt;&lt;span class="prefix"&gt;Topics &lt;/span&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/topic/sports-other-sports?level=c2" title="Topic sports-other-sports"&gt;&lt;span class="topic" href="l2:sport:sports_other_sports?cefr=c2"&gt;&lt;span class="topic_name"&gt;Sports: other sports&lt;/span&gt;&lt;span class="topic_cefr"&gt;c2&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="purse2_unbox_6" unbox="snippet"&gt;&lt;span class="box_title"&gt;Oxford Collocations Dictionary&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="unbox"&gt;adjective&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;public&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;verb + purse&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;drain&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;purse + noun&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;strings&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;preposition&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;in the purse&lt;/li&gt;&lt;/ul&gt;&lt;span class="xref_to_full_entry"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/collocations/purse_1" title=" definition in Collocations "&gt;full entry&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;/li&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="purse_unbox_1" unbox="wordorigin"&gt;&lt;span class="box_title"&gt;Word Origin&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="p"&gt;late Old English, alteration of late Latin &lt;span class="ei"&gt;bursa&lt;/span&gt; ‘purse’, from Greek &lt;span class="ei"&gt;bursa&lt;/span&gt; ‘hide, leather’. The current verb sense (from the notion of drawing purse strings) dates from the early 17th cent.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;/ol&gt;&lt;div class="idioms" hclass="idioms" htag="div" id="purse_idmgs_1"&gt;&lt;span class="idioms_heading"&gt;Idioms&lt;/span&gt; &lt;span bord="y" class="idm-g" id="purse_idmg_1" sk="makesilkpurseoutofsowsear"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="purse_topg_1"&gt;&lt;div class="webtop"&gt;&lt;span cefr="c2" class="idm" corpus_freq="8" corpus_src="unknown" id="purse_idm_1"&gt;(you can't) make a silk purse out of a sow’s ear&lt;/span&gt; &lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="sense_single" htag="ol"&gt;&lt;li class="sense" fkcefr="c2" hclass="sense" htag="li" id="purse_sng_6"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="def" hclass="def" htag="span"&gt;(you won't) succeed in making something good out of material that does not seem very good at all&lt;/span&gt;&lt;/span&gt;&lt;span class="topic-g"&gt;&lt;span class="prefix"&gt;Topics &lt;/span&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/topic/success?level=c2" title="Topic success"&gt;&lt;span class="topic" href="l2:notions:success?cefr=c2"&gt;&lt;span class="topic_name"&gt;Success&lt;/span&gt;&lt;span class="topic_cefr"&gt;c2&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; &lt;/li&gt;&lt;/ol&gt;&lt;/span&gt;&lt;/div&gt;&lt;span class="dictlink-g"&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/american_english/purse_1" title=" definition in American English "&gt;&lt;span class="xh"&gt;purse&lt;/span&gt;&lt;/a&gt; in the Oxford Advanced American Dictionary&lt;/span&gt;&lt;/span&gt;&lt;div class="pron-link"&gt;Check pronunciation:                        &lt;a href="https://www.oxfordlearnersdictionaries.com/pronunciation/english/purse_1"&gt;purse&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>rag</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>&lt;div class="oald" id="entryContent"&gt;&lt;div class="entry" hclass="entry" hlength="3" htag="section" id="rag_1" idm_id="000048762" sk="rag: :0" sum="1333"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="rag_topg_2"&gt;&lt;div class="webtop"&gt;&lt;h1 class="headword" hclass="headword" htag="h1" id="rag_h_1"&gt;rag&lt;/h1&gt; &lt;span class="pos" hclass="pos" htag="span"&gt;noun&lt;/span&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="rag"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/r/rag/rag__/rag__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/r/rag/rag__/rag__gb_1.ogg" style="cursor: pointer" title="rag pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ræɡ/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="rag"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/r/rag/rag__/rag__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/r/rag/rag__/rag__us_1.ogg" style="cursor: pointer" title="rag pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ræɡ/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt; &lt;span class="jumplinks"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/rag_1#rag_idmgs_1" title="Idioms definition"&gt;&lt;span class="jumplink" href="rag_idmgs_1" name="Idioms"&gt;Idioms&lt;/span&gt;&lt;/a&gt; &lt;/span&gt;&lt;/div&gt;&lt;a class="responsive_display_inline_on_smartphone link-right" href="#relatedentries"&gt;                            jump to other results                        &lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="senses_multiple" htag="ol"&gt;&lt;li cefr="c1" class="sense" hclass="sense" htag="li" id="rag_sng_1" sensenum="1"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="grammar" hclass="grammar" htag="span"&gt;[countable, uncountable]&lt;/span&gt;&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;a piece of old, often torn, cloth used especially for cleaning things&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;I wiped the window with a damp rag.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;Use a piece of old rag.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;span class="xrefs" hclass="xrefs" htag="span" xt="see"&gt;&lt;span class="prefix"&gt;see also&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/glad-rags" title="glad rags definition"&gt;&lt;span bord="y" class="xr-g" dict="all" href="gladrags_e"&gt;&lt;span class="xh"&gt;glad rags&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="rag2_unbox_1" unbox="extra_examples"&gt;&lt;span class="box_title"&gt;Extra Examples&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;He wiped his hands on an oily rag.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;The gun was wrapped in a dirty rag.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;You can wipe the stains off with a rag.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/span&gt;&lt;/div&gt;&lt;span class="topic-g"&gt;&lt;span class="prefix"&gt;Topics &lt;/span&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/topic/clothes-and-fashion?level=c1" title="Topic clothes-and-fashion"&gt;&lt;span class="topic" href="l2:appearance:clothes_and_fashion?cefr=c1"&gt;&lt;span class="topic_name"&gt;Clothes and Fashion&lt;/span&gt;&lt;span class="topic_cefr"&gt;c1&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="rag2_unbox_2" unbox="snippet"&gt;&lt;span class="box_title"&gt;Oxford Collocations Dictionary&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="unbox"&gt;adjective&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;clean&lt;/li&gt;&lt;li class="li"&gt;dirty&lt;/li&gt;&lt;li class="li"&gt;filthy&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;… of rags&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;bundle&lt;/li&gt;&lt;li class="li"&gt;heap&lt;/li&gt;&lt;li class="li"&gt;pile&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;verb + rag&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;be dressed in&lt;/li&gt;&lt;li class="li"&gt;wear&lt;/li&gt;&lt;li class="li"&gt;be wrapped in&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;preposition&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;on a/​the rag&lt;/li&gt;&lt;li class="li"&gt;with a rag&lt;/li&gt;&lt;/ul&gt;&lt;span class="xref_to_full_entry"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/collocations/rag" title=" definition in Collocations "&gt;full entry&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;/li&gt;&lt;li cefr="c2" class="sense" hclass="sense" htag="li" id="rag_sng_2" sensenum="2"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="grammar" hclass="grammar" htag="span"&gt;[countable]&lt;/span&gt;&lt;/span&gt; &lt;span class="labels" hclass="labels" htag="span"&gt;(informal, usually disapproving)&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;a newspaper that you believe to be of low quality&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;the local rag&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;I don't know how you can bear to read that awful rag!&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="topic-g"&gt;&lt;span class="prefix"&gt;Topics &lt;/span&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/topic/tv-radio-and-news?level=c2" title="Topic tv-radio-and-news"&gt;&lt;span class="topic" href="l2:culture:tv_radio_and_news?cefr=c2"&gt;&lt;span class="topic_name"&gt;TV, radio and news&lt;/span&gt;&lt;span class="topic_cefr"&gt;c2&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; &lt;div class="am-entry_long" id="ad_contentslot_1"&gt;&lt;script type="text/javascript"&gt;iaw.cmd.push(function() { iaw.display('ad_contentslot_1'); });&lt;/script&gt;&lt;/div&gt;&lt;/li&gt;&lt;li class="sense" hclass="sense" htag="li" id="rag_sng_3" sensenum="3"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="grammar" hclass="grammar" htag="span"&gt;[countable]&lt;/span&gt;&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;a piece of &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/ragtime" title="ragtime definition"&gt;&lt;span class="ndv"&gt;ragtime&lt;/span&gt;&lt;/a&gt; music&lt;/span&gt; &lt;/li&gt;&lt;li cefr="c2" class="sense" hclass="sense" htag="li" id="rag_sng_4" sensenum="4"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="grammar" hclass="grammar" htag="span"&gt;[uncountable, countable]&lt;/span&gt;&lt;/span&gt; &lt;span class="labels" hclass="labels" htag="span"&gt;(British English)&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;an event or a series of events organized by students each year to raise money for charity&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;rag week&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="topic-g"&gt;&lt;span class="prefix"&gt;Topics &lt;/span&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/topic/social-issues?level=c2" title="Topic social-issues"&gt;&lt;span class="topic" href="l2:politics_and_society:social_issues?cefr=c2"&gt;&lt;span class="topic_name"&gt;Social issues&lt;/span&gt;&lt;span class="topic_cefr"&gt;c2&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; &lt;/li&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="rag2_unbox_3" unbox="wordorigin"&gt;&lt;span class="box_title"&gt;Word Origin&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="p"&gt;&lt;span class="ei"&gt;noun&lt;/span&gt; senses 1 to 2 Middle English: probably a back-formation from &lt;span class="eb"&gt;ragged&lt;/span&gt; or &lt;span class="ei"&gt;raggy&lt;/span&gt; ‘ragged’. &lt;span class="ei"&gt;noun&lt;/span&gt; sense 4 mid 18th cent.: of unknown origin. &lt;span class="ei"&gt;noun&lt;/span&gt; sense 3 late 19th cent.: perhaps from &lt;span class="eb"&gt;ragged&lt;/span&gt;; compare with &lt;span class="eb"&gt;ragtime&lt;/span&gt;.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;/ol&gt;&lt;div class="idioms" hclass="idioms" htag="div" id="rag_idmgs_1"&gt;&lt;span class="idioms_heading"&gt;Idioms&lt;/span&gt; &lt;span class="idm-g" id="rag_idmg_1" sk="inrags"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="rag_topg_3"&gt;&lt;div class="webtop"&gt;&lt;span cefr="c2" class="idm" id="rag_idm_1"&gt;in rags&lt;/span&gt; &lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="sense_single" htag="ol"&gt;&lt;li class="sense" fkcefr="c2" hclass="sense" htag="li" id="rag_sng_5"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="def" hclass="def" htag="span"&gt;wearing very old torn clothes&lt;/span&gt;&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;The children were dressed in rags.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;I saw people dressed in rags begging on the street.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="topic-g"&gt;&lt;span class="prefix"&gt;Topics &lt;/span&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/topic/social-issues?level=c2" title="Topic social-issues"&gt;&lt;span class="topic" href="l2:politics_and_society:social_issues?cefr=c2"&gt;&lt;span class="topic_name"&gt;Social issues&lt;/span&gt;&lt;span class="topic_cefr"&gt;c2&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; &lt;/li&gt;&lt;/ol&gt;&lt;/span&gt; &lt;span bord="y" class="idm-g" id="rag_idmg_3" sk="loserag"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="rag_topg_5"&gt;&lt;div class="webtop"&gt;&lt;span cefr="c2" class="idm" corpus_freq="16" corpus_src="unknown" id="rag_idm_3"&gt;lose your rag&lt;/span&gt; &lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="sense_single" htag="ol"&gt;&lt;li class="sense" fkcefr="c2" hclass="sense" htag="li" id="rag_sng_7"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="labels" hclass="labels" htag="span"&gt;(British English, informal)&lt;/span&gt;&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;to get angry&lt;/span&gt;&lt;span class="topic-g"&gt;&lt;span class="prefix"&gt;Topics &lt;/span&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/topic/feelings?level=c2" title="Topic feelings"&gt;&lt;span class="topic" href="l2:people:feelings?cefr=c2"&gt;&lt;span class="topic_name"&gt;Feelings&lt;/span&gt;&lt;span class="topic_cefr"&gt;c2&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; &lt;/li&gt;&lt;/ol&gt;&lt;/span&gt; &lt;span class="idm-g" id="rag_idmg_2" sk="ragstoriches"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="rag_topg_4"&gt;&lt;div class="webtop"&gt;&lt;span class="idm" id="rag_idm_2"&gt;(from) rags to riches&lt;/span&gt; &lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="sense_single" htag="ol"&gt;&lt;li class="sense" hclass="sense" htag="li" id="rag_sng_6"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="def" hclass="def" htag="span"&gt;from being extremely poor to being very rich&lt;/span&gt;&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;a rags-to-riches story&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;Hers was a classic tale of rags to riches.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;div class="am-entry_long" id="ad_contentslot_2"&gt;&lt;script type="text/javascript"&gt;iaw.cmd.push(function() { iaw.display('ad_contentslot_2'); });&lt;/script&gt;&lt;/div&gt;&lt;/li&gt;&lt;/ol&gt;&lt;/span&gt; &lt;span class="idm-g" id="rag_idmg_4" sk="redragtobull"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="rag_topg_8"&gt;&lt;div class="webtop"&gt;&lt;span class="idm" id="rag_idm_4"&gt;a red rag to a bull&lt;/span&gt; &lt;span class="labels" hclass="labels" htag="span"&gt;(British English)&lt;/span&gt; &lt;div class="variants" hclass="variants" htag="div" id="rag_vgs_1" type="vf"&gt;(&lt;span class="v-g" id="rag_vg_1"&gt;&lt;span class="labels" hclass="labels" htag="span"&gt;US English&lt;/span&gt; &lt;span class="v" id="rag_v_1"&gt;like waving a red flag in front of a bull&lt;/span&gt;&lt;/span&gt;)&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="sense_single" htag="ol"&gt;&lt;li class="sense" hclass="sense" htag="li" id="rag_sng_9"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="def" hclass="def" htag="span"&gt;something that is likely to make somebody very angry&lt;/span&gt;&lt;/span&gt; &lt;/li&gt;&lt;/ol&gt;&lt;/span&gt;&lt;/div&gt;&lt;span class="dictlink-g"&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/american_english/rag_1" title=" definition in American English "&gt;&lt;span class="xh"&gt;rag&lt;/span&gt;&lt;/a&gt; in the Oxford Advanced American Dictionary&lt;/span&gt;&lt;/span&gt;&lt;div class="pron-link"&gt;Check pronunciation:                        &lt;a href="https://www.oxfordlearnersdictionaries.com/pronunciation/english/rag_1"&gt;rag&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>respectable</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>&lt;div class="oald" id="entryContent"&gt;&lt;div class="entry" hclass="entry" hlength="11" htag="section" id="respectable" idm_id="000050398" sk="respectable: :0" sum="546"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="respectable_topg_1"&gt;&lt;div class="webtop"&gt;&lt;h1 class="headword" hclass="headword" htag="h1" id="respectable_h_1"&gt;respectable&lt;/h1&gt; &lt;span class="pos" hclass="pos" htag="span"&gt;adjective&lt;/span&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="respectable"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/r/res/respe/respectable__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/r/res/respe/respectable__gb_1.ogg" style="cursor: pointer" title="respectable pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/rɪˈspektəbl/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="respectable"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/r/res/respe/respectable__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/r/res/respe/respectable__us_1.ogg" style="cursor: pointer" title="respectable pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/rɪˈspektəbl/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;/div&gt;&lt;a class="responsive_display_inline_on_smartphone link-right" href="#relatedentries"&gt;                            jump to other results                        &lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="senses_multiple" htag="ol"&gt;&lt;li class="sense" hclass="sense" htag="li" id="respectable_sng_1" sensenum="1"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="def" hclass="def" htag="span"&gt;considered by society to be acceptable, good or correct&lt;/span&gt;&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;a highly respectable neighbourhood&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;a respectable married man&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;Go and make yourself look respectable.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;span class="xrefs" hclass="xrefs" htag="span" xt="opp"&gt;&lt;span class="prefix"&gt;opposite&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/disreputable" title="disreputable definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="disreputable_e"&gt;&lt;span class="xh"&gt;disreputable&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="respectable_unbox_1" unbox="extra_examples"&gt;&lt;span class="box_title"&gt;Extra Examples&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;She seems respectable enough.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;I regard the defendant as eminently respectable.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;I'm a respectable married woman.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;It's about time you got yourself a respectable job.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;This is a respectable neighbourhood.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/span&gt;&lt;/div&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="respectable_unbox_2" unbox="snippet"&gt;&lt;span class="box_title"&gt;Oxford Collocations Dictionary&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="unbox"&gt;verbs&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;be&lt;/li&gt;&lt;li class="li"&gt;look&lt;/li&gt;&lt;li class="li"&gt;seem&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;adverb&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;extremely&lt;/li&gt;&lt;li class="li"&gt;fairly&lt;/li&gt;&lt;li class="li"&gt;very&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="xref_to_full_entry"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/collocations/respectable" title=" definition in Collocations "&gt;full entry&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;/li&gt;&lt;li class="sense" hclass="sense" htag="li" id="respectable_sng_2" sensenum="2"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="def" hclass="def" htag="span"&gt;fairly good; that there is no reason to be ashamed of&lt;/span&gt;&lt;/span&gt; &lt;span class="xrefs" hclass="xrefs" htag="span" xt="syn"&gt;&lt;span class="prefix"&gt;synonym&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/acceptable" title="acceptable definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="acceptable_e"&gt;&lt;span class="xh"&gt;acceptable&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;It was a perfectly respectable result.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;Economic growth has averaged at a respectable 2.5 per cent.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="respectable_unbox_3" unbox="extra_examples"&gt;&lt;span class="box_title"&gt;Extra Examples&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;The group gave quite a respectable performance.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;They achieved the respectable score of 87 points.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/span&gt;&lt;/div&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="respectable_unbox_4" unbox="snippet"&gt;&lt;span class="box_title"&gt;Oxford Collocations Dictionary&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="unbox"&gt;verbs&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;be&lt;/li&gt;&lt;li class="li"&gt;look&lt;/li&gt;&lt;li class="li"&gt;seem&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;adverb&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;extremely&lt;/li&gt;&lt;li class="li"&gt;fairly&lt;/li&gt;&lt;li class="li"&gt;very&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="xref_to_full_entry"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/collocations/respectable" title=" definition in Collocations "&gt;full entry&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;/li&gt;&lt;/ol&gt;&lt;span class="dictlink-g"&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/american_english/respectable" title=" definition in American English "&gt;&lt;span class="xh"&gt;respectable&lt;/span&gt;&lt;/a&gt; in the Oxford Advanced American Dictionary&lt;/span&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/academic/respectable" title=" definition in Academic English "&gt;&lt;span class="xh"&gt;respectable&lt;/span&gt;&lt;/a&gt; in the Oxford Learner's Dictionary of Academic English&lt;/span&gt;&lt;/span&gt;&lt;div class="pron-link"&gt;Check pronunciation:                        &lt;a href="https://www.oxfordlearnersdictionaries.com/pronunciation/english/respectable"&gt;respectable&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>honorable</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>&lt;div class="oald" id="entryContent"&gt;&lt;div class="entry" hclass="entry" hlength="9" htag="section" id="honorable" idm_id="000028949" sk="honorable: :0" sum="495"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="honorable_topg_1"&gt;&lt;div class="webtop"&gt;&lt;h1 class="headword" hclass="headword" htag="h1" id="honorable_h_1"&gt;honorable&lt;/h1&gt; &lt;span class="pos" hclass="pos" htag="span"&gt;adjective&lt;/span&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="honourable"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/h/hon/honou/honourable__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/h/hon/honou/honourable__gb_1.ogg" style="cursor: pointer" title="honourable pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈɒnərəbl/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="honourable"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/h/hon/honou/honourable__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/h/hon/honou/honourable__us_1.ogg" style="cursor: pointer" title="honourable pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈɑːnərəbl/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;span class="labels" hclass="labels" htag="span"&gt;(US English)&lt;/span&gt; &lt;div class="variants" hclass="variants" htag="div" id="honorable_vgs_1" type="vs"&gt;(&lt;span class="v-g" id="honorable_vg_1"&gt;&lt;span class="labels" hclass="labels" htag="span"&gt;British English&lt;/span&gt; &lt;span class="v" id="honorable_v_1"&gt;honourable&lt;/span&gt;&lt;/span&gt;)&lt;/div&gt; &lt;/div&gt;&lt;a class="responsive_display_inline_on_smartphone link-right" href="#relatedentries"&gt;                            jump to other results                        &lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="senses_multiple" htag="ol"&gt;&lt;li class="sense" hclass="sense" htag="li" id="honorable_sng_1" sensenum="1"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="def" hclass="def" htag="span"&gt;deserving great respect &lt;/span&gt;&lt;/span&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="honorable_unbox_1" unbox="snippet"&gt;&lt;span class="box_title"&gt;Oxford Collocations Dictionary&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="unbox"&gt;verbs&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;be&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;adverb&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;very&lt;/li&gt;&lt;li class="li"&gt;completely&lt;/li&gt;&lt;li class="li"&gt;entirely&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="xref_to_full_entry"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/collocations/honourable" title=" definition in Collocations "&gt;full entry&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;/li&gt;&lt;li cefr="c1" class="sense" hclass="sense" htag="li" id="honorable_sng_2" sensenum="2"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="def" hclass="def" htag="span"&gt;showing high moral standards&lt;/span&gt;&lt;/span&gt;&lt;span class="topic-g"&gt;&lt;span class="prefix"&gt;Topics &lt;/span&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/topic/personal-qualities?level=c1" title="Topic personal-qualities"&gt;&lt;span class="topic" href="l2:people:personal_qualities?cefr=c1"&gt;&lt;span class="topic_name"&gt;Personal qualities&lt;/span&gt;&lt;span class="topic_cefr"&gt;c1&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="honorable_unbox_2" unbox="snippet"&gt;&lt;span class="box_title"&gt;Oxford Collocations Dictionary&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="unbox"&gt;verbs&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;be&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;adverb&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;very&lt;/li&gt;&lt;li class="li"&gt;completely&lt;/li&gt;&lt;li class="li"&gt;entirely&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="xref_to_full_entry"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/collocations/honourable" title=" definition in Collocations "&gt;full entry&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;div class="am-entry" id="ad_contentslot_1"&gt;&lt;script type="text/javascript"&gt;iaw.cmd.push(function() { iaw.display('ad_contentslot_1'); });&lt;/script&gt;&lt;/div&gt;&lt;/li&gt;&lt;li class="sense" hclass="sense" htag="li" id="honorable_sng_3" sensenum="3"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="def" hclass="def" htag="span"&gt;allowing somebody to keep their good name and the respect of others&lt;/span&gt;&lt;/span&gt; &lt;/li&gt;&lt;li class="sense" hclass="sense" htag="li" id="honorable_sng_4" sensenum="4"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;div class="variants" hclass="variants" htag="div" type="alt"&gt;&lt;span class="v-g"&gt;&lt;span class="v"&gt;the Honorable&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;div class="variants" hclass="variants" htag="div" type="ab"&gt;(abbreviation &lt;span class="v-g"&gt;&lt;span class="v"&gt;Hon&lt;/span&gt;&lt;/span&gt;)&lt;/div&gt;&lt;/span&gt; &lt;span class="grammar" hclass="grammar" htag="span"&gt;[only before noun]&lt;/span&gt; &lt;span class="dis-g"&gt;&lt;span class="wrap"&gt;(&lt;/span&gt;&lt;span class="dtxt"&gt;in the US&lt;/span&gt;&lt;span class="wrap"&gt;)&lt;/span&gt;&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;a title of respect used for an official of high rank&lt;/span&gt; &lt;/li&gt; &lt;span class="un" id="honourable_un_1" un="help"&gt;Use &lt;span class="eb"&gt;an&lt;/span&gt;, not &lt;span class="eb"&gt;a&lt;/span&gt;, before &lt;span class="eb"&gt;honourable.&lt;/span&gt;&lt;/span&gt;&lt;/ol&gt;&lt;span class="dictlink-g"&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/american_english/honorable" title=" definition in American English "&gt;&lt;span class="xh"&gt;honorable&lt;/span&gt;&lt;/a&gt; in the Oxford Advanced American Dictionary&lt;/span&gt;&lt;/span&gt;&lt;div class="pron-link"&gt;Check pronunciation:                        &lt;a href="https://www.oxfordlearnersdictionaries.com/pronunciation/english/honorable"&gt;honorable&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>toil</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>&lt;div class="oald" id="entryContent"&gt;&lt;div class="entry" hclass="entry" hlength="4" htag="section" id="toil_1" idm_id="000062117" sk="toil: :0" sum="424"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="toil_topg_2"&gt;&lt;div class="webtop"&gt;&lt;h1 class="headword" hclass="headword" htag="h1" id="toil_h_1"&gt;toil&lt;/h1&gt; &lt;span class="pos" hclass="pos" htag="span"&gt;verb&lt;/span&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="toil"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/t/toi/toil_/toil__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/t/toi/toil_/toil__gb_1.ogg" style="cursor: pointer" title="toil pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/tɔɪl/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="toil"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/t/toi/toil_/toil__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/t/toi/toil_/toil__us_1.ogg" style="cursor: pointer" title="toil pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/tɔɪl/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;span class="labels" hclass="labels" htag="span"&gt;(formal)&lt;/span&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="toil_vpgs_1" unbox="verbforms"&gt;&lt;span class="box_title"&gt;Verb Forms&lt;/span&gt;&lt;span class="body"&gt;&lt;table class="verb_forms_table"&gt;&lt;tr class="verb_form" form="root"&gt;&lt;td class="verb_form"&gt; &lt;span class="vf_prefix"&gt;present simple I / you / we / they&lt;/span&gt; toil&lt;/td&gt;&lt;td class="verb_phons"&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="toil"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/t/toi/toil_/toil__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/t/toi/toil_/toil__gb_1.ogg" style="cursor: pointer" title="toil pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/tɔɪl/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="toil"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/t/toi/toil_/toil__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/t/toi/toil_/toil__us_1.ogg" style="cursor: pointer" title="toil pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/tɔɪl/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr class="verb_form" form="thirdps"&gt;&lt;td class="verb_form"&gt; &lt;span class="vf_prefix"&gt;he / she / it&lt;/span&gt; toils&lt;/td&gt;&lt;td class="verb_phons"&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="toils"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/t/toi/toils/toils__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/t/toi/toils/toils__gb_1.ogg" style="cursor: pointer" title="toils pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/tɔɪlz/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="toils"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/t/toi/toils/toils__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/t/toi/toils/toils__us_1.ogg" style="cursor: pointer" title="toils pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/tɔɪlz/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr class="verb_form" form="past"&gt;&lt;td class="verb_form"&gt; &lt;span class="vf_prefix"&gt;past simple&lt;/span&gt; toiled&lt;/td&gt;&lt;td class="verb_phons"&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="toiled"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/t/toi/toile/toiled__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/t/toi/toile/toiled__gb_1.ogg" style="cursor: pointer" title="toiled pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/tɔɪld/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="toiled"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/t/toi/toile/toiled__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/t/toi/toile/toiled__us_1.ogg" style="cursor: pointer" title="toiled pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/tɔɪld/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr class="verb_form" form="pastpart"&gt;&lt;td class="verb_form"&gt; &lt;span class="vf_prefix"&gt;past participle&lt;/span&gt; toiled&lt;/td&gt;&lt;td class="verb_phons"&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="toiled"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/t/toi/toile/toiled__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/t/toi/toile/toiled__gb_1.ogg" style="cursor: pointer" title="toiled pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/tɔɪld/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="toiled"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/t/toi/toile/toiled__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/t/toi/toile/toiled__us_1.ogg" style="cursor: pointer" title="toiled pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/tɔɪld/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr class="verb_form" form="prespart"&gt;&lt;td class="verb_form"&gt; &lt;span class="vf_prefix"&gt;-ing form&lt;/span&gt; toiling&lt;/td&gt;&lt;td class="verb_phons"&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="toiling"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/t/toi/toili/toiling__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/t/toi/toili/toiling__gb_1.ogg" style="cursor: pointer" title="toiling pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈtɔɪlɪŋ/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="toiling"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/t/toi/toili/toiling__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/t/toi/toili/toiling__us_1.ogg" style="cursor: pointer" title="toiling pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈtɔɪlɪŋ/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;a class="responsive_display_inline_on_smartphone link-right" href="#relatedentries"&gt;                            jump to other results                        &lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="senses_multiple" htag="ol"&gt;&lt;li class="sense" hclass="sense" htag="li" id="toil_sng_1" sensenum="1"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="grammar" hclass="grammar" htag="span"&gt;[intransitive]&lt;/span&gt;&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;to work very hard and/or for a long time, usually doing hard physical work&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;Hundreds of men toiled for years at building the pyramid.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;She toils tirelessly for various charities.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;/li&gt;&lt;li class="sense" hclass="sense" htag="li" id="toil_sng_2" sensenum="2"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="grammar" hclass="grammar" htag="span"&gt;[intransitive]&lt;/span&gt;&lt;/span&gt; &lt;span class="cf" hclass="cf" htag="span"&gt;+ adv./prep.&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;to move slowly and with difficulty&lt;/span&gt; &lt;span class="xrefs" hclass="xrefs" htag="span" xt="syn"&gt;&lt;span class="prefix"&gt;synonym&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/slog_1" title="slog definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="slog_subentryg_1:slog_topg_2"&gt;&lt;span class="xh"&gt;slog&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;They toiled up the hill in the blazing sun.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;/li&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="toil_unbox_3" unbox="wordorigin"&gt;&lt;span class="box_title"&gt;Word Origin&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="p"&gt;Middle English (in the senses ‘contend verbally’ and ‘strife’): from Anglo-Norman French &lt;span class="ei"&gt;toiler&lt;/span&gt; ‘strive, dispute’, &lt;span class="ei"&gt;toil&lt;/span&gt; ‘confusion’, from Latin &lt;span class="ei"&gt;tudiculare&lt;/span&gt; ‘stir about’, from &lt;span class="ei"&gt;tudicula&lt;/span&gt; ‘machine for crushing olives’, related to &lt;span class="ei"&gt;tundere&lt;/span&gt; ‘crush’.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;/ol&gt;&lt;span class="dictlink-g"&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/american_english/toil_1" title=" definition in American English "&gt;&lt;span class="xh"&gt;toil&lt;/span&gt;&lt;/a&gt; in the Oxford Advanced American Dictionary&lt;/span&gt;&lt;/span&gt;&lt;div class="pron-link"&gt;Check pronunciation:                        &lt;a href="https://www.oxfordlearnersdictionaries.com/pronunciation/english/toil_1"&gt;toil&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>trials</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>&lt;div class="oald" id="entryContent"&gt;&lt;div class="entry" hclass="entry" hlength="5" htag="section" id="trial_1" idm_id="000062963" sk="trial: :0" sum="2221"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="trial_topg_2"&gt;&lt;div class="webtop"&gt;&lt;h1 class="headword" hclass="headword" htag="h1" id="trial_h_1" ox3000="y" random="y"&gt;trial&lt;/h1&gt; &lt;span class="pos" hclass="pos" htag="span"&gt;noun&lt;/span&gt;&lt;div class="symbols" hclass="symbols" htag="div"&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/oxford3000-5000?dataset=english&amp;amp;list=ox3000&amp;amp;level=b2"&gt;&lt;span class="ox3ksym_b2"&gt; &lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="trial"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/t/tri/trial/trial__gb_2.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/t/tri/trial/trial__gb_2.ogg" style="cursor: pointer" title="trial pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈtraɪəl/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="trial"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/t/tri/trial/trial__us_2.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/t/tri/trial/trial__us_2.ogg" style="cursor: pointer" title="trial pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈtraɪəl/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;span class="jumplinks"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/trial_1#trial_idmgs_1" title="Idioms definition"&gt;&lt;span class="jumplink" href="trial_idmgs_1" name="Idioms"&gt;Idioms&lt;/span&gt;&lt;/a&gt; &lt;/span&gt;&lt;/div&gt;&lt;a class="responsive_display_inline_on_smartphone link-right" href="#relatedentries"&gt;                            jump to other results                        &lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="senses_multiple" htag="ol"&gt;&lt;span class="shcut-g" id="trial_sngs_1"&gt; &lt;h2 class="shcut" hclass="shcut" htag="h2" id="trial_shcut_1"&gt;law&lt;/h2&gt;&lt;li cefr="b2" class="sense" hclass="sense" htag="li" id="trial_sng_1" ox3000="y" sensenum="1"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;div class="symbols" hclass="symbols" htag="div"&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/oxford3000-5000?dataset=english&amp;amp;list=ox3000&amp;amp;level=b2"&gt;&lt;span class="ox3ksym_b2"&gt; &lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;/span&gt; &lt;span class="grammar" hclass="grammar" htag="span"&gt;[uncountable, countable]&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;a formal examination of evidence in court by a judge and often a &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/jury" title="jury definition"&gt;&lt;span class="ndv"&gt;jury&lt;/span&gt;&lt;/a&gt;, to decide if somebody accused of a crime is guilty or not&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;a &lt;span class="cl"&gt;murder/criminal trial&lt;/span&gt;&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt; &lt;span class="cf" hclass="cf" htag="span"&gt;on trial&lt;/span&gt; &lt;span class="x"&gt;He's on trial for murder.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;She will &lt;span class="cl"&gt;stand trial/go on trial&lt;/span&gt; for fraud.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;He should have been arrested and &lt;span class="cl"&gt;put on trial&lt;/span&gt;.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;He &lt;span class="cl"&gt;was facing trial&lt;/span&gt; on a murder charge. &lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;The men were arrested but not &lt;span class="cl"&gt;brought to trial&lt;/span&gt;.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;She &lt;span class="cl"&gt;is awaiting trial&lt;/span&gt; on corruption charges.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;He did not receive a &lt;span class="cl"&gt;fair trial&lt;/span&gt;.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;the right to &lt;span class="cl"&gt;trial by jury&lt;/span&gt;&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;She was detained without trial.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;a &lt;span class="cl"&gt;trial judge/lawyer/court&lt;/span&gt;&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;She became a key witness in the trial.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;They will lose their right to a &lt;span class="cl"&gt;jury trial&lt;/span&gt;.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="trial2_unbox_1" unbox="colloc"&gt;&lt;span class="box_title"&gt;Collocations &lt;span class="closed"&gt;Criminal justice&lt;/span&gt;&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="unbox"&gt;Criminal justice&lt;/span&gt;&lt;span class="unbox"&gt;Breaking the law&lt;/span&gt;&lt;ul class="bullet"&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;break/​violate/​obey/​uphold &lt;/span&gt;the law&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;be investigated/​arrested/​tried for&lt;/span&gt; a crime/​a robbery/​fraud&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;be arrested/&lt;/span&gt; &lt;span class="labels" hclass="labels" htag="span"&gt;(especially North American English)&lt;/span&gt; &lt;span class="eb"&gt;indicted/​convicted&lt;/span&gt; on charges of rape/​fraud/&lt;span class="labels" hclass="labels" htag="span"&gt;(especially US English)&lt;/span&gt; felony charges&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;be arrested &lt;/span&gt;on suspicion of arson/​robbery/​shoplifting&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;be accused of/​be charged with&lt;/span&gt; murder/&lt;span class="labels" hclass="labels" htag="span"&gt;(especially North American English)&lt;/span&gt; homicide/​four counts of fraud&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;face&lt;/span&gt; two charges of indecent assault&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;admit&lt;/span&gt; your guilt/​liability/​responsibility (for something)&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;deny&lt;/span&gt; the allegations/​claims/​charges&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;confess to&lt;/span&gt; a crime&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;grant/​be refused/​be released on/​skip/​jump&lt;/span&gt; bail&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;The legal process&lt;/span&gt;&lt;ul class="bullet"&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;stand/​await/​bring somebody to/​come to/​be on&lt;/span&gt; trial&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;take somebody to/​come to/​settle something out of &lt;/span&gt;court&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;face/​avoid/​escape&lt;/span&gt; prosecution&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;seek/​retain/​have the right to/​be denied access to&lt;/span&gt; legal counsel&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;hold/​conduct/​attend/​adjourn&lt;/span&gt; a hearing/​trial&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;sit on/​influence/​persuade/​convince&lt;/span&gt; the jury&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;sit/​stand/​appear/​be put/​place somebody&lt;/span&gt; in the dock&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;plead&lt;/span&gt; guilty/​not guilty to a crime&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;be called to/​enter&lt;/span&gt; &lt;span class="labels" hclass="labels" htag="span"&gt;(British English)&lt;/span&gt; the witness box&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;take/​put somebody on&lt;/span&gt; the stand/&lt;span class="labels" hclass="labels" htag="span"&gt;(North American English)&lt;/span&gt; the witness stand&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;call/​subpoena/​question/​cross-examine&lt;/span&gt; a witness&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;give/​hear &lt;/span&gt;the evidence against/​on behalf of somebody&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;raise/​withdraw/​overrule&lt;/span&gt; an objection&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;reach&lt;/span&gt; a unanimous/​majority verdict&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;return/​deliver/​record&lt;/span&gt; a verdict of not guilty/​unlawful killing/​accidental death&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;convict/​acquit&lt;/span&gt; the defendant of the crime&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;secure&lt;/span&gt; a conviction/​your acquittal&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;lodge/​file &lt;/span&gt;an appeal&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;appeal (against)/challenge/​uphold/​overturn&lt;/span&gt; a conviction/​verdict&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;Sentencing and punishment&lt;/span&gt;&lt;ul class="bullet"&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;pass&lt;/span&gt; sentence on somebody&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;carry/​face/​serve&lt;/span&gt; a seven-year/​life sentence&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;receive/​be given&lt;/span&gt; the death penalty&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;be sentenced to&lt;/span&gt; ten years (in prison/​jail)&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;carry/​impose/​pay&lt;/span&gt; a fine (of $3 000)/a penalty (of 14 years' imprisonment)&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;be imprisoned/​jailed for&lt;/span&gt; drug possession/​fraud/​murder&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;do/​serve&lt;/span&gt; time/​ten years&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;be sent to/​put somebody in/​be released from&lt;/span&gt; jail/​prison&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;be/​put somebody/​spend X years&lt;/span&gt; on death row&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;be granted/​be denied/​break (your)&lt;/span&gt; parole&lt;/li&gt;&lt;/ul&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="trial2_unbox_2" unbox="cult"&gt;&lt;span class="box_title"&gt;Culture &lt;span class="closed"&gt;juries&lt;/span&gt;&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="unbox"&gt;juries&lt;/span&gt;&lt;span class="p"&gt;Under the legal system of England and Wales, and also that of Scotland, a person accused of a serious crime who &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/plead" title="pleads definition"&gt;&lt;span class="ndv"&gt;pleads&lt;/span&gt;&lt;/a&gt; ‘not guilty’ to the crime will be &lt;span class="eb"&gt;tried&lt;/span&gt; by a jury. Juries also hear some civil cases &lt;span class="gloss" hclass="gloss" htag="span"&gt;(= when people disagree about their rights)&lt;/span&gt; but this is very rare. In the US juries are also used in both criminal and civil cases, though the rules vary from state to state.&lt;/span&gt;&lt;span class="p"&gt;In Britain &lt;span class="eb"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/juror" title="jurors definition"&gt;&lt;span class="ndv"&gt;jurors&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; &lt;span class="gloss" hclass="gloss" htag="span"&gt;(= jury members)&lt;/span&gt; are selected at &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/random_1" title="random definition"&gt;&lt;span class="ndv"&gt;random&lt;/span&gt;&lt;/a&gt; for each trial from lists of adults who have the right to vote. They must be between the ages of 18 and 70. Anybody &lt;span class="eb"&gt;called for jury service&lt;/span&gt; usually has to attend court for about two weeks, although some cases may go on for much longer. In England and Wales 12 people sit on a jury, in Scotland 15. A larger number of people are asked to attend court and the final jury is selected at random from among them. Lawyers representing either side in a case have the right to object to a particular person being on the jury.&lt;/span&gt;&lt;span class="p"&gt;After the jury has heard the evidence presented by both sides, it &lt;span class="eb"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/retire" title="retires definition"&gt;&lt;span class="ndv"&gt;retires&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; to the &lt;span class="eb"&gt;jury room&lt;/span&gt;, a private room, to discuss the case. When all members of the jury agree, they &lt;span class="eb"&gt;return their &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/verdict" title="verdict definition"&gt;&lt;span class="ndv"&gt;verdict&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; (= go back into court and say whether the accused is &lt;span class="eb"&gt;guilty&lt;/span&gt; or &lt;span class="eb"&gt;not guilty&lt;/span&gt;). In Scotland they can also return a verdict of &lt;span class="eb"&gt;not proven&lt;/span&gt;, which means that the accused has not been proved guilty and they can go free. The verdict is announced by the &lt;span class="eb"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/foreman" title="foreman definition"&gt;&lt;span class="ndv"&gt;foreman&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; &lt;span class="gloss" hclass="gloss" htag="span"&gt;(= the person chosen by the jury as their leader)&lt;/span&gt;. Sometimes the jury cannot all agree and the judge may accept a &lt;span class="eb"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/majority-verdict" title="majority verdict definition"&gt;&lt;span class="ndv"&gt;majority verdict&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;, provided that no more than two members of the jury disagree. If no majority verdict is reached, this is called a &lt;span class="eb"&gt;hung jury&lt;/span&gt; and the trial is abandoned and started again with a different jury. It is not the responsibility of the jury to decide punishment, though in certain civil cases they may decide how much &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/compensation" title="compensation definition"&gt;&lt;span class="ndv"&gt;compensation&lt;/span&gt;&lt;/a&gt; &lt;span class="gloss" hclass="gloss" htag="span"&gt;(= money given by one person another to cancel out damage, loss, etc. caused)&lt;/span&gt; should be paid.&lt;/span&gt;&lt;span class="p"&gt;In the US most juries have 12 members, though some have only six. Otherwise the system is very similar to that in England and Wales. When people are called for &lt;span class="eb"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/jury-duty" title="jury duty definition"&gt;&lt;span class="ndv"&gt;jury duty&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; they must go, but people who cannot leave their jobs or homes can be excused. Before a trial begins lawyers ask questions to see if jurors will be &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/impartial" title="impartial definition"&gt;&lt;span class="ndv"&gt;impartial&lt;/span&gt;&lt;/a&gt; &lt;span class="gloss" hclass="gloss" htag="span"&gt;(= do not have strong opinions that would prevent them making a decision based on the facts)&lt;/span&gt;. Lawyers can &lt;span class="eb"&gt;challenge for cause&lt;/span&gt;, if they can give the judge a good reason why somebody should not be a juror. They also have a number of &lt;span class="eb"&gt;peremptory challenges&lt;/span&gt;, which means they can object to somebody without giving a reason. In some trials it can be difficult to find 12 people who are impartial, especially if a case has received a lot of attention in the news. Lawyers sometimes do research to find out what kind of person is most likely to support their side, and use challenges to keep other people off the jury. In a criminal trial the jury decides whether the accused person is &lt;span class="eb"&gt;guilty&lt;/span&gt; or &lt;span class="eb"&gt;not guilty&lt;/span&gt;, but does not decide on a punishment. In a civil trial they may decide how much money should be paid in compensation. If the jury cannot reach a verdict it is declared a &lt;span class="eb"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/mistrial" title="mistrial definition"&gt;&lt;span class="ndv"&gt;mistrial&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;, the trial is abandoned and a retrial is held with a new jury.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;span class="xrefs" hclass="xrefs" htag="span" xt="see"&gt;&lt;span class="prefix"&gt;see also&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/show-trial" title="show trial definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="showtrial_e"&gt;&lt;span class="xh"&gt;show trial&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="trial2_unbox_3" unbox="wordfinder"&gt;&lt;span class="box_title"&gt;Wordfinder&lt;/span&gt;&lt;span class="body"&gt;&lt;ul class="bullet"&gt;&lt;li class="li"&gt;&lt;span class="xref" href="abide_pvg_1:abide_topg_2" tofix=""&gt;abide by something&lt;/span&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/court_1#court_sng_17" title="court definition"&gt;&lt;span class="xref"&gt;court&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/crime" title="crime definition"&gt;&lt;span class="xref"&gt;crime&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/justice#justice_sng_3" title="justice definition"&gt;&lt;span class="xref"&gt;justice&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/law#law_sng_1" title="law definition"&gt;&lt;span class="xref"&gt;law&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/legal" title="legal definition"&gt;&lt;span class="xref"&gt;legal&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="xref" href="police_subentryg_1:police_topg_2" tofix=""&gt;police&lt;/span&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/prosecute" title="prosecute definition"&gt;&lt;span class="xref"&gt;prosecute&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/punish" title="punish definition"&gt;&lt;span class="xref"&gt;punish&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/trial_1#trial_sng_1" title="trial definition"&gt;&lt;span class="xref"&gt;trial&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="trial2_unbox_4" unbox="wordfinder"&gt;&lt;span class="box_title"&gt;Wordfinder&lt;/span&gt;&lt;span class="body"&gt;&lt;ul class="bullet"&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/accuse" title="accuse definition"&gt;&lt;span class="xref"&gt;accuse&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/appeal_1#appeal_sng_1" title="appeal definition"&gt;&lt;span class="xref"&gt;appeal&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/counsel_1#counsel_sng_2" title="counsel definition"&gt;&lt;span class="xref"&gt;counsel&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/defendant" title="defendant definition"&gt;&lt;span class="xref"&gt;defendant&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="xref" href="evidence_subentryg_1:evidence_topg_2" tofix=""&gt;evidence&lt;/span&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/justice#justice_sng_3" title="justice definition"&gt;&lt;span class="xref"&gt;justice&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/offence#offence_sng_1" title="offence definition"&gt;&lt;span class="xref"&gt;offence&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/plea#plea_sng_2" title="plea definition"&gt;&lt;span class="xref"&gt;plea&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/prosecution" title="prosecution definition"&gt;&lt;span class="xref"&gt;prosecution&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/trial_1#trial_sng_1" title="trial definition"&gt;&lt;span class="xref"&gt;trial&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="trial2_unbox_5" unbox="extra_examples"&gt;&lt;span class="box_title"&gt;Extra Examples&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;A series of show trials of former senior officials of the ousted regime took place.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;A trial date has been set for May 10.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;More than a hundred witnesses gave evidence at the trial.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;Opposition leaders had been jailed without trial.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;She faces trial for murder.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;The judge halted the trial when it emerged witnesses had been threatened.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;The judge ordered a new trial on the grounds that evidence had been withheld.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;The letters that were shown during his trial turned out to be forgeries.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;The rebels were brutally executed after summary trials.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;The trial collapsed after a key prosecution witness admitted lying.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt; &lt;span class="labels" hclass="labels" htag="span"&gt;(figurative)&lt;/span&gt; &lt;span class="unx"&gt;The president faces trial by television tonight when he takes part in a live debate.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;The case never came to trial.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;He will go to trial on charges of robbery and assault.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;Parker was committed for trial yesterday at Southwark Crown Court.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;A trial date will be set for sometime in the spring. &lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/span&gt;&lt;/div&gt;&lt;span class="topic-g"&gt;&lt;span class="prefix"&gt;Topics &lt;/span&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/topic/law-and-justice?level=b2" title="Topic law-and-justice"&gt;&lt;span class="topic" href="l2:politics_and_society:law_and_justice?cefr=b2"&gt;&lt;span class="topic_name"&gt;Law and justice&lt;/span&gt;&lt;span class="topic_cefr"&gt;b2&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="trial2_unbox_6" unbox="snippet"&gt;&lt;span class="box_title"&gt;Oxford Collocations Dictionary&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="unbox"&gt;adjective&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;fair&lt;/li&gt;&lt;li class="li"&gt;unfair&lt;/li&gt;&lt;li class="li"&gt;full&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;verb + trial&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;come to&lt;/li&gt;&lt;li class="li"&gt;face&lt;/li&gt;&lt;li class="li"&gt;go on&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;trial + verb&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;proceed&lt;/li&gt;&lt;li class="li"&gt;take place&lt;/li&gt;&lt;li class="li"&gt;begin&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;trial + noun&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;attorney&lt;/li&gt;&lt;li class="li"&gt;court&lt;/li&gt;&lt;li class="li"&gt;judge&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;preposition&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;at the trial&lt;/li&gt;&lt;li class="li"&gt;during the trial&lt;/li&gt;&lt;li class="li"&gt;on trial&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="xref_to_full_entry"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/collocations/trial" title=" definition in Collocations "&gt;full entry&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;/li&gt;&lt;/span&gt;&lt;span class="shcut-g" id="trial_sngs_2"&gt; &lt;h2 class="shcut" hclass="shcut" htag="h2" id="trial_shcut_2"&gt;test&lt;/h2&gt;&lt;li cefr="b2" class="sense" hclass="sense" htag="li" id="trial_sng_2" ox3000="y" sensenum="2"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;div class="symbols" hclass="symbols" htag="div"&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/oxford3000-5000?dataset=english&amp;amp;list=ox3000&amp;amp;level=b2"&gt;&lt;span class="ox3ksym_b2"&gt; &lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;/span&gt; &lt;span class="grammar" hclass="grammar" htag="span"&gt;[countable, uncountable]&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;the process of testing the ability, quality or performance of somebody/something, especially before you make a final decision about them&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;a &lt;span class="cl"&gt;field/randomized/controlled trial&lt;/span&gt;&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;Australia and the US have &lt;span class="cl"&gt;conducted&lt;/span&gt; joint &lt;span class="cl"&gt;trials&lt;/span&gt; of the drone. &lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;She agreed to employ me for &lt;span class="cl"&gt;a trial period&lt;/span&gt;.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt; &lt;span class="cf" hclass="cf" htag="span"&gt;on trial&lt;/span&gt; &lt;span class="x"&gt;We had the machine on trial for a week.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;The system was introduced &lt;span class="cl"&gt;on a trial basis&lt;/span&gt; for one month.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;a trial separation &lt;span class="gloss" hclass="gloss" htag="span"&gt;(= of a couple whose marriage is in difficulties)&lt;/span&gt;&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;a trial of strength &lt;span class="gloss" hclass="gloss" htag="span"&gt;(= a contest to see who is stronger)&lt;/span&gt;&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;span class="xrefs" hclass="xrefs" htag="span" xt="see"&gt;&lt;span class="prefix"&gt;see also&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/clinical-trial" title="clinical trial definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="clinicaltrial_e"&gt;&lt;span class="xh"&gt;clinical trial&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="trial2_unbox_7" unbox="colloc"&gt;&lt;span class="box_title"&gt;Collocations &lt;span class="closed"&gt;Scientific research&lt;/span&gt;&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="unbox"&gt;Scientific research&lt;/span&gt;&lt;span class="unbox"&gt;Theory&lt;/span&gt;&lt;ul class="bullet"&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;formulate/​advance&lt;/span&gt; a theory/​hypothesis&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;build/​construct/​create/​develop&lt;/span&gt; a simple/​theoretical/​mathematical model&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;develop/​establish/​provide/​use&lt;/span&gt; a theoretical/​conceptual framework&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;advance/​argue/​develop&lt;/span&gt; the thesis that…&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;explore&lt;/span&gt; an idea/​a concept/​a hypothesis&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;make&lt;/span&gt; a prediction/​an inference&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;base&lt;/span&gt; a prediction/​your calculations on something&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;investigate/​evaluate/​accept/​challenge/​reject&lt;/span&gt; a theory/​hypothesis/​model&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;Experiment&lt;/span&gt;&lt;ul class="bullet"&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;design&lt;/span&gt; an experiment/​a questionnaire/​a study/​a test&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;do &lt;/span&gt;research/​an experiment/​an analysis&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;make&lt;/span&gt; observations/​measurements/​calculations&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;carry out/​conduct/​perform&lt;/span&gt; an experiment/​a test/​a longitudinal study/​observations/​clinical trials&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;run&lt;/span&gt; an experiment/​a simulation/​clinical trials&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;repeat &lt;/span&gt;an experiment/​a test/​an analysis&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;replicate&lt;/span&gt; a study/​the results/​the findings&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;observe/​study/​examine/​investigate/​assess&lt;/span&gt; a pattern/​a process/​a behaviour&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;fund/​support&lt;/span&gt; the research/​project/​study&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;seek/​provide/​get/​secure&lt;/span&gt; funding for research&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;Results&lt;/span&gt;&lt;ul class="bullet"&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;collect/​gather/​extract&lt;/span&gt; data/​information&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;yield&lt;/span&gt; data/​evidence/​similar findings/​the same results&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;analyse/​examine&lt;/span&gt; the data/​soil samples/​a specimen&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;consider/​compare/​interpret&lt;/span&gt; the results/​findings&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;fit&lt;/span&gt; the data/​model&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;confirm/​support/​verify&lt;/span&gt; a prediction/​a hypothesis/​the results/​the findings&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;prove&lt;/span&gt; a conjecture/​hypothesis/​theorem&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;draw/​make/​reach&lt;/span&gt; the same conclusions&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;read/​review&lt;/span&gt; the records/​literature&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;describe/​report&lt;/span&gt; an experiment/​a study&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;present/​publish/​summarize&lt;/span&gt; the results/​findings&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;present/​publish/​read/​review/​cite&lt;/span&gt; a paper in a scientific journal&lt;/li&gt;&lt;/ul&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="trial2_unbox_8" unbox="extra_examples"&gt;&lt;span class="box_title"&gt;Extra Examples&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;A new stocktaking system is currently under trial at the supermarket.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;There's a 30-day free trial of the software available.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;Human trials of the vaccine could begin within two years.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;The trial showed a dramatic reduction in side effects.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;a trial involving hundreds of patients&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;Scientists have reported encouraging results in trials of the new GM rice.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/span&gt;&lt;/div&gt;&lt;span class="topic-g"&gt;&lt;span class="prefix"&gt;Topics &lt;/span&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/topic/scientific-research?level=b2" title="Topic scientific-research"&gt;&lt;span class="topic" href="l2:science_and_technology:scientific_research?cefr=b2"&gt;&lt;span class="topic_name"&gt;Scientific research&lt;/span&gt;&lt;span class="topic_cefr"&gt;b2&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="trial2_unbox_9" unbox="snippet"&gt;&lt;span class="box_title"&gt;Oxford Collocations Dictionary&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="unbox"&gt;adjective&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;clinical&lt;/li&gt;&lt;li class="li"&gt;experimental&lt;/li&gt;&lt;li class="li"&gt;field&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;verb + trial&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;carry out&lt;/li&gt;&lt;li class="li"&gt;conduct&lt;/li&gt;&lt;li class="li"&gt;do&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;trial + verb&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;demonstrate something&lt;/li&gt;&lt;li class="li"&gt;show something&lt;/li&gt;&lt;li class="li"&gt;find something&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;trial + noun&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;period&lt;/li&gt;&lt;li class="li"&gt;run&lt;/li&gt;&lt;li class="li"&gt;data&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;preposition&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;on trial&lt;/li&gt;&lt;li class="li"&gt;under trial&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;phrases&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;on a trial basis&lt;/li&gt;&lt;li class="li"&gt;trial by fire&lt;/li&gt;&lt;li class="li"&gt;trial and error&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="xref_to_full_entry"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/collocations/trial" title=" definition in Collocations "&gt;full entry&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;div class="am-entry_long" id="ad_contentslot_1"&gt;&lt;script type="text/javascript"&gt;iaw.cmd.push(function() { iaw.display('ad_contentslot_1'); });&lt;/script&gt;&lt;/div&gt;&lt;/li&gt;&lt;/span&gt;&lt;span class="shcut-g" id="trial_sngs_3"&gt; &lt;h2 class="shcut" hclass="shcut" htag="h2" id="trial_shcut_3"&gt;in sport&lt;/h2&gt;&lt;li class="sense" hclass="sense" htag="li" id="trial_sng_3" sensenum="3"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="grammar" hclass="grammar" htag="span"&gt;[countable, usually plural]&lt;/span&gt;&lt;/span&gt; &lt;div class="variants" hclass="variants" htag="div" type="vf"&gt;(&lt;span class="v-g"&gt;&lt;span class="labels" hclass="labels" htag="span"&gt;North American English also&lt;/span&gt; &lt;span class="v"&gt;tryout&lt;/span&gt;&lt;/span&gt;)&lt;/div&gt; &lt;span class="def" hclass="def" htag="span"&gt;a competition or series of tests to find the best players for a sports team or an important event&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;Olympic trials&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;span class="xrefs" hclass="xrefs" htag="span" xt="see"&gt;&lt;span class="prefix"&gt;see also&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/time-trial" title="time trial definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="timetrial_e"&gt;&lt;span class="xh"&gt;time trial&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="trial2_unbox_10" unbox="extra_examples"&gt;&lt;span class="box_title"&gt;Extra Examples&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;He had a trial with Chelsea when he was young.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;As a teenager, he had trials for several top clubs.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;She just missed selection when she came third in the trials.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;Gates played his second trial game in midfield.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/span&gt;&lt;/div&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="trial2_unbox</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>whatsoever</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>&lt;div class="oald" id="entryContent"&gt;&lt;div class="entry" hclass="entry" hlength="10" htag="section" id="whatsoever" idm_id="000067189" sk="whatsoever: :0" sum="240"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="whatsoever_topg_1"&gt;&lt;div class="webtop"&gt;&lt;h1 class="headword" hclass="headword" htag="h1" id="whatsoever_h_1" ox5000="y"&gt;whatsoever&lt;/h1&gt; &lt;span class="pos" hclass="pos" htag="span"&gt;adverb&lt;/span&gt;&lt;div class="symbols" hclass="symbols" htag="div"&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/oxford3000-5000?dataset=english&amp;amp;list=ox5000&amp;amp;level=c1"&gt;&lt;span class="ox5ksym_c1"&gt; &lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="whatsoever"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/w/wha/whats/whatsoever__gb_3.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/w/wha/whats/whatsoever__gb_3.ogg" style="cursor: pointer" title="whatsoever pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˌwɒtsəʊˈevə(r)/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="whatsoever"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/w/wha/whats/whatsoever__us_6.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/w/wha/whats/whatsoever__us_6.ogg" style="cursor: pointer" title="whatsoever pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˌwʌtsəʊˈevər/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;div class="variants" hclass="variants" htag="div" id="whatsoever_vgs_1" type="vf"&gt;(also &lt;span class="v-g" id="whatsoever_vg_1"&gt;&lt;span class="v" id="whatsoever_v_1"&gt;whatever&lt;/span&gt;&lt;/span&gt;)&lt;/div&gt;&lt;/div&gt;&lt;a class="responsive_display_inline_on_smartphone link-right" href="#relatedentries"&gt;                            jump to other results                        &lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="sense_single" htag="ol"&gt;&lt;li class="sense" fkcefr="c1" fkox5000="y" hclass="sense" htag="li" id="whatsoever_sng_1"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="cf" hclass="cf" htag="span"&gt;no, nothing, none, etc. whatsoever&lt;/span&gt;&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;not at all; not of any kind&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;They received no help whatsoever.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;‘Is there any doubt about it?’ ‘None whatsoever.’&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;/li&gt;&lt;/ol&gt;&lt;div class="pron-link"&gt;Check pronunciation:                        &lt;a href="https://www.oxfordlearnersdictionaries.com/pronunciation/english/whatsoever"&gt;whatsoever&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>butter</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>&lt;div class="oald" id="entryContent"&gt;&lt;div class="entry" hclass="entry" hlength="6" htag="section" id="butter_1" idm_id="000008160" sk="butter: :0" sum="880"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="butter_topg_2"&gt;&lt;div class="webtop"&gt;&lt;h1 class="headword" hclass="headword" htag="h1" id="butter_h_1" ox3000="y" random="y"&gt;butter&lt;/h1&gt; &lt;span class="pos" hclass="pos" htag="span"&gt;noun&lt;/span&gt;&lt;div class="symbols" hclass="symbols" htag="div"&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/oxford3000-5000?dataset=english&amp;amp;list=ox3000&amp;amp;level=a1"&gt;&lt;span class="ox3ksym_a1"&gt; &lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="butter"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/b/but/butte/butter__gb_2.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/b/but/butte/butter__gb_2.ogg" style="cursor: pointer" title="butter pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈbʌtə(r)/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="butter"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/b/but/butte/butter__us_2.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/b/but/butte/butter__us_2.ogg" style="cursor: pointer" title="butter pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈbʌtər/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;span class="grammar" hclass="grammar" htag="span"&gt;[uncountable]&lt;/span&gt;&lt;span class="jumplinks"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/butter_1#butter_idmgs_1" title="Idioms definition"&gt;&lt;span class="jumplink" href="butter_idmgs_1" name="Idioms"&gt;Idioms&lt;/span&gt;&lt;/a&gt; &lt;/span&gt;&lt;/div&gt;&lt;a class="responsive_display_inline_on_smartphone link-right" href="#relatedentries"&gt;                            jump to other results                        &lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="sense_single" htag="ol"&gt;&lt;li class="sense" fkcefr="a1" hclass="sense" htag="li" id="butter_sng_1" ox3000="y"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="def" hclass="def" htag="span"&gt;a soft yellow food made from cream, used in cooking and for spreading on bread&lt;/span&gt;&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;Fry the onions in butter.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;a pat/knob/tablespoon of butter&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt; &lt;span class="labels" hclass="labels" htag="span"&gt;(North American English)&lt;/span&gt; &lt;span class="x"&gt;a stick &lt;span class="gloss" hclass="gloss" htag="span"&gt;(= small pack)&lt;/span&gt; of butter&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;Melt the butter in a small pan, add the flour and stir well.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;Do you want butter or margarine on your toast?&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;span class="xrefs" hclass="xrefs" htag="span" xt="see"&gt;&lt;span class="prefix"&gt;see also&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/bread-and-butter_1" title="bread and butter definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="breadandbutter_e"&gt;&lt;span class="xh"&gt;bread and butter&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;span class="sep"&gt;,&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/peanut-butter" title="peanut butter definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="peanutbutter_e"&gt;&lt;span class="xh"&gt;peanut butter&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="butter2_unbox_1" unbox="extra_examples"&gt;&lt;span class="box_title"&gt;Extra Examples&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;Cream the butter and icing sugar together until light and fluffy.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;He put a large knob of butter on the potatoes.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;She spread butter on the roll.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;Put some butter on the crackers, please.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;Rub the butter into the flour.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;The butter melted in the heat.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;This butter doesn't spread very well.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;You can make frosting out of half a stick of butter and two cups of powdered sugar.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;courgettes sautéed in butter&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/span&gt;&lt;/div&gt;&lt;span class="topic-g"&gt;&lt;span class="prefix"&gt;Topics &lt;/span&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/topic/food?level=a1" title="Topic food"&gt;&lt;span class="topic" href="l2:food_and_drink:food?cefr=a1"&gt;&lt;span class="topic_name"&gt;Food&lt;/span&gt;&lt;span class="topic_cefr"&gt;a1&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="butter2_unbox_2" unbox="snippet"&gt;&lt;span class="box_title"&gt;Oxford Collocations Dictionary&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="unbox"&gt;adjective&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;fresh&lt;/li&gt;&lt;li class="li"&gt;creamy&lt;/li&gt;&lt;li class="li"&gt;rancid&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;… of butter&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;knob&lt;/li&gt;&lt;li class="li"&gt;pat&lt;/li&gt;&lt;li class="li"&gt;slab&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;verb + butter&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;put on&lt;/li&gt;&lt;li class="li"&gt;spread (something with)&lt;/li&gt;&lt;li class="li"&gt;heat&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;butter + verb&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;spread&lt;/li&gt;&lt;li class="li"&gt;melt&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;butter + noun&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;sauce&lt;/li&gt;&lt;li class="li"&gt;dish&lt;/li&gt;&lt;li class="li"&gt;knife&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;preposition&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;in butter&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;phrases&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;bread and butter&lt;/li&gt;&lt;/ul&gt;&lt;span class="xref_to_full_entry"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/collocations/butter_1" title=" definition in Collocations "&gt;full entry&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="butter_unbox_3" unbox="wordorigin"&gt;&lt;span class="box_title"&gt;Word Origin&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="p"&gt;Old English &lt;span class="ei"&gt;butere&lt;/span&gt;, of West Germanic origin; related to Dutch &lt;span class="ei"&gt;boter&lt;/span&gt; and German &lt;span class="ei"&gt;Butter&lt;/span&gt;, based on Latin &lt;span class="ei"&gt;butyrum&lt;/span&gt;, from Greek &lt;span class="ei"&gt;bouturon&lt;/span&gt;.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;/li&gt;&lt;/ol&gt;&lt;div class="idioms" hclass="idioms" htag="div" id="butter_idmgs_1"&gt;&lt;span class="idioms_heading"&gt;Idioms&lt;/span&gt; &lt;span class="idm-g" id="butter_idmg_1" sk="butterwouldntmelt"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="butter_topg_3"&gt;&lt;div class="webtop"&gt;&lt;span class="idm" id="butter_idm_1"&gt;butter wouldn’t melt (in somebody’s mouth)&lt;/span&gt; &lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="sense_single" htag="ol"&gt;&lt;li class="sense" hclass="sense" htag="li" id="butter_sng_2"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="labels" hclass="labels" htag="span"&gt;(informal)&lt;/span&gt;&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;used to say that somebody seems to be innocent, kind, etc. when they are not really&lt;/span&gt; &lt;div class="am-entry" id="ad_contentslot_1"&gt;&lt;script type="text/javascript"&gt;iaw.cmd.push(function() { iaw.display('ad_contentslot_1'); });&lt;/script&gt;&lt;/div&gt;&lt;/li&gt;&lt;/ol&gt;&lt;/span&gt; &lt;span class="idm-g" id="knife_idmg_6" sk="likeknifethroughbutter"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="knife_topg_4"&gt;&lt;div class="webtop"&gt;&lt;span class="idm" id="knife_idm_2"&gt;like a knife through butter&lt;/span&gt; &lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="sense_single" htag="ol"&gt;&lt;li class="sense" hclass="sense" htag="li" id="knife_sng_8"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="labels" hclass="labels" htag="span"&gt;(informal)&lt;/span&gt;&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;easily; without meeting any difficulty&lt;/span&gt; &lt;/li&gt;&lt;/ol&gt;&lt;/span&gt;&lt;/div&gt;&lt;span class="dictlink-g"&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/american_english/butter_1" title=" definition in American English "&gt;&lt;span class="xh"&gt;butter&lt;/span&gt;&lt;/a&gt; in the Oxford Advanced American Dictionary&lt;/span&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/academic/butter" title=" definition in Academic English "&gt;&lt;span class="xh"&gt;butter&lt;/span&gt;&lt;/a&gt; in the Oxford Learner's Dictionary of Academic English&lt;/span&gt;&lt;/span&gt;&lt;div class="pron-link"&gt;Check pronunciation:                        &lt;a href="https://www.oxfordlearnersdictionaries.com/pronunciation/english/butter_1"&gt;butter&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>spleen</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>&lt;div class="oald" id="entryContent"&gt;&lt;div class="entry" hclass="entry" hlength="6" htag="section" id="spleen" idm_id="000057321" sk="spleen: :0" sum="345"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="spleen_topg_1"&gt;&lt;div class="webtop"&gt;&lt;h1 class="headword" hclass="headword" htag="h1" id="spleen_h_1"&gt;spleen&lt;/h1&gt; &lt;span class="pos" hclass="pos" htag="span"&gt;noun&lt;/span&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="spleen"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/s/spl/splee/spleen__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/s/spl/splee/spleen__gb_1.ogg" style="cursor: pointer" title="spleen pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/spliːn/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="spleen"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/s/spl/splee/spleen__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/s/spl/splee/spleen__us_1.ogg" style="cursor: pointer" title="spleen pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/spliːn/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt; &lt;/div&gt;&lt;a class="responsive_display_inline_on_smartphone link-right" href="#relatedentries"&gt;                            jump to other results                        &lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="senses_multiple" htag="ol"&gt;&lt;li cefr="c2" class="sense" hclass="sense" htag="li" id="spleen_sng_1" sensenum="1"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;div id="ox-enlarge"&gt;&lt;a class="topic" href="https://www.oxfordlearnersdictionaries.com/media/english/fullsize/i/int/inter/internal_organs.png" title=""&gt;&lt;img alt="" border="1" class="thumb" src="https://www.oxfordlearnersdictionaries.com/media/english/thumb/i/int/inter/internal_organs.png" title=""/&gt;&lt;span class="ox-enlarge-label"&gt;enlarge image&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;span class="grammar" hclass="grammar" htag="span"&gt;[countable]&lt;/span&gt;&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;a small organ near the stomach that controls the quality of the blood cells&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;a ruptured spleen&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="topic-g"&gt;&lt;span class="prefix"&gt;Topics &lt;/span&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/topic/body?level=c2" title="Topic body"&gt;&lt;span class="topic" href="l2:appearance:body?cefr=c2"&gt;&lt;span class="topic_name"&gt;Body&lt;/span&gt;&lt;span class="topic_cefr"&gt;c2&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; &lt;/li&gt;&lt;li class="sense" hclass="sense" htag="li" id="spleen_sng_2" sensenum="2"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="grammar" hclass="grammar" htag="span"&gt;[uncountable]&lt;/span&gt;&lt;/span&gt; &lt;span class="labels" hclass="labels" htag="span"&gt;(literary)&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;anger&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;He &lt;span class="cl"&gt;vented his spleen&lt;/span&gt; &lt;span class="gloss" hclass="gloss" htag="span"&gt;(= shouted in an angry way)&lt;/span&gt; on the assembled crowd.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;span class="xrefs" hclass="xrefs" htag="span" xt="see"&gt;&lt;span class="prefix"&gt;see also&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/splenetic" title="splenetic definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="splenetic_e"&gt;&lt;span class="xh"&gt;splenetic&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; &lt;/li&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="spleen_unbox_1" unbox="wordorigin"&gt;&lt;span class="box_title"&gt;Word Origin&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="p"&gt;Middle English: shortening of Old French &lt;span class="ei"&gt;esplen&lt;/span&gt;, via Latin from Greek &lt;span class="ei"&gt;splēn&lt;/span&gt;; sense (2) derives from the earlier belief that the spleen was the seat of bad temper.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;/ol&gt;&lt;span class="dictlink-g"&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/american_english/spleen" title=" definition in American English "&gt;&lt;span class="xh"&gt;spleen&lt;/span&gt;&lt;/a&gt; in the Oxford Advanced American Dictionary&lt;/span&gt;&lt;/span&gt;&lt;div class="pron-link"&gt;Check pronunciation:                        &lt;a href="https://www.oxfordlearnersdictionaries.com/pronunciation/english/spleen"&gt;spleen&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>regulate</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>&lt;div class="oald" id="entryContent"&gt;&lt;div class="entry" hclass="entry" hlength="8" htag="section" id="regulate" idm_id="000049839" sk="regulate: :0" sum="769"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="regulate_topg_1"&gt;&lt;div class="webtop"&gt;&lt;h1 academic="y" class="headword" hclass="headword" htag="h1" id="regulate_h_1" ox5000="y"&gt;regulate&lt;/h1&gt; &lt;span class="pos" hclass="pos" htag="span"&gt;verb&lt;/span&gt;&lt;div class="symbols" hclass="symbols" htag="div"&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/oxford3000-5000?dataset=english&amp;amp;list=ox5000&amp;amp;level=b2"&gt;&lt;span class="ox5ksym_b2"&gt; &lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="regulate"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/r/reg/regul/regulate__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/r/reg/regul/regulate__gb_1.ogg" style="cursor: pointer" title="regulate pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈreɡjuleɪt/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="regulate"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/r/reg/regul/regulate__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/r/reg/regul/regulate__us_1.ogg" style="cursor: pointer" title="regulate pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈreɡjuleɪt/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="regulate_unbox_1" unbox="verbforms"&gt;&lt;span class="box_title"&gt;Verb Forms&lt;/span&gt;&lt;span class="body"&gt;&lt;table class="verb_forms_table"&gt;&lt;tr class="verb_form" form="root"&gt;&lt;td class="verb_form"&gt; &lt;span class="vf_prefix"&gt;present simple I / you / we / they&lt;/span&gt; regulate&lt;/td&gt;&lt;td class="verb_phons"&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="regulate"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/r/reg/regul/regulate__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/r/reg/regul/regulate__gb_1.ogg" style="cursor: pointer" title="regulate pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈreɡjuleɪt/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="regulate"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/r/reg/regul/regulate__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/r/reg/regul/regulate__us_1.ogg" style="cursor: pointer" title="regulate pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈreɡjuleɪt/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr class="verb_form" form="thirdps"&gt;&lt;td class="verb_form"&gt; &lt;span class="vf_prefix"&gt;he / she / it&lt;/span&gt; regulates&lt;/td&gt;&lt;td class="verb_phons"&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="regulates"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/r/reg/regul/regulates__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/r/reg/regul/regulates__gb_1.ogg" style="cursor: pointer" title="regulates pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈreɡjuleɪts/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="regulates"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/r/reg/regul/regulates__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/r/reg/regul/regulates__us_1.ogg" style="cursor: pointer" title="regulates pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈreɡjuleɪts/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr class="verb_form" form="past"&gt;&lt;td class="verb_form"&gt; &lt;span class="vf_prefix"&gt;past simple&lt;/span&gt; regulated&lt;/td&gt;&lt;td class="verb_phons"&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="regulated"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/r/reg/regul/regulated__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/r/reg/regul/regulated__gb_1.ogg" style="cursor: pointer" title="regulated pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈreɡjuleɪtɪd/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="regulated"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/r/reg/regul/regulated__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/r/reg/regul/regulated__us_1.ogg" style="cursor: pointer" title="regulated pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈreɡjuleɪtɪd/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr class="verb_form" form="pastpart"&gt;&lt;td class="verb_form"&gt; &lt;span class="vf_prefix"&gt;past participle&lt;/span&gt; regulated&lt;/td&gt;&lt;td class="verb_phons"&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="regulated"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/r/reg/regul/regulated__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/r/reg/regul/regulated__gb_1.ogg" style="cursor: pointer" title="regulated pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈreɡjuleɪtɪd/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="regulated"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/r/reg/regul/regulated__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/r/reg/regul/regulated__us_1.ogg" style="cursor: pointer" title="regulated pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈreɡjuleɪtɪd/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr class="verb_form" form="prespart"&gt;&lt;td class="verb_form"&gt; &lt;span class="vf_prefix"&gt;-ing form&lt;/span&gt; regulating&lt;/td&gt;&lt;td class="verb_phons"&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="regulating"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/r/reg/regul/regulating__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/r/reg/regul/regulating__gb_1.ogg" style="cursor: pointer" title="regulating pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈreɡjuleɪtɪŋ/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="regulating"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/r/reg/regul/regulating__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/r/reg/regul/regulating__us_1.ogg" style="cursor: pointer" title="regulating pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈreɡjuleɪtɪŋ/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;a class="responsive_display_inline_on_smartphone link-right" href="#relatedentries"&gt;                            jump to other results                        &lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="senses_multiple" htag="ol"&gt;&lt;li cefr="b2" class="sense" hclass="sense" htag="li" id="regulate_sng_1" ox5000="y" sensenum="1"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;div class="symbols" hclass="symbols" htag="div"&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/oxford3000-5000?dataset=english&amp;amp;list=ox5000&amp;amp;level=b2"&gt;&lt;span class="ox5ksym_b2"&gt; &lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;/span&gt;&lt;span class="grammar" hclass="grammar" htag="span"&gt;[transitive, intransitive]&lt;/span&gt; &lt;span class="cf" hclass="cf" htag="span"&gt;regulate (something)&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;to control something by means of rules&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;The department is responsible for regulating the insurance industry.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;The activities of credit companies are regulated by law.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;The government accepts whaling in principle as long as it is carefully regulated.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;It is up to the regulating authority to put the measures into effect.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="regulate_unbox_2" unbox="extra_examples"&gt;&lt;span class="box_title"&gt;Extra Examples&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;Tobacco is a federally regulated product.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;a code of conduct intended to regulate press reporting on the royal family&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;a highly regulated economy&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;The Council was set up to regulate the fishing industry.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;The trade in these animals is highly regulated.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;There have been several unsuccessful attempts to regulate working conditions.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/span&gt;&lt;/div&gt;&lt;span class="topic-g"&gt;&lt;span class="prefix"&gt;Topics &lt;/span&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/topic/permission-and-obligation?level=b2" title="Topic permission-and-obligation"&gt;&lt;span class="topic" href="l2:functions:permission_and_obligation?cefr=b2"&gt;&lt;span class="topic_name"&gt;Permission and obligation&lt;/span&gt;&lt;span class="topic_cefr"&gt;b2&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="regulate_unbox_3" unbox="snippet"&gt;&lt;span class="box_title"&gt;Oxford Collocations Dictionary&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="unbox"&gt;adverb&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;closely&lt;/li&gt;&lt;li class="li"&gt;heavily&lt;/li&gt;&lt;li class="li"&gt;strictly&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;verb + regulate&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;attempt to&lt;/li&gt;&lt;li class="li"&gt;seek to&lt;/li&gt;&lt;li class="li"&gt;be designed to&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;phrases&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;an attempt to regulate something&lt;/li&gt;&lt;li class="li"&gt;regulated by law&lt;/li&gt;&lt;li class="li"&gt;regulated by statute&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="xref_to_full_entry"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/collocations/regulate" title=" definition in Collocations "&gt;full entry&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;/li&gt;&lt;li cefr="b2" class="sense" hclass="sense" htag="li" id="regulate_sng_2" ox5000="y" sensenum="2"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;div class="symbols" hclass="symbols" htag="div"&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/oxford3000-5000?dataset=english&amp;amp;list=ox5000&amp;amp;level=b2"&gt;&lt;span class="ox5ksym_b2"&gt; &lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;/span&gt;&lt;span class="grammar" hclass="grammar" htag="span"&gt;[transitive]&lt;/span&gt; &lt;span class="cf" hclass="cf" htag="span"&gt;regulate something&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;to control the speed, pressure, temperature, etc. in a machine or system&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;This valve regulates the flow of water.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;/li&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="regulate_unbox_1" unbox="wordorigin"&gt;&lt;span class="box_title"&gt;Word Origin&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="p"&gt;late Middle English (in the sense ‘control by rules’): from late Latin &lt;span class="ei"&gt;regulat-&lt;/span&gt; ‘directed, regulated’, from the verb &lt;span class="ei"&gt;regulare&lt;/span&gt;, from Latin &lt;span class="ei"&gt;regula&lt;/span&gt; ‘rule’.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;/ol&gt;&lt;span class="dictlink-g"&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/american_english/regulate" title=" definition in American English "&gt;&lt;span class="xh"&gt;regulate&lt;/span&gt;&lt;/a&gt; in the Oxford Advanced American Dictionary&lt;/span&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/academic/regulate" title=" definition in Academic English "&gt;&lt;span class="xh"&gt;regulate&lt;/span&gt;&lt;/a&gt; in the Oxford Learner's Dictionary of Academic English&lt;/span&gt;&lt;/span&gt;&lt;div class="pron-link"&gt;Check pronunciation:                        &lt;a href="https://www.oxfordlearnersdictionaries.com/pronunciation/english/regulate"&gt;regulate&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>methodically</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>&lt;div class="oald" id="entryContent"&gt;&lt;div class="entry" hclass="entry" hlength="12" htag="section" id="methodically" idm_id="000037791" sk="methodically: :0" sum="157"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="methodically_topg_1"&gt;&lt;div class="webtop"&gt;&lt;h1 class="headword" hclass="headword" htag="h1" id="methodically_h_1"&gt;methodically&lt;/h1&gt; &lt;span class="pos" hclass="pos" htag="span"&gt;adverb&lt;/span&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="methodically"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/m/met/metho/methodically__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/m/met/metho/methodically__gb_1.ogg" style="cursor: pointer" title="methodically pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/məˈθɒdɪkli/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="methodically"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/m/met/metho/methodically__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/m/met/metho/methodically__us_1.ogg" style="cursor: pointer" title="methodically pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/məˈθɑːdɪkli/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;/div&gt;&lt;a class="responsive_display_inline_on_smartphone link-right" href="#relatedentries"&gt;                            jump to other results                        &lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="sense_single" htag="ol"&gt;&lt;li class="sense" hclass="sense" htag="li" id="methodically_sng_1"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="def" hclass="def" htag="span"&gt;in a careful and logical way&lt;/span&gt;&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;They sorted slowly and methodically through the papers.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;/li&gt;&lt;/ol&gt;&lt;div class="pron-link"&gt;Check pronunciation:                        &lt;a href="https://www.oxfordlearnersdictionaries.com/pronunciation/english/methodically"&gt;methodically&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>plaster</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>&lt;div class="oald" id="entryContent"&gt;&lt;div class="entry" hclass="entry" hlength="7" htag="section" id="plaster_1" idm_id="000045520" sk="plaster: :0" sum="1147"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="plaster_topg_2"&gt;&lt;div class="webtop"&gt;&lt;h1 class="headword" hclass="headword" htag="h1" id="plaster_h_1"&gt;plaster&lt;/h1&gt; &lt;span class="pos" hclass="pos" htag="span"&gt;noun&lt;/span&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="plaster"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/p/pla/plast/plaster__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/p/pla/plast/plaster__gb_1.ogg" style="cursor: pointer" title="plaster pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈplɑːstə(r)/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="plaster"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/p/pla/plast/plaster__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/p/pla/plast/plaster__us_1.ogg" style="cursor: pointer" title="plaster pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈplæstər/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt; &lt;/div&gt;&lt;a class="responsive_display_inline_on_smartphone link-right" href="#relatedentries"&gt;                            jump to other results                        &lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="senses_multiple" htag="ol"&gt;&lt;li cefr="c2" class="sense" hclass="sense" htag="li" id="plaster_sng_1" sensenum="1"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="grammar" hclass="grammar" htag="span"&gt;[uncountable]&lt;/span&gt;&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;a substance made of &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/lime_1" title="lime definition"&gt;&lt;span class="ndv"&gt;lime&lt;/span&gt;&lt;/a&gt;, water and sand, that is put on walls and ceilings to give them a smooth hard surface&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;an old house with crumbling plaster and a leaking roof&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="plaster2_unbox_1" unbox="wordfinder"&gt;&lt;span class="box_title"&gt;Wordfinder&lt;/span&gt;&lt;span class="body"&gt;&lt;ul class="bullet"&gt;&lt;li class="li"&gt;&lt;span class="xref" href="cement_subentryg_1:cement_topg_2" tofix=""&gt;cement&lt;/span&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/construction#construction_sng_1" title="construction definition"&gt;&lt;span class="xref"&gt;construction&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/foundation#foundation_sng_1" title="foundation definition"&gt;&lt;span class="xref"&gt;foundation&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/girder" title="girder definition"&gt;&lt;span class="xref"&gt;girder&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/joist" title="joist definition"&gt;&lt;span class="xref"&gt;joist&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/masonry" title="masonry definition"&gt;&lt;span class="xref"&gt;masonry&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/plaster_1#plaster_sng_1" title="plaster definition"&gt;&lt;span class="xref"&gt;plaster&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/rubble" title="rubble definition"&gt;&lt;span class="xref"&gt;rubble&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/scaffolding" title="scaffolding definition"&gt;&lt;span class="xref"&gt;scaffolding&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/site_1#site_sng_1" title="site definition"&gt;&lt;span class="xref"&gt;site&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="plaster2_unbox_2" unbox="extra_examples"&gt;&lt;span class="box_title"&gt;Extra Examples&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;Apply the plaster evenly.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;Each blow of the hammer removed a great chunk of plaster.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;Plaster was peeling off the ceiling.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/span&gt;&lt;/div&gt;&lt;span class="topic-g"&gt;&lt;span class="prefix"&gt;Topics &lt;/span&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/topic/buildings?level=c2" title="Topic buildings"&gt;&lt;span class="topic" href="l2:homes_and_buildings:buildings?cefr=c2"&gt;&lt;span class="topic_name"&gt;Buildings&lt;/span&gt;&lt;span class="topic_cefr"&gt;c2&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="plaster2_unbox_3" unbox="snippet"&gt;&lt;span class="box_title"&gt;Oxford Collocations Dictionary&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="unbox"&gt;adjective&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;fresh&lt;/li&gt;&lt;li class="li"&gt;cracked&lt;/li&gt;&lt;li class="li"&gt;crumbling&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;… of plaster&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;chunk&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;verb + plaster&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;apply&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;plaster + verb&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;come off (something)&lt;/li&gt;&lt;li class="li"&gt;fall off (something)&lt;/li&gt;&lt;li class="li"&gt;peel off (something)&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;plaster + noun&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;cast&lt;/li&gt;&lt;li class="li"&gt;wall&lt;/li&gt;&lt;/ul&gt;&lt;span class="xref_to_full_entry"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/collocations/plaster_1" title=" definition in Collocations "&gt;full entry&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;/li&gt;&lt;li class="sense" hclass="sense" htag="li" id="plaster_sng_2" sensenum="2"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;div class="variants" hclass="variants" htag="div" type="vf"&gt;(also &lt;span class="v-g"&gt;&lt;span class="labels" hclass="labels" htag="span"&gt;less frequent&lt;/span&gt; &lt;span class="v"&gt;plaster of Paris&lt;/span&gt;&lt;/span&gt;)&lt;/div&gt;&lt;/span&gt; &lt;span class="grammar" hclass="grammar" htag="span"&gt;[uncountable]&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;a white powder that is mixed with water and becomes very hard when it dries, used especially for making copies of statues or holding broken bones in place&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;a plaster bust of Julius Caesar&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt; &lt;span class="cf" hclass="cf" htag="span"&gt;in plaster&lt;/span&gt; &lt;span class="labels" hclass="labels" htag="span"&gt;(British English)&lt;/span&gt; &lt;span class="x"&gt;She broke her leg a month ago and it's still in plaster.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;Your arm will have to be in plaster for at least six weeks.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="plaster2_unbox_4" unbox="snippet"&gt;&lt;span class="box_title"&gt;Oxford Collocations Dictionary&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="unbox"&gt;plaster + noun&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;cast&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;preposition&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;in plaster&lt;/li&gt;&lt;/ul&gt;&lt;span class="xref_to_full_entry"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/collocations/plaster_1" title=" definition in Collocations "&gt;full entry&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;div class="am-entry" id="ad_contentslot_1"&gt;&lt;script type="text/javascript"&gt;iaw.cmd.push(function() { iaw.display('ad_contentslot_1'); });&lt;/script&gt;&lt;/div&gt;&lt;/li&gt;&lt;li cefr="b2" class="sense" hclass="sense" htag="li" id="plaster_sng_3" sensenum="3"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;div class="variants" hclass="variants" htag="div" type="vf"&gt;(also &lt;span class="v-g"&gt;&lt;span class="v"&gt;sticking plaster&lt;/span&gt;&lt;/span&gt;)&lt;/div&gt;&lt;/span&gt; &lt;span class="labels" hclass="labels" htag="span"&gt;(both British English)&lt;/span&gt; &lt;div class="variants" hclass="variants" htag="div" type="vf"&gt;(also &lt;span class="v-g"&gt;&lt;span class="v"&gt;Band-Aid™&lt;/span&gt; &lt;span class="labels" hclass="labels" htag="span"&gt;North American English, British English&lt;/span&gt;&lt;/span&gt;)&lt;/div&gt; &lt;span class="grammar" hclass="grammar" htag="span"&gt;[countable, uncountable]&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;a piece of material that can be stuck to the skin to protect a small wound or cut; this material&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;Have you got any plasters? I've cut my finger.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;Cut off a small piece of plaster.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="plaster2_unbox_5" unbox="wordfinder"&gt;&lt;span class="box_title"&gt;Wordfinder&lt;/span&gt;&lt;span class="body"&gt;&lt;ul class="bullet"&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/bandage_1" title="bandage definition"&gt;&lt;span class="xref"&gt;bandage&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/bleed#bleed_sng_1" title="bleed definition"&gt;&lt;span class="xref"&gt;bleed&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/bruise_2#bruise_sng_1" title="bruise definition"&gt;&lt;span class="xref"&gt;bruise&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/fracture_1" title="fracture definition"&gt;&lt;span class="xref"&gt;fracture&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/hurt_1#hurt_sng_1" title="hurt definition"&gt;&lt;span class="xref"&gt;hurt&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="xref" href="injury_unbox_1" tofix=""&gt;injury&lt;/span&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/plaster_1#plaster_sng_3" title="plaster definition"&gt;&lt;span class="xref"&gt;plaster&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/sore_1" title="sore definition"&gt;&lt;span class="xref"&gt;sore&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/swell_1#swell_sng_1" title="swell definition"&gt;&lt;span class="xref"&gt;swell&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/wound1_1" title="wound definition"&gt;&lt;span class="xref"&gt;wound&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="plaster2_unbox_6" unbox="colloc"&gt;&lt;span class="box_title"&gt;Collocations &lt;span class="closed"&gt;Injuries&lt;/span&gt;&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="unbox"&gt;Injuries&lt;/span&gt;&lt;span class="unbox"&gt;Being injured&lt;/span&gt;&lt;ul class="bullet"&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;have&lt;/span&gt; a fall/​an injury&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;receive/​suffer/​sustain&lt;/span&gt; a serious injury/​a hairline fracture/&lt;span class="labels" hclass="labels" htag="span"&gt;(especially British English)&lt;/span&gt; whiplash/​a gunshot wound&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;hurt/​injure&lt;/span&gt; your ankle/​back/​leg&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;damage&lt;/span&gt; the brain/​an ankle ligament/​your liver/​the optic nerve/​the skin&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;pull/​strain/​tear&lt;/span&gt; a hamstring/​ligament/​muscle/​tendon&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;sprain/​twist&lt;/span&gt; your ankle/​wrist&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;break&lt;/span&gt; a bone/​your collarbone/​your leg/​three ribs&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;fracture/​crack&lt;/span&gt; your skull&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;break/​chip/​knock out/​lose&lt;/span&gt; a tooth&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;burst/​perforate&lt;/span&gt; your eardrum&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;dislocate&lt;/span&gt; your finger/​hip/​jaw/​shoulder&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;bruise/​cut/​graze&lt;/span&gt; your arm/​knee/​shoulder&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;burn/​scald&lt;/span&gt; yourself/​your tongue&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;bang/​bump/​hit/&lt;/span&gt; &lt;span class="labels" hclass="labels" htag="span"&gt;(informal)&lt;/span&gt; &lt;span class="eb"&gt;bash&lt;/span&gt; your elbow/​head/​knee (on/​against something)&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;Treating injuries&lt;/span&gt;&lt;ul class="bullet"&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;treat somebody for&lt;/span&gt; burns/​a head injury/​a stab wound&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;examine/​clean/​dress/​bandage/​treat&lt;/span&gt; a bullet wound&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;repair&lt;/span&gt; a damaged/​torn ligament/​tendon/​cartilage&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;amputate/​cut off&lt;/span&gt; an arm/​a finger/​a foot/​a leg/​a limb&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;put on/&lt;/span&gt; &lt;span class="labels" hclass="labels" htag="span"&gt;(formal)&lt;/span&gt; &lt;span class="eb"&gt;apply/​take off&lt;/span&gt; &lt;span class="labels" hclass="labels" htag="span"&gt;(especially North American English)&lt;/span&gt; a Band-Aid™/&lt;span class="labels" hclass="labels" htag="span"&gt;(British English)&lt;/span&gt; a plaster/​a bandage&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;need/​require/​put in/&lt;/span&gt; &lt;span class="labels" hclass="labels" htag="span"&gt;(especially British English)&lt;/span&gt; &lt;span class="eb"&gt;have (out)/&lt;/span&gt; &lt;span class="labels" hclass="labels" htag="span"&gt;(North American English)&lt;/span&gt; &lt;span class="eb"&gt;get (out)&lt;/span&gt; stitches&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;put on/​rub on/&lt;/span&gt; &lt;span class="labels" hclass="labels" htag="span"&gt;(formal)&lt;/span&gt; &lt;span class="eb"&gt;apply&lt;/span&gt; cream/​ointment/​lotion&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="eb"&gt;have/​receive/​undergo&lt;/span&gt; &lt;span class="labels" hclass="labels" htag="span"&gt;(British English)&lt;/span&gt; physiotherapy/&lt;span class="labels" hclass="labels" htag="span"&gt;(North American English)&lt;/span&gt; physical therapy&lt;/li&gt;&lt;/ul&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;span class="topic-g"&gt;&lt;span class="prefix"&gt;Topics &lt;/span&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/topic/healthcare?level=b2" title="Topic healthcare"&gt;&lt;span class="topic" href="l2:health:healthcare?cefr=b2"&gt;&lt;span class="topic_name"&gt;Healthcare&lt;/span&gt;&lt;span class="topic_cefr"&gt;b2&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="plaster2_unbox_7" unbox="snippet"&gt;&lt;span class="box_title"&gt;Oxford Collocations Dictionary&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="unbox"&gt;adjective&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;sticking&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;verb + plaster&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;put on&lt;/li&gt;&lt;li class="li"&gt;peel off&lt;/li&gt;&lt;li class="li"&gt;take off&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="xref_to_full_entry"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/collocations/plaster_1" title=" definition in Collocations "&gt;full entry&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;/li&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="plaster2_unbox_8" unbox="wordorigin"&gt;&lt;span class="box_title"&gt;Word Origin&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="p"&gt;Old English, denoting a bandage spread with a curative substance, from medieval Latin &lt;span class="ei"&gt;plastrum&lt;/span&gt; (shortening of Latin &lt;span class="ei"&gt;emplastrum&lt;/span&gt;, from Greek &lt;span class="ei"&gt;emplastron&lt;/span&gt; ‘daub, salve’), later reinforced by the Old French noun &lt;span class="ei"&gt;plastre&lt;/span&gt;. Senses 1 and 2 date from late Middle English.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;/ol&gt;&lt;span class="dictlink-g"&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/american_english/plaster_1" title=" definition in American English "&gt;&lt;span class="xh"&gt;plaster&lt;/span&gt;&lt;/a&gt; in the Oxford Advanced American Dictionary&lt;/span&gt;&lt;/span&gt;&lt;div class="pron-link"&gt;Check pronunciation:                        &lt;a href="https://www.oxfordlearnersdictionaries.com/pronunciation/english/plaster_1"&gt;plaster&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>virtue</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>&lt;div class="oald" id="entryContent"&gt;&lt;div class="entry" hclass="entry" hlength="6" htag="section" id="virtue" idm_id="000065897" sk="virtue: :0" sum="1834"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="virtue_topg_1"&gt;&lt;div class="webtop"&gt;&lt;h1 class="headword" hclass="headword" htag="h1" id="virtue_h_1" ox5000="y"&gt;virtue&lt;/h1&gt; &lt;span class="pos" hclass="pos" htag="span"&gt;noun&lt;/span&gt;&lt;div class="symbols" hclass="symbols" htag="div"&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/oxford3000-5000?dataset=english&amp;amp;list=ox5000&amp;amp;level=c1"&gt;&lt;span class="ox5ksym_c1"&gt; &lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="virtue"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/v/vir/virtu/virtue__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/v/vir/virtu/virtue__gb_1.ogg" style="cursor: pointer" title="virtue pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈvɜːtʃuː/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="virtue"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/v/vir/virtu/virtue__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/v/vir/virtu/virtue__us_1.ogg" style="cursor: pointer" title="virtue pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈvɜːrtʃuː/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;span class="jumplinks"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/virtue#virtue_idmgs_1" title="Idioms definition"&gt;&lt;span class="jumplink" href="virtue_idmgs_1" name="Idioms"&gt;Idioms&lt;/span&gt;&lt;/a&gt; &lt;/span&gt;&lt;/div&gt;&lt;a class="responsive_display_inline_on_smartphone link-right" href="#relatedentries"&gt;                            jump to other results                        &lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="senses_multiple" htag="ol"&gt;&lt;li cefr="c1" class="sense" hclass="sense" htag="li" id="virtue_sng_1" ox5000="y" sensenum="1"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;div class="symbols" hclass="symbols" htag="div"&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/oxford3000-5000?dataset=english&amp;amp;list=ox5000&amp;amp;level=c1"&gt;&lt;span class="ox5ksym_c1"&gt; &lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;/span&gt;&lt;span class="grammar" hclass="grammar" htag="span"&gt;[uncountable]&lt;/span&gt; &lt;span class="labels" hclass="labels" htag="span"&gt;(formal)&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;behaviour or attitudes that show high moral standards&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;He led a life of virtue.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;She was certainly no &lt;span class="cl"&gt;paragon of virtue&lt;/span&gt; &lt;span class="gloss" hclass="gloss" htag="span"&gt;(= her moral standards were very far from perfect)&lt;/span&gt;.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="virtue_unbox_1" unbox="extra_examples"&gt;&lt;span class="box_title"&gt;Extra Examples&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;It would have taken a paragon of virtue not to feel jealous.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;She was seen as a paragon of domestic virtue.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;She led a life of moral virtue.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/span&gt;&lt;/div&gt;&lt;span class="topic-g"&gt;&lt;span class="prefix"&gt;Topics &lt;/span&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/topic/personal-qualities?level=c1" title="Topic personal-qualities"&gt;&lt;span class="topic" href="l2:people:personal_qualities?cefr=c1"&gt;&lt;span class="topic_name"&gt;Personal qualities&lt;/span&gt;&lt;span class="topic_cefr"&gt;c1&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="virtue_unbox_2" unbox="snippet"&gt;&lt;span class="box_title"&gt;Oxford Collocations Dictionary&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="unbox"&gt;adjective&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;cardinal&lt;/li&gt;&lt;li class="li"&gt;great&lt;/li&gt;&lt;li class="li"&gt;important&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;verb + virtue&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;have&lt;/li&gt;&lt;li class="li"&gt;possess&lt;/li&gt;&lt;li class="li"&gt;embody&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;phrases&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;make a virtue of necessity&lt;/li&gt;&lt;li class="li"&gt;a paragon of virtue&lt;/li&gt;&lt;/ul&gt;&lt;span class="xref_to_full_entry"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/collocations/virtue" title=" definition in Collocations "&gt;full entry&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;/li&gt;&lt;li cefr="c1" class="sense" hclass="sense" htag="li" id="virtue_sng_2" ox5000="y" sensenum="2"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;div class="symbols" hclass="symbols" htag="div"&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/oxford3000-5000?dataset=english&amp;amp;list=ox5000&amp;amp;level=c1"&gt;&lt;span class="ox5ksym_c1"&gt; &lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;/span&gt;&lt;span class="grammar" hclass="grammar" htag="span"&gt;[countable]&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;a particular good quality or habit&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;Patience is not one of her virtues, I'm afraid.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;As a politician, he always emphasized the virtues of compromise and conciliation.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="virtue_unbox_3" unbox="extra_examples"&gt;&lt;span class="box_title"&gt;Extra Examples&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;He taught his children to practise/​practice the virtues of temperance and chastity.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;He understands the traditional virtue of hard work.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;Philippe embodies the French virtues of charm and grace.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;He was convinced of the inherent virtue of hard work.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;She has just one, negative virtue—she never tells lies.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;the theological virtues of faith, hope and charity&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/span&gt;&lt;/div&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="virtue_unbox_4" unbox="snippet"&gt;&lt;span class="box_title"&gt;Oxford Collocations Dictionary&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="unbox"&gt;adjective&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;cardinal&lt;/li&gt;&lt;li class="li"&gt;great&lt;/li&gt;&lt;li class="li"&gt;important&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;verb + virtue&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;have&lt;/li&gt;&lt;li class="li"&gt;possess&lt;/li&gt;&lt;li class="li"&gt;embody&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;phrases&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;make a virtue of necessity&lt;/li&gt;&lt;li class="li"&gt;a paragon of virtue&lt;/li&gt;&lt;/ul&gt;&lt;span class="xref_to_full_entry"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/collocations/virtue" title=" definition in Collocations "&gt;full entry&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;div class="am-entry_long" id="ad_contentslot_1"&gt;&lt;script type="text/javascript"&gt;iaw.cmd.push(function() { iaw.display('ad_contentslot_1'); });&lt;/script&gt;&lt;/div&gt;&lt;/li&gt;&lt;li cefr="c1" class="sense" hclass="sense" htag="li" id="virtue_sng_3" ox5000="y" sensenum="3"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;div class="symbols" hclass="symbols" htag="div"&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/oxford3000-5000?dataset=english&amp;amp;list=ox5000&amp;amp;level=c1"&gt;&lt;span class="ox5ksym_c1"&gt; &lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;/span&gt;&lt;span class="grammar" hclass="grammar" htag="span"&gt;[countable, uncountable]&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;an attractive or useful quality&lt;/span&gt; &lt;span class="xrefs" hclass="xrefs" htag="span" xt="syn"&gt;&lt;span class="prefix"&gt;synonym&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/advantage_1" title="advantage definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="advantage_subentryg_1:advantage_topg_2"&gt;&lt;span class="xh"&gt;advantage&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;The plan &lt;span class="cl"&gt;has the virtue of&lt;/span&gt; simplicity.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;He was extolling the virtues of the internet.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;They could see &lt;span class="cl"&gt;no virtue in&lt;/span&gt; discussing it further.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="virtue_unbox_5" unbox="extra_examples"&gt;&lt;span class="box_title"&gt;Extra Examples&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;There is no inherent virtue in having read all the latest books.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;The brochure makes a positive virtue of the island's isolated position.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;There is, of course, no inherent virtue in moderation.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;a story celebrating the virtues of democracy&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;He was going on about the virtues of the internet.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;Her book has the cardinal virtue of simplicity.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/span&gt;&lt;/div&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="virtue_unbox_6" unbox="snippet"&gt;&lt;span class="box_title"&gt;Oxford Collocations Dictionary&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="unbox"&gt;adjective&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;cardinal&lt;/li&gt;&lt;li class="li"&gt;great&lt;/li&gt;&lt;li class="li"&gt;important&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;verb + virtue&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;have&lt;/li&gt;&lt;li class="li"&gt;possess&lt;/li&gt;&lt;li class="li"&gt;embody&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;phrases&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;make a virtue of necessity&lt;/li&gt;&lt;li class="li"&gt;a paragon of virtue&lt;/li&gt;&lt;/ul&gt;&lt;span class="xref_to_full_entry"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/collocations/virtue" title=" definition in Collocations "&gt;full entry&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;/li&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="virtue_unbox_1" unbox="wordorigin"&gt;&lt;span class="box_title"&gt;Word Origin&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="p"&gt;Middle English: from Old French &lt;span class="ei"&gt;vertu&lt;/span&gt;, from Latin &lt;span class="ei"&gt;virtus&lt;/span&gt; ‘valour, merit, moral perfection’, from &lt;span class="ei"&gt;vir&lt;/span&gt; ‘man’.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;/ol&gt;&lt;div class="idioms" hclass="idioms" htag="div" id="virtue_idmgs_1"&gt;&lt;span class="idioms_heading"&gt;Idioms&lt;/span&gt; &lt;span class="idm-g" id="virtue_idmg_1" sk="byvirtueof"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="virtue_topg_2"&gt;&lt;div class="webtop"&gt;&lt;span class="idm" id="virtue_idm_1"&gt;by/in virtue of something&lt;/span&gt; &lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="sense_single" htag="ol"&gt;&lt;li class="sense" hclass="sense" htag="li" id="virtue_sng_4"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="labels" hclass="labels" htag="span"&gt;(formal)&lt;/span&gt;&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;by means of or because of something&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;She got the job by virtue of her greater experience.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;/li&gt;&lt;/ol&gt;&lt;/span&gt; &lt;span class="idm-g" id="virtue_idmg_7" new="10" sk="makevirtueof"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="virtue_topg_5"&gt;&lt;div class="webtop"&gt;&lt;span class="idm" id="virtue_idm_4"&gt;make a virtue of something&lt;/span&gt; &lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="sense_single" htag="ol"&gt;&lt;li class="sense" hclass="sense" htag="li" id="virtue_sng_10"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="def" hclass="def" htag="span"&gt;to manage to present as a good quality something that other people might consider to be bad&lt;/span&gt;&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;There are artists who make a virtue of repetition.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;/li&gt;&lt;/ol&gt;&lt;/span&gt; &lt;span class="idm-g" id="virtue_idmg_2" sk="makevirtueofnecessity"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="virtue_topg_6"&gt;&lt;div class="webtop"&gt;&lt;span class="idm" id="virtue_idm_5"&gt;make a virtue of necessity&lt;/span&gt; &lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="sense_single" htag="ol"&gt;&lt;li class="sense" hclass="sense" htag="li" id="virtue_sng_5"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="def" hclass="def" htag="span"&gt;to manage to gain an advantage from something that you have to do and cannot avoid&lt;/span&gt;&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;She decided to make a virtue of necessity and combined a business trip to Paris with a visit to her cousins there.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;/li&gt;&lt;/ol&gt;&lt;/span&gt; &lt;span class="idm-g" id="virtue_idmg_3" sk="ofeasyvirtue"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="virtue_topg_7"&gt;&lt;div class="webtop"&gt;&lt;span class="idm" id="virtue_idm_6"&gt;of easy virtue&lt;/span&gt; &lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="sense_single" htag="ol"&gt;&lt;li class="sense" hclass="sense" htag="li" id="virtue_sng_6"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="labels" hclass="labels" htag="span"&gt;(old-fashioned, disapproving)&lt;/span&gt;&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;willing to have sex with anyone&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;a woman of easy virtue&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;div class="am-entry_long" id="ad_contentslot_2"&gt;&lt;script type="text/javascript"&gt;iaw.cmd.push(function() { iaw.display('ad_contentslot_2'); });&lt;/script&gt;&lt;/div&gt;&lt;/li&gt;&lt;/ol&gt;&lt;/span&gt; &lt;span class="idm-g" id="virtue_idmg_5" sk="virtueisownreward"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="virtue_topg_8"&gt;&lt;div class="webtop"&gt;&lt;span class="idm" id="virtue_idm_7"&gt;virtue is its own reward&lt;/span&gt; &lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="sense_single" htag="ol"&gt;&lt;li class="sense" hclass="sense" htag="li" id="virtue_sng_8"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="labels" hclass="labels" htag="span"&gt;(saying)&lt;/span&gt;&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;the reward for acting in a moral or correct way is the knowledge that you have done so, and you should not expect more than this, for example praise from other people or payment&lt;/span&gt; &lt;/li&gt;&lt;/ol&gt;&lt;/span&gt;&lt;/div&gt;&lt;span class="dictlink-g"&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/american_english/virtue" title=" definition in American English "&gt;&lt;span class="xh"&gt;virtue&lt;/span&gt;&lt;/a&gt; in the Oxford Advanced American Dictionary&lt;/span&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/academic/virtue" title=" definition in Academic English "&gt;&lt;span class="xh"&gt;virtue&lt;/span&gt;&lt;/a&gt; in the Oxford Learner's Dictionary of Academic English&lt;/span&gt;&lt;/span&gt;&lt;div class="pron-link"&gt;Check pronunciation:                        &lt;a href="https://www.oxfordlearnersdictionaries.com/pronunciation/english/virtue"&gt;virtue&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>mole</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>&lt;div class="oald" id="entryContent"&gt;&lt;div class="entry" hclass="entry" hlength="4" htag="section" id="mole" idm_id="000038739" sk="mole: :0" sum="753"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="mole_topg_1"&gt;&lt;div class="webtop"&gt;&lt;h1 class="headword" hclass="headword" htag="h1" id="mole_h_1"&gt;mole&lt;/h1&gt; &lt;span class="pos" hclass="pos" htag="span"&gt;noun&lt;/span&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="mole"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/m/mol/mole_/mole__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/m/mol/mole_/mole__gb_1.ogg" style="cursor: pointer" title="mole pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/məʊl/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="mole"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/m/mol/mole_/mole__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/m/mol/mole_/mole__us_1.ogg" style="cursor: pointer" title="mole pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/məʊl/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt; &lt;/div&gt;&lt;a class="responsive_display_inline_on_smartphone link-right" href="#relatedentries"&gt;                            jump to other results                        &lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="senses_multiple" htag="ol"&gt;&lt;li cefr="c2" class="sense" hclass="sense" htag="li" id="mole_sng_1" sensenum="1"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="def" hclass="def" htag="span"&gt;a small animal with dark grey fur, that is almost blind and digs tunnels under the ground to live in&lt;/span&gt;&lt;/span&gt; &lt;span class="xrefs" hclass="xrefs" htag="span" xt="see"&gt;&lt;span class="prefix"&gt;see also&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/molehill" title="molehill definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="molehill_e"&gt;&lt;span class="xh"&gt;molehill&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;span class="topic-g"&gt;&lt;span class="prefix"&gt;Topics &lt;/span&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/topic/animals?level=c2" title="Topic animals"&gt;&lt;span class="topic" href="l2:animals:animals?cefr=c2"&gt;&lt;span class="topic_name"&gt;Animals&lt;/span&gt;&lt;span class="topic_cefr"&gt;c2&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="mole_unbox_1" unbox="snippet"&gt;&lt;span class="box_title"&gt;Oxford Collocations Dictionary&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="unbox"&gt;mole + verb&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;burrow&lt;/li&gt;&lt;li class="li"&gt;dig&lt;/li&gt;&lt;li class="li"&gt;tunnel&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="xref_to_full_entry"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/collocations/mole" title=" definition in Collocations "&gt;full entry&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;/li&gt;&lt;li cefr="c2" class="sense" hclass="sense" htag="li" id="mole_sng_2" sensenum="2"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="def" hclass="def" htag="span"&gt;a small dark brown mark on the skin, sometimes slightly higher than the skin around it&lt;/span&gt;&lt;/span&gt; &lt;span class="xrefs" hclass="xrefs" htag="span" xt="cp"&gt;&lt;span class="prefix"&gt;compare&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/freckle" title="freckle definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="freckle_e"&gt;&lt;span class="xh"&gt;freckle&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;span class="topic-g"&gt;&lt;span class="prefix"&gt;Topics &lt;/span&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/topic/appearance?level=c2" title="Topic appearance"&gt;&lt;span class="topic" href="l2:appearance:appearance?cefr=c2"&gt;&lt;span class="topic_name"&gt;Appearance&lt;/span&gt;&lt;span class="topic_cefr"&gt;c2&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="mole_unbox_2" unbox="snippet"&gt;&lt;span class="box_title"&gt;Oxford Collocations Dictionary&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="unbox"&gt;adjective&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;hairy&lt;/li&gt;&lt;li class="li"&gt;raised&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;verb + mole&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;remove&lt;/li&gt;&lt;/ul&gt;&lt;span class="xref_to_full_entry"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/collocations/mole" title=" definition in Collocations "&gt;full entry&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;div class="am-entry" id="ad_contentslot_1"&gt;&lt;script type="text/javascript"&gt;iaw.cmd.push(function() { iaw.display('ad_contentslot_1'); });&lt;/script&gt;&lt;/div&gt;&lt;/li&gt;&lt;li class="sense" hclass="sense" htag="li" id="mole_sng_3" sensenum="3"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="def" hclass="def" htag="span"&gt;a person who works within an organization and secretly passes important information to another organization or country&lt;/span&gt;&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;They suspected that a mole had been planted in the organization.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;A police mole working inside the company had supplied them with the details.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="mole_unbox_3" unbox="snippet"&gt;&lt;span class="box_title"&gt;Oxford Collocations Dictionary&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="unbox"&gt;verb + mole&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;plant&lt;/li&gt;&lt;/ul&gt;&lt;span class="xref_to_full_entry"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/collocations/mole" title=" definition in Collocations "&gt;full entry&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;/li&gt;&lt;li cefr="c2" class="sense" hclass="sense" htag="li" id="mole_sng_4" sensenum="4"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="labels" hclass="labels" htag="span"&gt;(&lt;span class="subj" subj="chem"&gt;chemistry&lt;/span&gt;)&lt;/span&gt;&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;a unit for measuring the amount of substance&lt;/span&gt;&lt;span class="topic-g"&gt;&lt;span class="prefix"&gt;Topics &lt;/span&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/topic/physics-and-chemistry?level=c2" title="Topic physics-and-chemistry"&gt;&lt;span class="topic" href="l2:science_and_technology:physics_and_chemistry?cefr=c2"&gt;&lt;span class="topic_name"&gt;Physics and chemistry&lt;/span&gt;&lt;span class="topic_cefr"&gt;c2&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; &lt;/li&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="mole_unbox_1" unbox="wordorigin"&gt;&lt;span class="box_title"&gt;Word Origin&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="p"&gt;sense 1 and sense 3 late Middle English: from the Germanic base of Middle Dutch and Middle Low German &lt;span class="ei"&gt;mol&lt;/span&gt;.&lt;/span&gt;&lt;span class="p"&gt;sense 2 Old English &lt;span class="ei"&gt;māl&lt;/span&gt; ‘discoloured spot’, of Germanic origin.&lt;/span&gt;&lt;span class="p"&gt;sense 4 early 20th cent.: from German &lt;span class="ei"&gt;Mol&lt;/span&gt;, from &lt;span class="ei"&gt;Molekul&lt;/span&gt;, from Latin &lt;span class="ei"&gt;molecula&lt;/span&gt;, diminutive of Latin &lt;span class="ei"&gt;moles&lt;/span&gt; ‘mass’.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;/ol&gt;&lt;span class="dictlink-g"&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/american_english/mole1" title=" definition in American English "&gt;&lt;span class="xh"&gt;mole&lt;/span&gt;&lt;/a&gt; in the Oxford Advanced American Dictionary&lt;/span&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/academic/mole" title=" definition in Academic English "&gt;&lt;span class="xh"&gt;mole&lt;/span&gt;&lt;/a&gt; in the Oxford Learner's Dictionary of Academic English&lt;/span&gt;&lt;/span&gt;&lt;div class="pron-link"&gt;Check pronunciation:                        &lt;a href="https://www.oxfordlearnersdictionaries.com/pronunciation/english/mole"&gt;mole&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>substitute</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>&lt;div class="oald" id="entryContent"&gt;&lt;div class="entry" hclass="entry" hlength="10" htag="section" id="substitute_1" idm_id="000059163" sk="substitute: :0" sum="745"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="substitute_topg_2"&gt;&lt;div class="webtop"&gt;&lt;h1 academic="y" class="headword" hclass="headword" htag="h1" id="substitute_h_1" ox5000="y" random="y"&gt;substitute&lt;/h1&gt; &lt;span class="pos" hclass="pos" htag="span"&gt;noun&lt;/span&gt;&lt;div class="symbols" hclass="symbols" htag="div"&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/oxford3000-5000?dataset=english&amp;amp;list=ox5000&amp;amp;level=c1"&gt;&lt;span class="ox5ksym_c1"&gt; &lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="substitute"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/s/sub/subst/substitute__gb_3.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/s/sub/subst/substitute__gb_3.ogg" style="cursor: pointer" title="substitute pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈsʌbstɪtjuːt/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="substitute"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/s/sub/subst/substitute__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/s/sub/subst/substitute__us_1.ogg" style="cursor: pointer" title="substitute pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈsʌbstɪtuːt/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;/div&gt;&lt;a class="responsive_display_inline_on_smartphone link-right" href="#relatedentries"&gt;                            jump to other results                        &lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="senses_multiple" htag="ol"&gt;&lt;li cefr="c1" class="sense" hclass="sense" htag="li" id="substitute_sng_1" ox5000="y" sensenum="1"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;div class="symbols" hclass="symbols" htag="div"&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/oxford3000-5000?dataset=english&amp;amp;list=ox5000&amp;amp;level=c1"&gt;&lt;span class="ox5ksym_c1"&gt; &lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;/span&gt;&lt;span class="def" hclass="def" htag="span"&gt;a person or thing that you use or have instead of the one you normally use or have&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;a meat substitute&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;a substitute family&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt; &lt;span class="cf" hclass="cf" htag="span"&gt;substitute for somebody/something&lt;/span&gt; &lt;span class="x"&gt;Paul's father only saw him as a substitute for his dead brother.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;The course teaches you the theory but &lt;span class="cl"&gt;there's no substitute for&lt;/span&gt; practical experience.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;The local bus service was a &lt;span class="cl"&gt;poor substitute for&lt;/span&gt; their car.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="substitute2_unbox_1" unbox="extra_examples"&gt;&lt;span class="box_title"&gt;Extra Examples&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;His teacher acted as a father substitute.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;The company produces substitutes for lead in petrol.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;The television is a poor substitute for human companionship.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;There's no substitute for hard work.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/span&gt;&lt;/div&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="substitute2_unbox_2" unbox="snippet"&gt;&lt;span class="box_title"&gt;Oxford Collocations Dictionary&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="unbox"&gt;adjective&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;good&lt;/li&gt;&lt;li class="li"&gt;acceptable&lt;/li&gt;&lt;li class="li"&gt;adequate&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;verb + substitute&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;act as&lt;/li&gt;&lt;li class="li"&gt;serve as&lt;/li&gt;&lt;li class="li"&gt;use something as&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;substitute + noun&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;teacher&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;preposition&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;substitute for&lt;/li&gt;&lt;/ul&gt;&lt;span class="xref_to_full_entry"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/collocations/substitute_1" title=" definition in Collocations "&gt;full entry&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;/li&gt;&lt;li cefr="c1" class="sense" hclass="sense" htag="li" id="substitute_sng_2" ox5000="y" sensenum="2"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;div class="symbols" hclass="symbols" htag="div"&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/oxford3000-5000?dataset=english&amp;amp;list=ox5000&amp;amp;level=c1"&gt;&lt;span class="ox5ksym_c1"&gt; &lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;/span&gt;&lt;div class="variants" hclass="variants" htag="div" type="vf"&gt;(also &lt;span class="v-g"&gt;&lt;span class="labels" hclass="labels" htag="span"&gt;informal&lt;/span&gt; &lt;span class="v"&gt;sub&lt;/span&gt;&lt;/span&gt;)&lt;/div&gt; &lt;span class="def" hclass="def" htag="span"&gt;a player who replaces another player in a sports game&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;He was brought on as (a) substitute after half-time.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="topic-g"&gt;&lt;span class="prefix"&gt;Topics &lt;/span&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/topic/sports-ball-and-racket-sports?level=c1" title="Topic sports-ball-and-racket-sports"&gt;&lt;span class="topic" href="l2:sport:sports_ball_and_racket_sports?cefr=c1"&gt;&lt;span class="topic_name"&gt;Sports: ball and racket sports&lt;/span&gt;&lt;span class="topic_cefr"&gt;c1&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; &lt;/li&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="substitute_unbox_1" unbox="wordorigin"&gt;&lt;span class="box_title"&gt;Word Origin&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="p"&gt;late Middle English (denoting a deputy or delegate): from Latin &lt;span class="ei"&gt;substitutus&lt;/span&gt; ‘put in place of’, past participle of &lt;span class="ei"&gt;substituere&lt;/span&gt;, based on &lt;span class="ei"&gt;statuere&lt;/span&gt; ‘set up’.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;/ol&gt;&lt;span class="dictlink-g"&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/american_english/substitute_1" title=" definition in American English "&gt;&lt;span class="xh"&gt;substitute&lt;/span&gt;&lt;/a&gt; in the Oxford Advanced American Dictionary&lt;/span&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/academic/substitute2" title=" definition in Academic English "&gt;&lt;span class="xh"&gt;substitute&lt;/span&gt;&lt;/a&gt; in the Oxford Learner's Dictionary of Academic English&lt;/span&gt;&lt;/span&gt;&lt;div class="pron-link"&gt;Check pronunciation:                        &lt;a href="https://www.oxfordlearnersdictionaries.com/pronunciation/english/substitute_1"&gt;substitute&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>wharf</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>&lt;div class="oald" id="entryContent"&gt;&lt;div class="entry" hclass="entry" hlength="5" htag="section" id="wharf" idm_id="000067175" sk="wharf: :0" sum="248"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="wharf_topg_1"&gt;&lt;div class="webtop"&gt;&lt;h1 class="headword" hclass="headword" htag="h1" id="wharf_h_1"&gt;wharf&lt;/h1&gt; &lt;span class="pos" hclass="pos" htag="span"&gt;noun&lt;/span&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="wharf"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/w/wha/wharf/wharf__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/w/wha/wharf/wharf__gb_1.ogg" style="cursor: pointer" title="wharf pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/wɔːf/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="wharf"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/w/wha/wharf/wharf__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/w/wha/wharf/wharf__us_1.ogg" style="cursor: pointer" title="wharf pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/wɔːrf/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt; &lt;div class="inflections" hclass="inflections" htag="div" id="wharf_ifgs_1"&gt;(plural &lt;span class="inflected_form" hclass="inflected_form" htag="span"&gt;wharves&lt;/span&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="wharves"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/w/wha/wharv/wharves__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/w/wha/wharv/wharves__gb_1.ogg" style="cursor: pointer" title="wharves pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/wɔːvz/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="wharves"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/w/wha/wharv/wharves__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/w/wha/wharv/wharves__us_1.ogg" style="cursor: pointer" title="wharves pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/wɔːrvz/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;, &lt;span class="inflected_form" hclass="inflected_form" htag="span"&gt;wharfs&lt;/span&gt;)&lt;/div&gt;&lt;/div&gt;&lt;a class="responsive_display_inline_on_smartphone link-right" href="#relatedentries"&gt;                            jump to other results                        &lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="sense_single" htag="ol"&gt;&lt;li class="sense" fkcefr="c2" hclass="sense" htag="li" id="wharf_sng_1"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="def" hclass="def" htag="span"&gt;a flat structure built next to the sea or a river where boats can be tied up and goods unloaded&lt;/span&gt;&lt;/span&gt;&lt;span class="topic-g"&gt;&lt;span class="prefix"&gt;Topics &lt;/span&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/topic/transport-by-water?level=c2" title="Topic transport-by-water"&gt;&lt;span class="topic" href="l2:travel:transport_by_water?cefr=c2"&gt;&lt;span class="topic_name"&gt;Transport by water&lt;/span&gt;&lt;span class="topic_cefr"&gt;c2&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;span class="sep"&gt;,&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/topic/geography?level=c2" title="Topic geography"&gt;&lt;span class="topic" href="l2:the_natural_world:geography?cefr=c2"&gt;&lt;span class="topic_name"&gt;Geography&lt;/span&gt;&lt;span class="topic_cefr"&gt;c2&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="wharf_unbox_1" unbox="wordorigin"&gt;&lt;span class="box_title"&gt;Word Origin&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="p"&gt;late Old English &lt;span class="ei"&gt;hwearf&lt;/span&gt;, of Germanic origin.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;/li&gt;&lt;/ol&gt;&lt;span class="dictlink-g"&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/american_english/wharf" title=" definition in American English "&gt;&lt;span class="xh"&gt;wharf&lt;/span&gt;&lt;/a&gt; in the Oxford Advanced American Dictionary&lt;/span&gt;&lt;/span&gt;&lt;div class="pron-link"&gt;Check pronunciation:                        &lt;a href="https://www.oxfordlearnersdictionaries.com/pronunciation/english/wharf"&gt;wharf&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>thence</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>&lt;div class="oald" id="entryContent"&gt;&lt;div class="entry" hclass="entry" hlength="6" htag="section" id="thence" idm_id="000061294" sk="thence: :0" sum="255"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="thence_topg_1"&gt;&lt;div class="webtop"&gt;&lt;h1 class="headword" hclass="headword" htag="h1" id="thence_h_1"&gt;thence&lt;/h1&gt; &lt;span class="pos" hclass="pos" htag="span"&gt;adverb&lt;/span&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="thence"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/t/the/thenc/thence__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/t/the/thenc/thence__gb_1.ogg" style="cursor: pointer" title="thence pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ðens/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="thence"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/t/the/thenc/thence__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/t/the/thenc/thence__us_1.ogg" style="cursor: pointer" title="thence pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ðens/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;span class="labels" hclass="labels" htag="span"&gt;(old use or formal)&lt;/span&gt;&lt;/div&gt;&lt;a class="responsive_display_inline_on_smartphone link-right" href="#relatedentries"&gt;                            jump to other results                        &lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="sense_single" htag="ol"&gt;&lt;li class="sense" hclass="sense" htag="li" id="thence_sng_1"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="def" hclass="def" htag="span"&gt;from that place; following that&lt;/span&gt;&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;They made their way from Spain to France and thence to England.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;He was promoted to manager, thence to a partnership in the firm.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="thence_unbox_1" unbox="wordorigin"&gt;&lt;span class="box_title"&gt;Word Origin&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="p"&gt;Middle English &lt;span class="ei"&gt;thennes&lt;/span&gt;, from earlier &lt;span class="ei"&gt;thenne&lt;/span&gt; (from Old English &lt;span class="ei"&gt;thanon&lt;/span&gt;, of West Germanic origin) + &lt;span class="ei"&gt;-s&lt;/span&gt; (later respelled &lt;span class="ei"&gt;-ce&lt;/span&gt; to denote the unvoiced sound).&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;/li&gt;&lt;/ol&gt;&lt;span class="dictlink-g"&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/american_english/thence" title=" definition in American English "&gt;&lt;span class="xh"&gt;thence&lt;/span&gt;&lt;/a&gt; in the Oxford Advanced American Dictionary&lt;/span&gt;&lt;/span&gt;&lt;div class="pron-link"&gt;Check pronunciation:                        &lt;a href="https://www.oxfordlearnersdictionaries.com/pronunciation/english/thence"&gt;thence&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>deliberately</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>&lt;div class="oald" id="entryContent"&gt;&lt;div class="entry" hclass="entry" hlength="12" htag="section" id="deliberately" idm_id="000015643" sk="deliberately: :0" sum="626"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="deliberately_topg_1"&gt;&lt;div class="webtop"&gt;&lt;h1 class="headword" hclass="headword" htag="h1" id="deliberately_h_1" ox3000="y" random="y"&gt;deliberately&lt;/h1&gt; &lt;span class="pos" hclass="pos" htag="span"&gt;adverb&lt;/span&gt;&lt;div class="symbols" hclass="symbols" htag="div"&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/oxford3000-5000?dataset=english&amp;amp;list=ox3000&amp;amp;level=b2"&gt;&lt;span class="ox3ksym_b2"&gt; &lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="deliberately"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/d/del/delib/deliberately__gb_2.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/d/del/delib/deliberately__gb_2.ogg" style="cursor: pointer" title="deliberately pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/dɪˈlɪbərətli/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="deliberately"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/d/del/delib/deliberately__us_2_rr.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/d/del/delib/deliberately__us_2_rr.ogg" style="cursor: pointer" title="deliberately pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/dɪˈlɪbərətli/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;/div&gt;&lt;a class="responsive_display_inline_on_smartphone link-right" href="#relatedentries"&gt;                            jump to other results                        &lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="senses_multiple" htag="ol"&gt;&lt;li cefr="b2" class="sense" hclass="sense" htag="li" id="deliberately_sng_1" ox3000="y" sensenum="1"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;div class="symbols" hclass="symbols" htag="div"&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/oxford3000-5000?dataset=english&amp;amp;list=ox3000&amp;amp;level=b2"&gt;&lt;span class="ox3ksym_b2"&gt; &lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;done in a way that was planned, not by chance&lt;/span&gt; &lt;span class="xrefs" hclass="xrefs" htag="span" xt="nsyn"&gt;&lt;span class="prefix"&gt;synonym&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/intentionally" title="intentionally definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="intentionally_e"&gt;&lt;span class="xw"&gt;intentionally&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;span class="sep"&gt;,&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/purpose#purpose_idmg_1" title="on purpose definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="purpose_idmg_1"&gt;&lt;span class="xw"&gt;on purpose&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;She's been deliberately ignoring him all day.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;an ad campaign that &lt;span class="cl"&gt;deliberately targets&lt;/span&gt; children&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;She was accused of &lt;span class="cl"&gt;deliberately misleading&lt;/span&gt; Parliament.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;to deliberately withhold/conceal information&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;The fire had been &lt;span class="cl"&gt;started deliberately&lt;/span&gt;.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;Her tone was deliberately insulting.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="deliberately_unbox_1" unbox="extra_examples"&gt;&lt;span class="box_title"&gt;Extra Examples&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;I suspected that he was being deliberately ambiguous.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;She described how he quite deliberately tried to entice the two children away.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;He deliberately chose to cast unknown actors. &lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/span&gt;&lt;/div&gt; &lt;/li&gt;&lt;li class="sense" hclass="sense" htag="li" id="deliberately_sng_2" sensenum="2"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="def" hclass="def" htag="span"&gt;slowly and carefully&lt;/span&gt;&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;He packed up his possessions slowly and deliberately.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;/li&gt;&lt;/ol&gt;&lt;span class="dictlink-g"&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/american_english/deliberately" title=" definition in American English "&gt;&lt;span class="xh"&gt;deliberately&lt;/span&gt;&lt;/a&gt; in the Oxford Advanced American Dictionary&lt;/span&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/academic/deliberately" title=" definition in Academic English "&gt;&lt;span class="xh"&gt;deliberately&lt;/span&gt;&lt;/a&gt; in the Oxford Learner's Dictionary of Academic English&lt;/span&gt;&lt;/span&gt;&lt;div class="pron-link"&gt;Check pronunciation:                        &lt;a href="https://www.oxfordlearnersdictionaries.com/pronunciation/english/deliberately"&gt;deliberately&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>rear</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>&lt;div class="oald" id="entryContent"&gt;&lt;div class="entry" hclass="entry" hlength="4" htag="section" id="rear_1" idm_id="000049260" sk="rear: :0" sum="241"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="rear_topg_4"&gt;&lt;div class="webtop"&gt;&lt;h1 class="headword" hclass="headword" htag="h1" id="rear_h_1" ox5000="y" random="y"&gt;rear&lt;/h1&gt; &lt;span class="pos" hclass="pos" htag="span"&gt;adjective&lt;/span&gt;&lt;div class="symbols" hclass="symbols" htag="div"&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/oxford3000-5000?dataset=english&amp;amp;list=ox5000&amp;amp;level=c1"&gt;&lt;span class="ox5ksym_c1"&gt; &lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="rear"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/r/rea/rear_/rear__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/r/rea/rear_/rear__gb_1.ogg" style="cursor: pointer" title="rear pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/rɪə(r)/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="rear"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/r/rea/rear_/rear__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/r/rea/rear_/rear__us_1.ogg" style="cursor: pointer" title="rear pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/rɪr/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;span class="grammar" hclass="grammar" htag="span"&gt;[only before noun]&lt;/span&gt;&lt;/div&gt;&lt;a class="responsive_display_inline_on_smartphone link-right" href="#relatedentries"&gt;                            jump to other results                        &lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="sense_single" htag="ol"&gt;&lt;li class="sense" fkcefr="c1" fkox5000="y" hclass="sense" htag="li" id="rear_sng_4"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="def" hclass="def" htag="span"&gt;at or near the back of something&lt;/span&gt;&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;front and rear windows&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;the rear entrance of the building&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="rear3_unbox_1" unbox="wordorigin"&gt;&lt;span class="box_title"&gt;Word Origin&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="p"&gt;&lt;span class="ei"&gt;adjective&lt;/span&gt; Middle English (first used as a military term): from Old French &lt;span class="ei"&gt;rere&lt;/span&gt;, based on Latin &lt;span class="ei"&gt;retro&lt;/span&gt; ‘back’.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;/li&gt;&lt;/ol&gt;&lt;span class="dictlink-g"&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/american_english/rear_2" title=" definition in American English "&gt;&lt;span class="xh"&gt;rear&lt;/span&gt;&lt;/a&gt; in the Oxford Advanced American Dictionary&lt;/span&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/academic/rear3" title=" definition in Academic English "&gt;&lt;span class="xh"&gt;rear&lt;/span&gt;&lt;/a&gt; in the Oxford Learner's Dictionary of Academic English&lt;/span&gt;&lt;/span&gt;&lt;div class="pron-link"&gt;Check pronunciation:                        &lt;a href="https://www.oxfordlearnersdictionaries.com/pronunciation/english/rear_1"&gt;rear&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>pace</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>&lt;div class="oald" id="entryContent"&gt;&lt;div class="entry" hclass="entry" hlength="5" hm="1" htag="section" id="pace1_1" idm_id="000042984" sk="pace:1:1" sum="3632"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="pace_topg_3"&gt;&lt;div class="webtop"&gt;&lt;h1 class="headword" hclass="headword" htag="h1" id="pace_h_2" ox3000="y" random="y"&gt;pace&lt;span class="hm"&gt;1&lt;/span&gt;&lt;/h1&gt; &lt;span class="pos" hclass="pos" htag="span"&gt;noun&lt;/span&gt;&lt;div class="symbols" hclass="symbols" htag="div"&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/oxford3000-5000?dataset=english&amp;amp;list=ox3000&amp;amp;level=b2"&gt;&lt;span class="ox3ksym_b2"&gt; &lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="pace"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/p/pac/pace_/pace__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/p/pac/pace_/pace__gb_1.ogg" style="cursor: pointer" title="pace pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/peɪs/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="pace"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/p/pac/pace_/pace__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/p/pac/pace_/pace__us_1.ogg" style="cursor: pointer" title="pace pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/peɪs/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;span class="jumplinks"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/pace1_1#pace_idmgs_1" title="Idioms definition"&gt;&lt;span class="jumplink" href="pace_idmgs_1" name="Idioms"&gt;Idioms&lt;/span&gt;&lt;/a&gt; &lt;/span&gt;&lt;/div&gt;&lt;a class="responsive_display_inline_on_smartphone link-right" href="#relatedentries"&gt;                            jump to other results                        &lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="senses_multiple" htag="ol"&gt;&lt;li cefr="b2" class="sense" hclass="sense" htag="li" id="pace1_sng_1" ox3000="y" sensenum="1"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;div class="symbols" hclass="symbols" htag="div"&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/oxford3000-5000?dataset=english&amp;amp;list=ox3000&amp;amp;level=b2"&gt;&lt;span class="ox3ksym_b2"&gt; &lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;/span&gt; &lt;span class="grammar" hclass="grammar" htag="span"&gt;[singular, uncountable]&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;the speed at which somebody/something walks, runs or moves&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt; &lt;span class="cf" hclass="cf" htag="span"&gt;at a… pace&lt;/span&gt; &lt;span class="x"&gt;to set off at a &lt;span class="cl"&gt;steady/gentle/leisurely pace&lt;/span&gt;&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;Congestion frequently reduces traffic to walking pace.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;The ball &lt;span class="cl"&gt;gathered pace&lt;/span&gt; as it rolled down the hill.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;The runners have noticeably quickened their pace.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;Aisha slowed her pace to a walk. &lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="pace2_unbox_1" unbox="extra_examples"&gt;&lt;span class="box_title"&gt;Extra Examples&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;He's a skilful player with a good turn of pace &lt;span class="gloss" hclass="gloss" htag="span"&gt;(= he can move quickly)&lt;/span&gt;.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;I set off at a snail's pace to conserve my energy for later in the race.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;She kept up a pace of ten miles an hour.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;They set off at a blistering pace.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;Thinking that she was being followed, she quickened her pace.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/span&gt;&lt;/div&gt;&lt;span class="topic-g"&gt;&lt;span class="prefix"&gt;Topics &lt;/span&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/topic/sports-other-sports?level=b2" title="Topic sports-other-sports"&gt;&lt;span class="topic" href="l2:sport:sports_other_sports?cefr=b2"&gt;&lt;span class="topic_name"&gt;Sports: other sports&lt;/span&gt;&lt;span class="topic_cefr"&gt;b2&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="pace2_unbox_2" unbox="snippet"&gt;&lt;span class="box_title"&gt;Oxford Collocations Dictionary&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="unbox"&gt;adjective&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;blistering&lt;/li&gt;&lt;li class="li"&gt;breakneck&lt;/li&gt;&lt;li class="li"&gt;breathtaking&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;verb + pace&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;gather&lt;/li&gt;&lt;li class="li"&gt;increase&lt;/li&gt;&lt;li class="li"&gt;quicken&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;pace + verb&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;increase&lt;/li&gt;&lt;li class="li"&gt;slow&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;preposition&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;at a… pace&lt;/li&gt;&lt;li class="li"&gt;pace of&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;phrases&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;at somebody’s own pace&lt;/li&gt;&lt;li class="li"&gt;at a snail’s pace&lt;/li&gt;&lt;li class="li"&gt;a change of pace&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="xref_to_full_entry"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/collocations/pace_1" title=" definition in Collocations "&gt;full entry&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;/li&gt;&lt;li cefr="b2" class="sense" hclass="sense" htag="li" id="pace1_sng_2" ox3000="y" sensenum="2"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;div class="symbols" hclass="symbols" htag="div"&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/oxford3000-5000?dataset=english&amp;amp;list=ox3000&amp;amp;level=b2"&gt;&lt;span class="ox3ksym_b2"&gt; &lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;/span&gt; &lt;span class="grammar" hclass="grammar" htag="span"&gt;[singular, uncountable]&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;the speed at which something happens&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt; &lt;span class="cf" hclass="cf" htag="span"&gt;pace of something&lt;/span&gt; &lt;span class="x"&gt;It is difficult to keep up with the rapid &lt;span class="cl"&gt;pace of change&lt;/span&gt;.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;I prefer the relaxed &lt;span class="cl"&gt;pace of life&lt;/span&gt; in the country.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;We encourage all students to work &lt;span class="cl"&gt;at their own pace&lt;/span&gt; &lt;span class="gloss" hclass="gloss" htag="span"&gt;(= as fast or as slow as they can)&lt;/span&gt;.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt; &lt;span class="cf" hclass="cf" htag="span"&gt;at a… pace&lt;/span&gt; &lt;span class="x"&gt;The American economy has grown at a record pace. &lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;Technology is changing at a blistering pace. &lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;The plot moves along at a &lt;span class="cl"&gt;fast pace&lt;/span&gt;. &lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;These updates are going to continue at a rapid pace.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;Rumours of corruption and scandal &lt;span class="cl"&gt;gathered pace&lt;/span&gt; &lt;span class="gloss" hclass="gloss" htag="span"&gt;(= increased in number)&lt;/span&gt;.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="pace2_unbox_3" unbox="extra_examples"&gt;&lt;span class="box_title"&gt;Extra Examples&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;The pace of life is much gentler on the island.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;I try to get away at weekends for a change of pace.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;The project had a slow start, but is now gathering pace.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;the slow pace of economic reform&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/span&gt;&lt;/div&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="pace2_unbox_4" unbox="snippet"&gt;&lt;span class="box_title"&gt;Oxford Collocations Dictionary&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="unbox"&gt;adjective&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;blistering&lt;/li&gt;&lt;li class="li"&gt;breakneck&lt;/li&gt;&lt;li class="li"&gt;breathtaking&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;verb + pace&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;gather&lt;/li&gt;&lt;li class="li"&gt;increase&lt;/li&gt;&lt;li class="li"&gt;quicken&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;pace + verb&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;increase&lt;/li&gt;&lt;li class="li"&gt;slow&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;preposition&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;at a… pace&lt;/li&gt;&lt;li class="li"&gt;pace of&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;phrases&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;at somebody’s own pace&lt;/li&gt;&lt;li class="li"&gt;at a snail’s pace&lt;/li&gt;&lt;li class="li"&gt;a change of pace&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="xref_to_full_entry"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/collocations/pace_1" title=" definition in Collocations "&gt;full entry&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;div class="am-entry_long" id="ad_contentslot_1"&gt;&lt;script type="text/javascript"&gt;iaw.cmd.push(function() { iaw.display('ad_contentslot_1'); });&lt;/script&gt;&lt;/div&gt;&lt;/li&gt;&lt;li cefr="c1" class="sense" hclass="sense" htag="li" id="pace1_sng_3" sensenum="3"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="grammar" hclass="grammar" htag="span"&gt;[countable]&lt;/span&gt;&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;an act of stepping once when walking or running; the distance travelled when doing this&lt;/span&gt; &lt;span class="xrefs" hclass="xrefs" htag="span" xt="syn"&gt;&lt;span class="prefix"&gt;synonym&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/step_1" title="step definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="step_subentryg_1:step_topg_2"&gt;&lt;span class="xh"&gt;step&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;She took two paces forward.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;To be a really good runner he needs to lengthen his pace a little.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;Competitors must stand at a distance of 20 paces from each other.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="pace2_unbox_5" unbox="extra_examples"&gt;&lt;span class="box_title"&gt;Extra Examples&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;I stopped a few paces from the edge of the cliff.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;Jean followed a few paces behind.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;You can get a device that counts how many paces you take in an average day.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;Two bodyguards remained a couple of paces behind the president throughout the walkabout.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/span&gt;&lt;/div&gt;&lt;span class="topic-g"&gt;&lt;span class="prefix"&gt;Topics &lt;/span&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/topic/maths-and-measurement?level=c1" title="Topic maths-and-measurement"&gt;&lt;span class="topic" href="l2:science_and_technology:maths_and_measurement?cefr=c1"&gt;&lt;span class="topic_name"&gt;Maths and measurement&lt;/span&gt;&lt;span class="topic_cefr"&gt;c1&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="pace2_unbox_6" unbox="snippet"&gt;&lt;span class="box_title"&gt;Oxford Collocations Dictionary&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="unbox"&gt;verb + pace&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;take&lt;/li&gt;&lt;li class="li"&gt;walk&lt;/li&gt;&lt;li class="li"&gt;step back&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;preposition&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;pace behind&lt;/li&gt;&lt;li class="li"&gt;pace from&lt;/li&gt;&lt;/ul&gt;&lt;span class="xref_to_full_entry"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/collocations/pace_1" title=" definition in Collocations "&gt;full entry&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;/li&gt;&lt;li class="sense" hclass="sense" htag="li" id="pace1_sng_4" sensenum="4"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="grammar" hclass="grammar" htag="span"&gt;[uncountable]&lt;/span&gt;&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;the fact of something happening, changing, etc. quickly&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;He gave up his job in advertising because he couldn't &lt;span class="cl"&gt;stand the pace&lt;/span&gt;.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;The novel lacks pace &lt;span class="gloss" hclass="gloss" htag="span"&gt;(= it develops too slowly)&lt;/span&gt;.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;span class="xrefs" hclass="xrefs" htag="span" xt="see"&gt;&lt;span class="prefix"&gt;see also&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/fast-paced" title="fast-paced definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="fastpaced_e"&gt;&lt;span class="xh"&gt;fast-paced&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="pace2_unbox_7" unbox="snippet"&gt;&lt;span class="box_title"&gt;Oxford Collocations Dictionary&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="unbox"&gt;adjective&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;blistering&lt;/li&gt;&lt;li class="li"&gt;breakneck&lt;/li&gt;&lt;li class="li"&gt;breathtaking&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;verb + pace&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;gather&lt;/li&gt;&lt;li class="li"&gt;increase&lt;/li&gt;&lt;li class="li"&gt;quicken&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;pace + verb&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;increase&lt;/li&gt;&lt;li class="li"&gt;slow&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;preposition&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;at a… pace&lt;/li&gt;&lt;li class="li"&gt;pace of&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;phrases&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;at somebody’s own pace&lt;/li&gt;&lt;li class="li"&gt;at a snail’s pace&lt;/li&gt;&lt;li class="li"&gt;a change of pace&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="xref_to_full_entry"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/collocations/pace_1" title=" definition in Collocations "&gt;full entry&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;/li&gt; &lt;span class="xrefs" hclass="xrefs" htag="span" id="pace_xrgs_10" xt="see"&gt;&lt;span class="prefix"&gt;see also&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/pacy" title="pacy definition"&gt;&lt;span bord="y" class="xr-g" dict="all" href="pacy_e" id="pace_xrg_14"&gt;&lt;span class="xh"&gt;pacy&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="pace_unbox_2" unbox="wordorigin"&gt;&lt;span class="box_title"&gt;Word Origin&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="p"&gt;Middle English: from Old French &lt;span class="ei"&gt;pas&lt;/span&gt;, from Latin &lt;span class="ei"&gt;passus&lt;/span&gt; ‘stretch (of the leg)’, from &lt;span class="ei"&gt;pandere&lt;/span&gt; ‘to stretch’.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;/ol&gt;&lt;div class="idioms" hclass="idioms" htag="div" id="pace_idmgs_1"&gt;&lt;span class="idioms_heading"&gt;Idioms&lt;/span&gt; &lt;span class="idm-g" id="snail_idmg_2" sk="atsnailspace"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="snail_topg_2"&gt;&lt;div class="webtop"&gt;&lt;span class="idm" id="snail_idm_1"&gt;at a snail’s pace&lt;/span&gt; &lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="sense_single" htag="ol"&gt;&lt;li class="sense" hclass="sense" htag="li" id="snail_sng_3"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="def" hclass="def" htag="span"&gt;very slowly&lt;/span&gt;&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;Traffic had slowed to a snail’s pace.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;/li&gt;&lt;/ol&gt;&lt;/span&gt; &lt;span class="idm-g" id="pace_idmg_1" sk="forcepace"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="pace_topg_2"&gt;&lt;div class="webtop"&gt;&lt;span class="idm" id="pace_idm_7"&gt;force the pace&lt;/span&gt; &lt;span class="labels" hclass="labels" htag="span"&gt;(especially British English)&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="senses_multiple" htag="ol"&gt;&lt;li class="sense" hclass="sense" htag="li" id="pace_sng_2" sensenum="1"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="def" hclass="def" htag="span"&gt;to run very fast in a race in order to make the other people taking part run faster&lt;/span&gt;&lt;/span&gt; &lt;/li&gt;&lt;li class="sense" hclass="sense" htag="li" id="pace_sng_3" sensenum="2"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="def" hclass="def" htag="span"&gt;to make somebody do something faster than they want to&lt;/span&gt;&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;The demonstrations have succeeded in forcing the pace of change.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;div class="am-entry_long" id="ad_contentslot_2"&gt;&lt;script type="text/javascript"&gt;iaw.cmd.push(function() { iaw.display('ad_contentslot_2'); });&lt;/script&gt;&lt;/div&gt;&lt;/li&gt;&lt;/ol&gt;&lt;/span&gt; &lt;span class="idm-g" id="pace1_idmg_1" sk="gothroughpaces"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="pace_topg_4"&gt;&lt;div class="webtop"&gt;&lt;span class="idm" id="pace_idm_1"&gt;go through your paces &lt;span class="idmsep"&gt;|&lt;/span&gt; show your paces&lt;/span&gt; &lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="sense_single" htag="ol"&gt;&lt;li class="sense" hclass="sense" htag="li" id="pace1_sng_5"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="def" hclass="def" htag="span"&gt;to perform a particular activity in order to show other people what you are capable of doing&lt;/span&gt;&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;We watched the horses going through their paces.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;The British team showed its paces during a training session in the hotel pool.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;/li&gt;&lt;/ol&gt;&lt;/span&gt; &lt;span class="idm-g" id="pace1_idmg_2" sk="keeppace"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="pace_topg_5"&gt;&lt;div class="webtop"&gt;&lt;span class="idm" id="pace_idm_3"&gt;keep pace (with somebody/something)&lt;/span&gt; &lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="sense_single" htag="ol"&gt;&lt;li class="sense" hclass="sense" htag="li" id="pace1_sng_6"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="def" hclass="def" htag="span"&gt;to move, increase, change, etc. at the same speed as somebody/something&lt;/span&gt;&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;She found it hard to keep pace with him as he strode off.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;The younger children struggled to keep pace with the older ones.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;Until now, wage increases have always kept pace with inflation.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;The company is struggling to keep pace with changes in the market.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;/li&gt;&lt;/ol&gt;&lt;/span&gt; &lt;span class="idm-g" id="pace1_idmg_3" sk="offpace"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="pace_topg_6"&gt;&lt;div class="webtop"&gt;&lt;span class="idm" id="pace_idm_4"&gt;off the pace&lt;/span&gt; &lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="sense_single" htag="ol"&gt;&lt;li class="sense" hclass="sense" htag="li" id="pace1_sng_7"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="dis-g"&gt;&lt;span class="wrap"&gt;(&lt;/span&gt;&lt;span class="dtxt"&gt;in sport&lt;/span&gt;&lt;span class="wrap"&gt;)&lt;/span&gt;&lt;/span&gt;&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;behind the leader or the leading group in a race or a competition&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;Last year's champion is still three shots off the pace &lt;span class="gloss" hclass="gloss" htag="span"&gt;(= in golf)&lt;/span&gt;.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;/li&gt;&lt;/ol&gt;&lt;/span&gt; &lt;span class="idm-g" id="pace1_idmg_4" sk="putthroughpaces"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="pace_topg_7"&gt;&lt;div class="webtop"&gt;&lt;span class="idm" id="pace_idm_5"&gt;put somebody/something through their/its paces&lt;/span&gt; &lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="sense_single" htag="ol"&gt;&lt;li class="sense" hclass="sense" htag="li" id="pace1_sng_8"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="def" hclass="def" htag="span"&gt;to give somebody/something a number of tasks to perform in order to see what they are capable of doing&lt;/span&gt;&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;Youngsters will be put through their paces by qualified instructors.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;We sent our reporter to put Ford’s newest model through its paces.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;/li&gt;&lt;/ol&gt;&lt;/span&gt; &lt;span class="idm-g" id="pace1_idmg_5" sk="setpace"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="pace_topg_8"&gt;&lt;div class="webtop"&gt;&lt;span class="idm" id="pace_idm_6"&gt;set the pace&lt;/span&gt; &lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="senses_multiple" htag="ol"&gt;&lt;li class="sense" hclass="sense" htag="li" id="pace1_sng_9" sensenum="1"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="def" hclass="def" htag="span"&gt;to do something at a particular speed or to a particular standard so that other people are then forced to copy it if they want to be successful&lt;/span&gt;&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;The company is no longer setting the pace in the home computer market.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;div class="am-entry_long" id="ad_contentslot_3"&gt;&lt;script type="text/javascript"&gt;iaw.cmd.push(function() { iaw.display('ad_contentslot_3'); });&lt;/script&gt;&lt;/div&gt;&lt;/li&gt;&lt;li class="sense" hclass="sense" htag="li" id="pace1_sng_10" sensenum="2"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="dis-g"&gt;&lt;span class="wrap"&gt;(&lt;/span&gt;&lt;span class="dtxt"&gt;in a race&lt;/span&gt;&lt;span class="wrap"&gt;)&lt;/span&gt;&lt;/span&gt;&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;to run faster than the other people taking part, at a speed that they then try to copy&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;Willis set the pace for the first mile.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;/li&gt;&lt;/ol&gt;&lt;/span&gt;&lt;/div&gt;&lt;span class="dictlink-g"&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/american_english/pace1_1" title=" definition in American English "&gt;&lt;span class="xh"&gt;pace&lt;/span&gt;&lt;/a&gt; in the Oxford Advanced American Dictionary&lt;/span&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/academic/pace" title=" definition in Academic English "&gt;&lt;span class="xh"&gt;pace&lt;/span&gt;&lt;/a&gt; in the Oxford Learner's Dictionary of Academic English&lt;/span&gt;&lt;/span&gt;&lt;div class="pron-link"&gt;Check pronunciation:                        &lt;a href="https://www.oxfordlearnersdictionaries.com/pronunciation/english/pace1_1"&gt;pace1&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>rigging</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>&lt;div class="oald" id="entryContent"&gt;&lt;div class="entry" hclass="entry" hlength="7" htag="section" id="rigging" idm_id="000050868" sk="rigging: :0" sum="290"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="rigging_topg_1"&gt;&lt;div class="webtop"&gt;&lt;h1 class="headword" hclass="headword" htag="h1" id="rigging_h_1"&gt;rigging&lt;/h1&gt; &lt;span class="pos" hclass="pos" htag="span"&gt;noun&lt;/span&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="rigging"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/r/rig/riggi/rigging__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/r/rig/riggi/rigging__gb_1.ogg" style="cursor: pointer" title="rigging pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈrɪɡɪŋ/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="rigging"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/r/rig/riggi/rigging__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/r/rig/riggi/rigging__us_1.ogg" style="cursor: pointer" title="rigging pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈrɪɡɪŋ/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt; &lt;span class="grammar" hclass="grammar" htag="span"&gt;[uncountable]&lt;/span&gt;&lt;/div&gt;&lt;a class="responsive_display_inline_on_smartphone link-right" href="#relatedentries"&gt;                            jump to other results                        &lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="senses_multiple" htag="ol"&gt;&lt;li cefr="c2" class="sense" hclass="sense" htag="li" id="rigging_sng_1" sensenum="1"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="def" hclass="def" htag="span"&gt;the ropes that support the &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/mast" title="masts definition"&gt;&lt;span class="ndv"&gt;masts&lt;/span&gt;&lt;/a&gt; and sails of a boat or ship&lt;/span&gt;&lt;/span&gt;&lt;span class="topic-g"&gt;&lt;span class="prefix"&gt;Topics &lt;/span&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/topic/transport-by-water?level=c2" title="Topic transport-by-water"&gt;&lt;span class="topic" href="l2:travel:transport_by_water?cefr=c2"&gt;&lt;span class="topic_name"&gt;Transport by water&lt;/span&gt;&lt;span class="topic_cefr"&gt;c2&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; &lt;/li&gt;&lt;li class="sense" hclass="sense" htag="li" id="rigging_sng_2" sensenum="2"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="def" hclass="def" htag="span"&gt;the act of influencing something in a dishonest way in order to get the result that you want&lt;/span&gt;&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;vote rigging&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;/li&gt;&lt;/ol&gt;&lt;span class="dictlink-g"&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/american_english/rigging" title=" definition in American English "&gt;&lt;span class="xh"&gt;rigging&lt;/span&gt;&lt;/a&gt; in the Oxford Advanced American Dictionary&lt;/span&gt;&lt;/span&gt;&lt;div class="pron-link"&gt;Check pronunciation:                        &lt;a href="https://www.oxfordlearnersdictionaries.com/pronunciation/english/rigging"&gt;rigging&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>isle</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>&lt;div class="oald" id="entryContent"&gt;&lt;div class="entry" hclass="entry" hlength="4" htag="section" id="isle" idm_id="000031975" sk="isle: :0" sum="220"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="isle_topg_1"&gt;&lt;div class="webtop"&gt;&lt;h1 class="headword" hclass="headword" htag="h1" id="isle_h_1"&gt;isle&lt;/h1&gt; &lt;span class="pos" hclass="pos" htag="span"&gt;noun&lt;/span&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="isle"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/i/isl/isle_/isle__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/i/isl/isle_/isle__gb_1.ogg" style="cursor: pointer" title="isle pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/aɪl/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="isle"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/i/isl/isle_/isle__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/i/isl/isle_/isle__us_1.ogg" style="cursor: pointer" title="isle pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/aɪl/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;div class="variants" hclass="variants" htag="div" id="isle_vgs_1" type="ab"&gt;(abbreviation &lt;span class="v-g" id="isle_vg_1"&gt;&lt;span class="v" id="isle_v_1"&gt;I&lt;/span&gt;&lt;/span&gt;, &lt;span class="v-g" id="isle_vg_2"&gt;&lt;span class="v" id="isle_v_2"&gt;I.&lt;/span&gt;&lt;/span&gt;, &lt;span class="v-g" id="isle_vg_3"&gt;&lt;span class="v" id="isle_v_3"&gt;Is.&lt;/span&gt;&lt;/span&gt;)&lt;/div&gt;&lt;/div&gt;&lt;a class="responsive_display_inline_on_smartphone link-right" href="#relatedentries"&gt;                            jump to other results                        &lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="sense_single" htag="ol"&gt;&lt;li class="sense" hclass="sense" htag="li" id="isle_sng_1"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="def" hclass="def" htag="span"&gt;used especially in poetry and names to mean ‘island’&lt;/span&gt;&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;the Isle of Skye&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;the British Isles&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;span class="xrefs" hclass="xrefs" htag="span" xt="see"&gt;&lt;span class="prefix"&gt;see also&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/the-emerald-isle" title="Emerald Isle definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="emeraldisle_e"&gt;&lt;span class="xh"&gt;Emerald Isle&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="isle_unbox_1" unbox="wordorigin"&gt;&lt;span class="box_title"&gt;Word Origin&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="p"&gt;Middle English &lt;span class="ei"&gt;ile&lt;/span&gt;, from Old French, from Latin &lt;span class="ei"&gt;insula&lt;/span&gt;. The spelling with &lt;span class="ei"&gt;s&lt;/span&gt; (also in 15th-cent. French) is influenced by Latin.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;/li&gt;&lt;/ol&gt;&lt;span class="dictlink-g"&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/american_english/isle" title=" definition in American English "&gt;&lt;span class="xh"&gt;isle&lt;/span&gt;&lt;/a&gt; in the Oxford Advanced American Dictionary&lt;/span&gt;&lt;/span&gt;&lt;div class="pron-link"&gt;Check pronunciation:                        &lt;a href="https://www.oxfordlearnersdictionaries.com/pronunciation/english/isle"&gt;isle&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>suffice</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>&lt;div class="oald" id="entryContent"&gt;&lt;div class="entry" hclass="entry" hlength="7" htag="section" id="suffice" idm_id="000059261" sk="suffice: :0" sum="673"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="suffice_topg_1"&gt;&lt;div class="webtop"&gt;&lt;h1 class="headword" hclass="headword" htag="h1" id="suffice_h_1"&gt;suffice&lt;/h1&gt; &lt;span class="pos" hclass="pos" htag="span"&gt;verb&lt;/span&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="suffice"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/s/suf/suffi/suffice__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/s/suf/suffi/suffice__gb_1.ogg" style="cursor: pointer" title="suffice pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/səˈfaɪs/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="suffice"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/s/suf/suffi/suffice__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/s/suf/suffi/suffice__us_1.ogg" style="cursor: pointer" title="suffice pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/səˈfaɪs/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;span class="grammar" hclass="grammar" htag="span"&gt;[intransitive]&lt;/span&gt; &lt;span class="labels" hclass="labels" htag="span"&gt;(formal)&lt;/span&gt; &lt;span class="use" id="suffice_use_1"&gt;not used in the progressive tenses&lt;/span&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="suffice_unbox_1" unbox="verbforms"&gt;&lt;span class="box_title"&gt;Verb Forms&lt;/span&gt;&lt;span class="body"&gt;&lt;table class="verb_forms_table"&gt;&lt;tr class="verb_form" form="root"&gt;&lt;td class="verb_form"&gt; &lt;span class="vf_prefix"&gt;present simple I / you / we / they&lt;/span&gt; suffice&lt;/td&gt;&lt;td class="verb_phons"&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="suffice"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/s/suf/suffi/suffice__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/s/suf/suffi/suffice__gb_1.ogg" style="cursor: pointer" title="suffice pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/səˈfaɪs/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="suffice"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/s/suf/suffi/suffice__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/s/suf/suffi/suffice__us_1.ogg" style="cursor: pointer" title="suffice pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/səˈfaɪs/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr class="verb_form" form="thirdps"&gt;&lt;td class="verb_form"&gt; &lt;span class="vf_prefix"&gt;he / she / it&lt;/span&gt; suffices&lt;/td&gt;&lt;td class="verb_phons"&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="suffices"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/s/suf/suffi/suffices__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/s/suf/suffi/suffices__gb_1.ogg" style="cursor: pointer" title="suffices pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/səˈfaɪsɪz/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="suffices"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/s/suf/suffi/suffices__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/s/suf/suffi/suffices__us_1.ogg" style="cursor: pointer" title="suffices pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/səˈfaɪsɪz/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr class="verb_form" form="past"&gt;&lt;td class="verb_form"&gt; &lt;span class="vf_prefix"&gt;past simple&lt;/span&gt; sufficed&lt;/td&gt;&lt;td class="verb_phons"&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="sufficed"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/s/suf/suffi/sufficed__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/s/suf/suffi/sufficed__gb_1.ogg" style="cursor: pointer" title="sufficed pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/səˈfaɪst/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="sufficed"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/s/suf/suffi/sufficed__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/s/suf/suffi/sufficed__us_1.ogg" style="cursor: pointer" title="sufficed pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/səˈfaɪst/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr class="verb_form" form="pastpart"&gt;&lt;td class="verb_form"&gt; &lt;span class="vf_prefix"&gt;past participle&lt;/span&gt; sufficed&lt;/td&gt;&lt;td class="verb_phons"&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="sufficed"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/s/suf/suffi/sufficed__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/s/suf/suffi/sufficed__gb_1.ogg" style="cursor: pointer" title="sufficed pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/səˈfaɪst/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="sufficed"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/s/suf/suffi/sufficed__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/s/suf/suffi/sufficed__us_1.ogg" style="cursor: pointer" title="sufficed pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/səˈfaɪst/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr class="verb_form" form="past"&gt;&lt;td class="verb_form"&gt; &lt;span class="vf_prefix"&gt;past simple&lt;/span&gt; sufficing&lt;/td&gt;&lt;td class="verb_phons"&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="sufficing"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/s/suf/suffi/sufficing__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/s/suf/suffi/sufficing__gb_1.ogg" style="cursor: pointer" title="sufficing pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/səˈfaɪsɪŋ/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="sufficing"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/s/suf/suffi/sufficing__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/s/suf/suffi/sufficing__us_1.ogg" style="cursor: pointer" title="sufficing pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/səˈfaɪsɪŋ/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr class="verb_form" form="pastpart"&gt;&lt;td class="verb_form"&gt; &lt;span class="vf_prefix"&gt;past participle&lt;/span&gt; sufficing&lt;/td&gt;&lt;td class="verb_phons"&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="sufficing"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/s/suf/suffi/sufficing__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/s/suf/suffi/sufficing__gb_1.ogg" style="cursor: pointer" title="sufficing pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/səˈfaɪsɪŋ/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="sufficing"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/s/suf/suffi/sufficing__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/s/suf/suffi/sufficing__us_1.ogg" style="cursor: pointer" title="sufficing pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/səˈfaɪsɪŋ/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;span class="jumplinks"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/suffice#suffice_idmgs_1" title="Idioms definition"&gt;&lt;span class="jumplink" href="suffice_idmgs_1" name="Idioms"&gt;Idioms&lt;/span&gt;&lt;/a&gt; &lt;/span&gt;&lt;/div&gt;&lt;a class="responsive_display_inline_on_smartphone link-right" href="#relatedentries"&gt;                            jump to other results                        &lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="sense_single" htag="ol"&gt;&lt;li class="sense" hclass="sense" htag="li" id="suffice_sng_1"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="def" hclass="def" htag="span"&gt;to be enough for somebody/something&lt;/span&gt;&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;Generally a brief note or a phone call will suffice.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt; &lt;span class="cf" hclass="cf" htag="span"&gt;suffice to do something&lt;/span&gt; &lt;span class="x"&gt;One example will suffice to illustrate the point.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="suffice_unbox_1" unbox="wordorigin"&gt;&lt;span class="box_title"&gt;Word Origin&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="p"&gt;Middle English: from Old French &lt;span class="ei"&gt;suffis-&lt;/span&gt;, stem of &lt;span class="ei"&gt;suffire&lt;/span&gt;, from Latin &lt;span class="ei"&gt;sufficere&lt;/span&gt; ‘put under, meet the need of’, from &lt;span class="ei"&gt;sub-&lt;/span&gt; ‘under’ + &lt;span class="ei"&gt;facere&lt;/span&gt; ‘make’.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;/li&gt;&lt;/ol&gt;&lt;div class="idioms" hclass="idioms" htag="div" id="suffice_idmgs_1"&gt;&lt;span class="idioms_heading"&gt;Idioms&lt;/span&gt; &lt;span class="idm-g" id="suffice_idmg_1" sk="sufficetosay"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="suffice_topg_3"&gt;&lt;div class="webtop"&gt;&lt;span class="idm" id="suffice_idm_2"&gt;suffice (it) to say (that)…&lt;/span&gt; &lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="sense_single" htag="ol"&gt;&lt;li class="sense" hclass="sense" htag="li" id="suffice_sng_2"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="def" hclass="def" htag="span"&gt;used to suggest that although you could say more, what you do say will be enough to explain what you mean&lt;/span&gt;&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;I won’t go into all the details. Suffice it to say that the whole event was a complete disaster.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;/li&gt;&lt;/ol&gt;&lt;/span&gt;&lt;/div&gt;&lt;span class="dictlink-g"&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/american_english/suffice" title=" definition in American English "&gt;&lt;span class="xh"&gt;suffice&lt;/span&gt;&lt;/a&gt; in the Oxford Advanced American Dictionary&lt;/span&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/academic/suffice" title=" definition in Academic English "&gt;&lt;span class="xh"&gt;suffice&lt;/span&gt;&lt;/a&gt; in the Oxford Learner's Dictionary of Academic English&lt;/span&gt;&lt;/span&gt;&lt;div class="pron-link"&gt;Check pronunciation:                        &lt;a href="https://www.oxfordlearnersdictionaries.com/pronunciation/english/suffice"&gt;suffice&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>commerce</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>&lt;div class="oald" id="entryContent"&gt;&lt;div class="entry" hclass="entry" hlength="8" htag="section" id="commerce" idm_id="000011896" sk="commerce: :0" sum="395"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="commerce_topg_1"&gt;&lt;div class="webtop"&gt;&lt;h1 class="headword" hclass="headword" htag="h1" id="commerce_h_1" ox5000="y"&gt;commerce&lt;/h1&gt; &lt;span class="pos" hclass="pos" htag="span"&gt;noun&lt;/span&gt;&lt;div class="symbols" hclass="symbols" htag="div"&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/oxford3000-5000?dataset=english&amp;amp;list=ox5000&amp;amp;level=c1"&gt;&lt;span class="ox5ksym_c1"&gt; &lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="commerce"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/c/com/comme/commerce__gb_2.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/c/com/comme/commerce__gb_2.ogg" style="cursor: pointer" title="commerce pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈkɒmɜːs/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="commerce"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/c/com/comme/commerce__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/c/com/comme/commerce__us_1.ogg" style="cursor: pointer" title="commerce pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈkɑːmɜːrs/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;span class="grammar" hclass="grammar" htag="span"&gt;[uncountable]&lt;/span&gt;&lt;/div&gt;&lt;a class="responsive_display_inline_on_smartphone link-right" href="#relatedentries"&gt;                            jump to other results                        &lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="sense_single" htag="ol"&gt;&lt;li class="sense" fkcefr="c1" fkox5000="y" hclass="sense" htag="li" id="commerce_sng_1"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="def" hclass="def" htag="span"&gt;trade, especially between countries; the buying and selling of goods and services&lt;/span&gt;&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;Leaders of industry and commerce met at the summit in Paris.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="commerce_unbox_1" unbox="wordfinder"&gt;&lt;span class="box_title"&gt;Wordfinder&lt;/span&gt;&lt;span class="body"&gt;&lt;ul class="bullet"&gt;&lt;li class="li"&gt;&lt;span class="xref" href="boom_subentryg_1:boom_topg_2" tofix=""&gt;boom&lt;/span&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/business" title="business definition"&gt;&lt;span class="xref"&gt;business&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/commerce" title="commerce definition"&gt;&lt;span class="xref"&gt;commerce&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="xref" href="embargo_subentryg_1:embargo_topg_2" tofix=""&gt;embargo&lt;/span&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;span class="xref" href="import_subentryg_1:import_topg_2" tofix=""&gt;import&lt;/span&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/market_1#market_sng_2" title="market definition"&gt;&lt;span class="xref"&gt;market&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/monopoly#monopoly_sng_1" title="monopoly definition"&gt;&lt;span class="xref"&gt;monopoly&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/sanction_1#sanction_sng_1" title="sanction definition"&gt;&lt;span class="xref"&gt;sanction&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/tariff#tariff_sng_1" title="tariff definition"&gt;&lt;span class="xref"&gt;tariff&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="li"&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/trade_1#trade_sng_1" title="trade definition"&gt;&lt;span class="xref"&gt;trade&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;span class="xrefs" hclass="xrefs" htag="span" xt="see"&gt;&lt;span class="prefix"&gt;see also&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/chamber-of-commerce" title="Chamber of Commerce definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="chamberofcommerce_e"&gt;&lt;span class="xh"&gt;Chamber of Commerce&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;span class="sep"&gt;,&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/e-commerce" title="e-commerce definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="ecommerce_e"&gt;&lt;span class="xh"&gt;e-commerce&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;span class="sep"&gt;,&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/m-commerce" title="m-commerce definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="mcommerce_e"&gt;&lt;span class="xh"&gt;m-commerce&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="commerce_unbox_2" unbox="extra_examples"&gt;&lt;span class="box_title"&gt;Extra Examples&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;She has little experience of the world of commerce.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;The marketplace was where commerce was traditionally carried on.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;The marketplace was where merchants engaged in commerce.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;commerce between China and Africa&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;the development of commerce with Asia&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/span&gt;&lt;/div&gt;&lt;span class="topic-g"&gt;&lt;span class="prefix"&gt;Topics &lt;/span&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/topic/business?level=c1" title="Topic business"&gt;&lt;span class="topic" href="l2:work_and_business:business?cefr=c1"&gt;&lt;span class="topic_name"&gt;Business&lt;/span&gt;&lt;span class="topic_cefr"&gt;c1&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;span class="sep"&gt;,&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/topic/politics?level=c1" title="Topic politics"&gt;&lt;span class="topic" href="l2:politics_and_society:politics?cefr=c1"&gt;&lt;span class="topic_name"&gt;Politics&lt;/span&gt;&lt;span class="topic_cefr"&gt;c1&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="commerce_unbox_3" unbox="snippet"&gt;&lt;span class="box_title"&gt;Oxford Collocations Dictionary&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="unbox"&gt;adjective&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;foreign&lt;/li&gt;&lt;li class="li"&gt;global&lt;/li&gt;&lt;li class="li"&gt;international&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;verb + commerce&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;engage in&lt;/li&gt;&lt;li class="li"&gt;regulate&lt;/li&gt;&lt;li class="li"&gt;affect&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;preposition&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;commerce  between&lt;/li&gt;&lt;li class="li"&gt;commerce  with&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;phrases&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;a chamber of commerce&lt;/li&gt;&lt;li class="li"&gt;the world of commerce&lt;/li&gt;&lt;/ul&gt;&lt;span class="xref_to_full_entry"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/collocations/commerce" title=" definition in Collocations "&gt;full entry&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="commerce_unbox_2" unbox="wordorigin"&gt;&lt;span class="box_title"&gt;Word Origin&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="p"&gt;mid 16th cent. originally in the sense of social interaction between people: from French, or from Latin &lt;span class="ei"&gt;commercium&lt;/span&gt; ‘trade, trading’, from &lt;span class="ei"&gt;com-&lt;/span&gt; ‘together’ + &lt;span class="ei"&gt;mercium&lt;/span&gt; (from &lt;span class="ei"&gt;merx&lt;/span&gt;, &lt;span class="ei"&gt;merc-&lt;/span&gt; ‘merchandise’).&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;/li&gt;&lt;/ol&gt;&lt;span class="dictlink-g"&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/american_english/commerce" title=" definition in American English "&gt;&lt;span class="xh"&gt;commerce&lt;/span&gt;&lt;/a&gt; in the Oxford Advanced American Dictionary&lt;/span&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/academic/commerce" title=" definition in Academic English "&gt;&lt;span class="xh"&gt;commerce&lt;/span&gt;&lt;/a&gt; in the Oxford Learner's Dictionary of Academic English&lt;/span&gt;&lt;/span&gt;&lt;div class="pron-link"&gt;Check pronunciation:                        &lt;a href="https://www.oxfordlearnersdictionaries.com/pronunciation/english/commerce"&gt;commerce&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>pause</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>&lt;div class="oald" id="entryContent"&gt;&lt;div class="entry" hclass="entry" hlength="5" htag="section" id="pause_1" idm_id="000043901" sk="pause: :0" sum="631"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="pause_topg_2"&gt;&lt;div class="webtop"&gt;&lt;h1 class="headword" hclass="headword" htag="h1" id="pause_h_1" ox5000="y" random="y"&gt;pause&lt;/h1&gt; &lt;span class="pos" hclass="pos" htag="span"&gt;verb&lt;/span&gt;&lt;div class="symbols" hclass="symbols" htag="div"&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/oxford3000-5000?dataset=english&amp;amp;list=ox5000&amp;amp;level=b2"&gt;&lt;span class="ox5ksym_b2"&gt; &lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="pause"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/p/pau/pause/pause__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/p/pau/pause/pause__gb_1.ogg" style="cursor: pointer" title="pause pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/pɔːz/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="pause"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/p/pau/pause/pause__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/p/pau/pause/pause__us_1.ogg" style="cursor: pointer" title="pause pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/pɔːz/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="pause2_unbox_1" unbox="verbforms"&gt;&lt;span class="box_title"&gt;Verb Forms&lt;/span&gt;&lt;span class="body"&gt;&lt;table class="verb_forms_table"&gt;&lt;tr class="verb_form" form="root"&gt;&lt;td class="verb_form"&gt; &lt;span class="vf_prefix"&gt;present simple I / you / we / they&lt;/span&gt; pause&lt;/td&gt;&lt;td class="verb_phons"&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="pause"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/p/pau/pause/pause__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/p/pau/pause/pause__gb_1.ogg" style="cursor: pointer" title="pause pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/pɔːz/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="pause"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/p/pau/pause/pause__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/p/pau/pause/pause__us_1.ogg" style="cursor: pointer" title="pause pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/pɔːz/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr class="verb_form" form="thirdps"&gt;&lt;td class="verb_form"&gt; &lt;span class="vf_prefix"&gt;he / she / it&lt;/span&gt; pauses&lt;/td&gt;&lt;td class="verb_phons"&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="pauses"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/p/pau/pause/pauses__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/p/pau/pause/pauses__gb_1.ogg" style="cursor: pointer" title="pauses pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈpɔːzɪz/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="pauses"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/p/pau/pause/pauses__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/p/pau/pause/pauses__us_1.ogg" style="cursor: pointer" title="pauses pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈpɔːzɪz/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr class="verb_form" form="past"&gt;&lt;td class="verb_form"&gt; &lt;span class="vf_prefix"&gt;past simple&lt;/span&gt; paused&lt;/td&gt;&lt;td class="verb_phons"&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="paused"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/p/pau/pause/paused__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/p/pau/pause/paused__gb_1.ogg" style="cursor: pointer" title="paused pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/pɔːzd/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="paused"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/p/pau/pause/paused__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/p/pau/pause/paused__us_1.ogg" style="cursor: pointer" title="paused pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/pɔːzd/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr class="verb_form" form="pastpart"&gt;&lt;td class="verb_form"&gt; &lt;span class="vf_prefix"&gt;past participle&lt;/span&gt; paused&lt;/td&gt;&lt;td class="verb_phons"&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="paused"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/p/pau/pause/paused__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/p/pau/pause/paused__gb_1.ogg" style="cursor: pointer" title="paused pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/pɔːzd/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="paused"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/p/pau/pause/paused__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/p/pau/pause/paused__us_1.ogg" style="cursor: pointer" title="paused pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/pɔːzd/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr class="verb_form" form="prespart"&gt;&lt;td class="verb_form"&gt; &lt;span class="vf_prefix"&gt;-ing form&lt;/span&gt; pausing&lt;/td&gt;&lt;td class="verb_phons"&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="pausing"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/p/pau/pausi/pausing__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/p/pau/pausi/pausing__gb_1.ogg" style="cursor: pointer" title="pausing pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈpɔːzɪŋ/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="pausing"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/p/pau/pausi/pausing__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/p/pau/pausi/pausing__us_1.ogg" style="cursor: pointer" title="pausing pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈpɔːzɪŋ/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;a class="responsive_display_inline_on_smartphone link-right" href="#relatedentries"&gt;                            jump to other results                        &lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="senses_multiple" htag="ol"&gt;&lt;li cefr="b2" class="sense" hclass="sense" htag="li" id="pause_sng_1" ox5000="y" sensenum="1"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;div class="symbols" hclass="symbols" htag="div"&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/oxford3000-5000?dataset=english&amp;amp;list=ox5000&amp;amp;level=b2"&gt;&lt;span class="ox5ksym_b2"&gt; &lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;/span&gt;&lt;span class="grammar" hclass="grammar" htag="span"&gt;[intransitive]&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;to stop talking or doing something for a short time before continuing&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;Anita paused for a moment, then said: ‘All right’.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;The woman spoke almost without &lt;span class="cl"&gt;pausing for breath&lt;/span&gt; &lt;span class="gloss" hclass="gloss" htag="span"&gt;(= very quickly)&lt;/span&gt;.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;I paused at the door and looked back.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;&lt;span class="cl"&gt;Pausing only to&lt;/span&gt; pull on a sweater, he ran out of the house.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="pause2_unbox_2" unbox="extra_examples"&gt;&lt;span class="box_title"&gt;Extra Examples&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;Just pause to think before giving me your answer.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;She paused a moment and then walked away.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;She paused occasionally to smell the flowers.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="unx"&gt;Without pausing to knock, she opened the door.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/span&gt;&lt;/div&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="pause2_unbox_3" unbox="snippet"&gt;&lt;span class="box_title"&gt;Oxford Collocations Dictionary&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="unbox"&gt;adverb&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;briefly&lt;/li&gt;&lt;li class="li"&gt;(for) a moment&lt;/li&gt;&lt;li class="li"&gt;momentarily&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="unbox"&gt;phrases&lt;/span&gt;&lt;ul class="collocs_list"&gt;&lt;li class="li"&gt;pause for breath&lt;/li&gt;&lt;li class="li"&gt;pause for thought&lt;/li&gt;&lt;li class="li"&gt;pause only long enough to do something&lt;/li&gt;&lt;li class="li"&gt;…&lt;/li&gt;&lt;/ul&gt;&lt;span class="xref_to_full_entry"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/collocations/pause_2" title=" definition in Collocations "&gt;full entry&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;/li&gt;&lt;li cefr="b2" class="sense" hclass="sense" htag="li" id="pause_sng_2" ox5000="y" sensenum="2"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;div class="symbols" hclass="symbols" htag="div"&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/oxford3000-5000?dataset=english&amp;amp;list=ox5000&amp;amp;level=b2"&gt;&lt;span class="ox5ksym_b2"&gt; &lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;/span&gt;&lt;span class="grammar" hclass="grammar" htag="span"&gt;[transitive]&lt;/span&gt; &lt;span class="cf" hclass="cf" htag="span"&gt;pause something&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;to stop a video, etc. for a short time using the &lt;span class="dh"&gt;pause&lt;/span&gt; button&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;She paused the movie to go and answer the door.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;/li&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="pause2_unbox_4" unbox="wordorigin"&gt;&lt;span class="box_title"&gt;Word Origin&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="p"&gt;late Middle English: from Old French, from Latin &lt;span class="ei"&gt;pausa&lt;/span&gt;, from Greek &lt;span class="ei"&gt;pausis&lt;/span&gt;, from &lt;span class="ei"&gt;pausein&lt;/span&gt; ‘to stop’.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;/ol&gt;&lt;span class="dictlink-g"&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/american_english/pause_1" title=" definition in American English "&gt;&lt;span class="xh"&gt;pause&lt;/span&gt;&lt;/a&gt; in the Oxford Advanced American Dictionary&lt;/span&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/academic/pause1" title=" definition in Academic English "&gt;&lt;span class="xh"&gt;pause&lt;/span&gt;&lt;/a&gt; in the Oxford Learner's Dictionary of Academic English&lt;/span&gt;&lt;/span&gt;&lt;div class="pron-link"&gt;Check pronunciation:                        &lt;a href="https://www.oxfordlearnersdictionaries.com/pronunciation/english/pause_1"&gt;pause&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>nigh</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>&lt;div class="oald" id="entryContent"&gt;&lt;div class="entry" hclass="entry" hlength="4" htag="section" id="nigh" idm_id="000040622" sk="nigh: :0" sum="241"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="nigh_topg_1"&gt;&lt;div class="webtop"&gt;&lt;h1 class="headword" hclass="headword" htag="h1" id="nigh_h_1"&gt;nigh&lt;/h1&gt; &lt;span class="pos" hclass="pos" htag="span"&gt;adverb&lt;/span&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="nigh"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/n/nig/nigh_/nigh__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/n/nig/nigh_/nigh__gb_1.ogg" style="cursor: pointer" title="nigh pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/naɪ/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="nigh"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/n/nig/nigh_/nigh__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/n/nig/nigh_/nigh__us_1.ogg" style="cursor: pointer" title="nigh pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/naɪ/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;/div&gt;&lt;a class="responsive_display_inline_on_smartphone link-right" href="#relatedentries"&gt;                            jump to other results                        &lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="senses_multiple" htag="ol"&gt;&lt;li class="sense" hclass="sense" htag="li" id="nigh_sng_1" sensenum="1"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="cf" hclass="cf" htag="span"&gt;nigh on&lt;/span&gt;&lt;/span&gt; &lt;span class="labels" hclass="labels" htag="span"&gt;(old-fashioned)&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;almost; nearly&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;They've lived in that house for nigh on 30 years.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;span class="xrefs" hclass="xrefs" htag="span" xt="see"&gt;&lt;span class="prefix"&gt;see also&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/well-nigh" title="well-nigh definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="wellnigh_e"&gt;&lt;span class="xh"&gt;well-nigh&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; &lt;/li&gt;&lt;li class="sense" hclass="sense" htag="li" id="nigh_sng_2" sensenum="2"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="labels" hclass="labels" htag="span"&gt;(old use or literary)&lt;/span&gt;&lt;/span&gt; &lt;span class="def" hclass="def" htag="span"&gt;near&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;Winter was drawing nigh.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;/li&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="nigh_unbox_1" unbox="wordorigin"&gt;&lt;span class="box_title"&gt;Word Origin&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="p"&gt;Old English &lt;span class="ei"&gt;nēh&lt;/span&gt;, &lt;span class="ei"&gt;nēah&lt;/span&gt;, of Germanic origin; related to Dutch &lt;span class="ei"&gt;na&lt;/span&gt;, German &lt;span class="ei"&gt;nah&lt;/span&gt;. Compare with &lt;span class="eb"&gt;near&lt;/span&gt;.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;/ol&gt;&lt;span class="dictlink-g"&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/american_english/nigh" title=" definition in American English "&gt;&lt;span class="xh"&gt;nigh&lt;/span&gt;&lt;/a&gt; in the Oxford Advanced American Dictionary&lt;/span&gt;&lt;/span&gt;&lt;div class="pron-link"&gt;Check pronunciation:                        &lt;a href="https://www.oxfordlearnersdictionaries.com/pronunciation/english/nigh"&gt;nigh&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>involuntary</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>&lt;div class="oald" id="entryContent"&gt;&lt;div class="entry" hclass="entry" hlength="11" htag="section" id="involuntary" idm_id="000031772" sk="involuntary: :0" sum="510"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="involuntary_topg_1"&gt;&lt;div class="webtop"&gt;&lt;h1 class="headword" hclass="headword" htag="h1" id="involuntary_h_1"&gt;involuntary&lt;/h1&gt; &lt;span class="pos" hclass="pos" htag="span"&gt;adjective&lt;/span&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="involuntary"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/i/inv/invol/involuntary__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/i/inv/invol/involuntary__gb_1.ogg" style="cursor: pointer" title="involuntary pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ɪnˈvɒləntri/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="involuntary"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/i/inv/invol/involuntary__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/i/inv/invol/involuntary__us_1.ogg" style="cursor: pointer" title="involuntary pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ɪnˈvɑːlənteri/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;/div&gt;&lt;a class="responsive_display_inline_on_smartphone link-right" href="#relatedentries"&gt;                            jump to other results                        &lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="senses_multiple" htag="ol"&gt;&lt;li class="sense" hclass="sense" htag="li" id="involuntary_sng_1" sensenum="1"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="def" hclass="def" htag="span"&gt;an &lt;span class="eb"&gt;involuntary&lt;/span&gt; movement, etc. is made suddenly, without you intending it or being able to control it&lt;/span&gt;&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;an involuntary cry of pain&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;span class="xrefs" hclass="xrefs" htag="span" xt="opp"&gt;&lt;span class="prefix"&gt;opposite&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/voluntary_1" title="voluntary definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="voluntary2_e"&gt;&lt;span class="xh"&gt;voluntary&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; &lt;/li&gt;&lt;li class="sense" hclass="sense" htag="li" id="involuntary_sng_2" sensenum="2"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="def" hclass="def" htag="span"&gt;happening without the person involved wanting it to&lt;/span&gt;&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;The company announced involuntary redundancies.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;involuntary childlessness&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;involuntary psychiatric hospitalization&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;/li&gt;&lt;/ol&gt;&lt;span class="dictlink-g"&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/american_english/involuntary" title=" definition in American English "&gt;&lt;span class="xh"&gt;involuntary&lt;/span&gt;&lt;/a&gt; in the Oxford Advanced American Dictionary&lt;/span&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/academic/involuntary" title=" definition in Academic English "&gt;&lt;span class="xh"&gt;involuntary&lt;/span&gt;&lt;/a&gt; in the Oxford Learner's Dictionary of Academic English&lt;/span&gt;&lt;/span&gt;&lt;div class="pron-link"&gt;Check pronunciation:                        &lt;a href="https://www.oxfordlearnersdictionaries.com/pronunciation/english/involuntary"&gt;involuntary&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>lath</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>&lt;div class="oald" id="entryContent"&gt;&lt;div class="entry" hclass="entry" hlength="4" htag="section" id="lath" idm_id="000033980" sk="lath: :0" sum="238"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="lath_topg_1"&gt;&lt;div class="webtop"&gt;&lt;h1 class="headword" hclass="headword" htag="h1" id="lath_h_1"&gt;lath&lt;/h1&gt; &lt;span class="pos" hclass="pos" htag="span"&gt;noun&lt;/span&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="lath"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/l/lat/lath_/lath__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/l/lat/lath_/lath__gb_1.ogg" style="cursor: pointer" title="lath pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/lɑːθ/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="lath"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/l/lat/lath_/lath__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/l/lat/lath_/lath__us_1.ogg" style="cursor: pointer" title="lath pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/læθ/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;div class="inflections" hclass="inflections" htag="div" id="lath_ifgs_1"&gt;(plural &lt;span class="inflected_form" hclass="inflected_form" htag="span"&gt;laths&lt;/span&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="laths"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/l/lat/laths/laths__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/l/lat/laths/laths__gb_1.ogg" style="cursor: pointer" title="laths pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/lɑːθs/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="laths"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/l/lat/laths/laths__us_1_rr.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/l/lat/laths/laths__us_1_rr.ogg" style="cursor: pointer" title="laths pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/læðz/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;)&lt;/div&gt;&lt;/div&gt;&lt;a class="responsive_display_inline_on_smartphone link-right" href="#relatedentries"&gt;                            jump to other results                        &lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="sense_single" htag="ol"&gt;&lt;li class="sense" hclass="sense" htag="li" id="lath_sng_1"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="def" hclass="def" htag="span"&gt;a thin, narrow piece of wood that is used to support &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/plaster_1" title="plaster definition"&gt;&lt;span class="ndv"&gt;plaster&lt;/span&gt;&lt;/a&gt; &lt;span class="gloss" hclass="gloss" htag="span"&gt;(= material used for covering walls)&lt;/span&gt; on the inside walls and the ceilings of buildings&lt;/span&gt;&lt;/span&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="lath_unbox_1" unbox="wordorigin"&gt;&lt;span class="box_title"&gt;Word Origin&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="p"&gt;Old English &lt;span class="ei"&gt;lætt&lt;/span&gt;, of Germanic origin; related to Dutch &lt;span class="ei"&gt;lat&lt;/span&gt; and German &lt;span class="ei"&gt;Latte&lt;/span&gt;, also to &lt;span class="eb"&gt;lattice&lt;/span&gt;.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;/li&gt;&lt;/ol&gt;&lt;span class="dictlink-g"&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/american_english/lath" title=" definition in American English "&gt;&lt;span class="xh"&gt;lath&lt;/span&gt;&lt;/a&gt; in the Oxford Advanced American Dictionary&lt;/span&gt;&lt;/span&gt;&lt;div class="pron-link"&gt;Check pronunciation:                        &lt;a href="https://www.oxfordlearnersdictionaries.com/pronunciation/english/lath"&gt;lath&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>noble</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>&lt;div class="oald" id="entryContent"&gt;&lt;div class="entry" hclass="entry" hlength="5" htag="section" id="noble_1" idm_id="000040755" sk="noble: :0" sum="811"&gt;&lt;div class="top-container"&gt;&lt;div class="top-g" id="noble_topg_2"&gt;&lt;div class="webtop"&gt;&lt;h1 class="headword" hclass="headword" htag="h1" id="noble_h_1" ox5000="y"&gt;noble&lt;/h1&gt; &lt;span class="pos" hclass="pos" htag="span"&gt;adjective&lt;/span&gt;&lt;div class="symbols" hclass="symbols" htag="div"&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/oxford3000-5000?dataset=english&amp;amp;list=ox5000&amp;amp;level=c1"&gt;&lt;span class="ox5ksym_c1"&gt; &lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="noble"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/n/nob/noble/noble__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/n/nob/noble/noble__gb_1.ogg" style="cursor: pointer" title="noble pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈnəʊbl/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="noble"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/n/nob/noble/noble__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/n/nob/noble/noble__us_1.ogg" style="cursor: pointer" title="noble pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈnəʊbl/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;&lt;div class="inflections" hclass="inflections" htag="div" id="noble_ifgs_1"&gt;(comparative &lt;span class="inflected_form" hclass="inflected_form" htag="span"&gt;nobler&lt;/span&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="nobler"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/n/nob/noble/nobler__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/n/nob/noble/nobler__gb_1.ogg" style="cursor: pointer" title="nobler pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈnəʊblə(r)/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="nobler"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/n/nob/noble/nobler__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/n/nob/noble/nobler__us_1.ogg" style="cursor: pointer" title="nobler pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈnəʊblər/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;, superlative &lt;span class="inflected_form" hclass="inflected_form" htag="span"&gt;noblest&lt;/span&gt;&lt;span class="phonetics"&gt; &lt;div class="phons_br" geo="br" hclass="phons_br" htag="div" wd="noblest"&gt;&lt;div class="sound audio_play_button pron-uk icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron/n/nob/noble/noblest__gb_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/uk_pron_ogg/n/nob/noble/noblest__gb_1.ogg" style="cursor: pointer" title="noblest pronunciation                    English" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈnəʊblɪst/&lt;/span&gt;&lt;/div&gt; &lt;div class="phons_n_am" geo="n_am" hclass="phons_n_am" htag="div" wd="noblest"&gt;&lt;div class="sound audio_play_button pron-us icon-audio" data-src-mp3="https://www.oxfordlearnersdictionaries.com/media/english/us_pron/n/nob/noble/noblest__us_1.mp3" data-src-ogg="https://www.oxfordlearnersdictionaries.com/media/english/us_pron_ogg/n/nob/noble/noblest__us_1.ogg" style="cursor: pointer" title="noblest pronunciation                    American" valign="top"&gt; &lt;/div&gt;&lt;span class="phon"&gt;/ˈnəʊblɪst/&lt;/span&gt;&lt;/div&gt;&lt;/span&gt;)&lt;/div&gt;&lt;/div&gt;&lt;a class="responsive_display_inline_on_smartphone link-right" href="#relatedentries"&gt;                            jump to other results                        &lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;ol class="senses_multiple" htag="ol"&gt;&lt;li cefr="c1" class="sense" hclass="sense" htag="li" id="noble_sng_1" ox5000="y" sensenum="1"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;div class="symbols" hclass="symbols" htag="div"&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/oxford3000-5000?dataset=english&amp;amp;list=ox5000&amp;amp;level=c1"&gt;&lt;span class="ox5ksym_c1"&gt; &lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;/span&gt;&lt;span class="def" hclass="def" htag="span"&gt;having or showing fine personal qualities that people admire, such as courage, &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/honesty" title="honesty definition"&gt;&lt;span class="ndv"&gt;honesty&lt;/span&gt;&lt;/a&gt; and care for others&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;a noble leader&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;noble ideals&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;He died for a noble cause.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;She died in a noble cause.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;It was very noble of you to go so far to take him home.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;span class="xrefs" hclass="xrefs" htag="span" xt="opp"&gt;&lt;span class="prefix"&gt;opposite&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/ignoble" title="ignoble definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="ignoble_e"&gt;&lt;span class="xh"&gt;ignoble&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;span class="topic-g"&gt;&lt;span class="prefix"&gt;Topics &lt;/span&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/topic/personal-qualities?level=c1" title="Topic personal-qualities"&gt;&lt;span class="topic" href="l2:people:personal_qualities?cefr=c1"&gt;&lt;span class="topic_name"&gt;Personal qualities&lt;/span&gt;&lt;span class="topic_cefr"&gt;c1&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; &lt;/li&gt;&lt;li cefr="c1" class="sense" hclass="sense" htag="li" id="noble_sng_3" ox5000="y" sensenum="2"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;div class="symbols" hclass="symbols" htag="div"&gt;&lt;a href="https://www.oxfordlearnersdictionaries.com/wordlists/oxford3000-5000?dataset=english&amp;amp;list=ox5000&amp;amp;level=c1"&gt;&lt;span class="ox5ksym_c1"&gt; &lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;/span&gt;&lt;span class="def" hclass="def" htag="span"&gt;belonging to a family of high social rank &lt;span class="gloss" hclass="gloss" htag="span"&gt;(= belonging to the &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/nobility" title="nobility definition"&gt;&lt;span class="ndv"&gt;nobility&lt;/span&gt;&lt;/a&gt;)&lt;/span&gt;&lt;/span&gt; &lt;span class="xrefs" hclass="xrefs" htag="span" xt="syn"&gt;&lt;span class="prefix"&gt;synonym&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/aristocratic" title="aristocratic definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="aristocratic_e"&gt;&lt;span class="xh"&gt;aristocratic&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;He was a young man of noble birth.&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;one of the noblest families in Portugal&lt;/span&gt;&lt;/li&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;Intermarriage between the noble families means that all the counts are related.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;span class="topic-g"&gt;&lt;span class="prefix"&gt;Topics &lt;/span&gt;&lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/topic/people-in-society?level=c1" title="Topic people-in-society"&gt;&lt;span class="topic" href="l2:politics_and_society:people_in_society?cefr=c1"&gt;&lt;span class="topic_name"&gt;People in society&lt;/span&gt;&lt;span class="topic_cefr"&gt;c1&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt; &lt;div class="am-entry" id="ad_contentslot_1"&gt;&lt;script type="text/javascript"&gt;iaw.cmd.push(function() { iaw.display('ad_contentslot_1'); });&lt;/script&gt;&lt;/div&gt;&lt;/li&gt;&lt;li class="sense" hclass="sense" htag="li" id="noble_sng_2" sensenum="3"&gt;&lt;span class="sensetop" hclass="sensetop" htag="span"&gt;&lt;span class="def" hclass="def" htag="span"&gt;very impressive in size or quality&lt;/span&gt;&lt;/span&gt; &lt;span class="xrefs" hclass="xrefs" htag="span" xt="nsyn"&gt;&lt;span class="prefix"&gt;synonym&lt;/span&gt; &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/english/splendid_1" title="splendid definition"&gt;&lt;span bord="n" class="xr-g" dict="all" href="splendid_subentryg_1:splendid_topg_2"&gt;&lt;span class="xh"&gt;splendid&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;ul class="examples" hclass="examples" htag="ul"&gt;&lt;li class="" htag="li"&gt;&lt;span class="x"&gt;a noble building&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt; &lt;/li&gt;&lt;div class="collapse" hclass="collapse" htag="div"&gt;&lt;span class="unbox" id="noble2_unbox_1" unbox="wordorigin"&gt;&lt;span class="box_title"&gt;Word Origin&lt;/span&gt;&lt;span class="body"&gt;&lt;span class="p"&gt;Middle English: from Old French, from Latin &lt;span class="ei"&gt;(g)nobilis&lt;/span&gt; ‘noted, high-born’, from an Indo-European root shared by &lt;span class="eb"&gt;know&lt;/span&gt;.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;/ol&gt;&lt;span class="dictlink-g"&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/american_english/noble_1" title=" definition in American English "&gt;&lt;span class="xh"&gt;noble&lt;/span&gt;&lt;/a&gt; in the Oxford Advanced American Dictionary&lt;/span&gt;&lt;span class="dictlink"&gt;See &lt;a class="Ref" href="https://www.oxfordlearnersdictionaries.com/definition/academic/noble1" title=" definition in Academic English "&gt;&lt;span class="xh"&gt;noble&lt;/span&gt;&lt;/a&gt; in the Oxford Learner's Dictionary of Academic English&lt;/span&gt;&lt;/span&gt;&lt;div class="pron-link"&gt;Check pronunciation:                        &lt;a href="https://www.oxfordlearnersdictionaries.com/pronunciation/english/noble_1"&gt;noble&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
